--- a/Analysis Documents/Article Data - FINAL (3).xlsx
+++ b/Analysis Documents/Article Data - FINAL (3).xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjqf5slCCzSZ2uZcpPnVWPl5WZG7w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhiMMjeeY5xHUCwyQwalfy6qONjZQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="550">
   <si>
     <t>ID No.</t>
   </si>
@@ -10001,7 +10001,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="61" width="10.56"/>
+    <col customWidth="1" min="1" max="60" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -10058,74 +10058,72 @@
         <v>58</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>107</v>
+        <v>476</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>476</v>
+        <v>29</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AH1" s="10" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="AI1" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>159</v>
       </c>
+      <c r="AK1" s="10" t="s">
+        <v>513</v>
+      </c>
       <c r="AL1" s="10" t="s">
-        <v>513</v>
+        <v>266</v>
       </c>
       <c r="AM1" s="10" t="s">
-        <v>266</v>
+        <v>366</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="AO1" s="10" t="s">
         <v>248</v>
       </c>
+      <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
       <c r="AQ1" s="10"/>
       <c r="AR1" s="10"/>
@@ -10145,7 +10143,6 @@
       <c r="BF1" s="10"/>
       <c r="BG1" s="10"/>
       <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7"/>
@@ -10208,11 +10205,11 @@
       </c>
       <c r="S2" s="7">
         <f t="shared" ref="S2:S137" si="9">IF(ISNUMBER(MATCH(S$1,E2:I2,0)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="7">
         <f t="shared" ref="T2:T137" si="10">IF(ISNUMBER(MATCH(T$1,E2:I2,0)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="7">
         <f t="shared" ref="U2:U137" si="11">IF(ISNUMBER(MATCH(U$1,E2:I2,0)),1,0)</f>
@@ -10248,11 +10245,11 @@
       </c>
       <c r="AC2" s="7">
         <f t="shared" ref="AC2:AC137" si="19">IF(ISNUMBER(MATCH(AC$1,E2:I2,0)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="7">
         <f t="shared" ref="AD2:AD137" si="20">IF(ISNUMBER(MATCH(AD$1,E2:I2,0)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="7">
         <f t="shared" ref="AE2:AE137" si="21">IF(ISNUMBER(MATCH(AE$1,E2:I2,0)),1,0)</f>
@@ -10260,11 +10257,11 @@
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF137" si="22">IF(ISNUMBER(MATCH(AF$1,E2:I2,0)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="7">
         <f t="shared" ref="AG2:AG137" si="23">IF(ISNUMBER(MATCH(AG$1,E2:I2,0)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="7">
         <f t="shared" ref="AH2:AH137" si="24">IF(ISNUMBER(MATCH(AH$1,E2:I2,0)),1,0)</f>
@@ -10294,10 +10291,7 @@
         <f t="shared" ref="AN2:AN137" si="30">IF(ISNUMBER(MATCH(AN$1,E2:I2,0)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="7">
-        <f t="shared" ref="AO2:AO137" si="31">IF(ISNUMBER(MATCH(AO$1,E2:I2,0)),1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
@@ -10317,7 +10311,6 @@
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
       <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="7"/>
@@ -10402,15 +10395,15 @@
       </c>
       <c r="Y3" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="7">
         <f t="shared" si="18"/>
@@ -10418,7 +10411,7 @@
       </c>
       <c r="AC3" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="7">
         <f t="shared" si="20"/>
@@ -10464,10 +10457,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO3" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
@@ -10487,7 +10477,6 @@
       <c r="BF3" s="7"/>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
-      <c r="BI3" s="7"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -10562,11 +10551,11 @@
       </c>
       <c r="W4" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="7">
         <f t="shared" si="15"/>
@@ -10578,11 +10567,11 @@
       </c>
       <c r="AA4" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="7">
         <f t="shared" si="19"/>
@@ -10632,10 +10621,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO4" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
@@ -10655,7 +10641,6 @@
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
-      <c r="BI4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="7"/>
@@ -10718,11 +10703,11 @@
       </c>
       <c r="T5" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f t="shared" si="12"/>
@@ -10746,11 +10731,11 @@
       </c>
       <c r="AA5" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="19"/>
@@ -10800,10 +10785,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO5" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
@@ -10823,7 +10805,6 @@
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
-      <c r="BI5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7"/>
@@ -10886,11 +10867,11 @@
       </c>
       <c r="S6" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="11"/>
@@ -10934,7 +10915,7 @@
       </c>
       <c r="AE6" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="22"/>
@@ -10942,7 +10923,7 @@
       </c>
       <c r="AG6" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="7">
         <f t="shared" si="24"/>
@@ -10972,10 +10953,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO6" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
@@ -10995,7 +10973,6 @@
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
-      <c r="BI6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="7"/>
@@ -11068,11 +11045,11 @@
       </c>
       <c r="V7" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="7">
         <f t="shared" si="14"/>
@@ -11142,10 +11119,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
       <c r="AR7" s="7"/>
@@ -11165,7 +11139,6 @@
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
-      <c r="BI7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="7"/>
@@ -11238,11 +11211,11 @@
       </c>
       <c r="V8" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="7">
         <f t="shared" si="14"/>
@@ -11262,11 +11235,11 @@
       </c>
       <c r="AB8" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="7">
         <f t="shared" si="20"/>
@@ -11312,10 +11285,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
@@ -11335,7 +11305,6 @@
       <c r="BF8" s="7"/>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7"/>
-      <c r="BI8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="7"/>
@@ -11394,7 +11363,7 @@
       </c>
       <c r="S9" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="7">
         <f t="shared" si="10"/>
@@ -11402,7 +11371,7 @@
       </c>
       <c r="U9" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="7">
         <f t="shared" si="12"/>
@@ -11480,10 +11449,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO9" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7"/>
@@ -11503,7 +11469,6 @@
       <c r="BF9" s="7"/>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7"/>
-      <c r="BI9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="7"/>
@@ -11592,11 +11557,11 @@
       </c>
       <c r="AA10" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f t="shared" si="19"/>
@@ -11646,10 +11611,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
@@ -11669,7 +11631,6 @@
       <c r="BF10" s="7"/>
       <c r="BG10" s="7"/>
       <c r="BH10" s="7"/>
-      <c r="BI10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="7"/>
@@ -11814,10 +11775,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
       <c r="AR11" s="7"/>
@@ -11837,7 +11795,6 @@
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
-      <c r="BI11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="7"/>
@@ -11930,11 +11887,11 @@
       </c>
       <c r="AA12" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="7">
         <f t="shared" si="19"/>
@@ -11984,10 +11941,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
@@ -12007,7 +11961,6 @@
       <c r="BF12" s="7"/>
       <c r="BG12" s="7"/>
       <c r="BH12" s="7"/>
-      <c r="BI12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="7"/>
@@ -12066,11 +12019,11 @@
       </c>
       <c r="S13" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="7">
         <f t="shared" si="11"/>
@@ -12152,10 +12105,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
       <c r="AR13" s="7"/>
@@ -12175,7 +12125,6 @@
       <c r="BF13" s="7"/>
       <c r="BG13" s="7"/>
       <c r="BH13" s="7"/>
-      <c r="BI13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="7"/>
@@ -12254,11 +12203,11 @@
       </c>
       <c r="W14" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="7">
         <f t="shared" si="15"/>
@@ -12270,11 +12219,11 @@
       </c>
       <c r="AA14" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="7">
         <f t="shared" si="19"/>
@@ -12282,7 +12231,7 @@
       </c>
       <c r="AD14" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="7">
         <f t="shared" si="21"/>
@@ -12290,7 +12239,7 @@
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="7">
         <f t="shared" si="23"/>
@@ -12324,10 +12273,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO14" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
       <c r="AR14" s="7"/>
@@ -12347,7 +12293,6 @@
       <c r="BF14" s="7"/>
       <c r="BG14" s="7"/>
       <c r="BH14" s="7"/>
-      <c r="BI14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
@@ -12426,11 +12371,11 @@
       </c>
       <c r="W15" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="7">
         <f t="shared" si="15"/>
@@ -12454,7 +12399,7 @@
       </c>
       <c r="AD15" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="7">
         <f t="shared" si="21"/>
@@ -12462,15 +12407,15 @@
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="7">
         <f t="shared" si="25"/>
@@ -12496,10 +12441,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO15" s="7"/>
       <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
       <c r="AR15" s="7"/>
@@ -12519,7 +12461,6 @@
       <c r="BF15" s="7"/>
       <c r="BG15" s="7"/>
       <c r="BH15" s="7"/>
-      <c r="BI15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="7"/>
@@ -12612,11 +12553,11 @@
       </c>
       <c r="AA16" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="7">
         <f t="shared" si="19"/>
@@ -12624,7 +12565,7 @@
       </c>
       <c r="AD16" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="7">
         <f t="shared" si="21"/>
@@ -12632,7 +12573,7 @@
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="7">
         <f t="shared" si="23"/>
@@ -12666,10 +12607,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
@@ -12689,7 +12627,6 @@
       <c r="BF16" s="7"/>
       <c r="BG16" s="7"/>
       <c r="BH16" s="7"/>
-      <c r="BI16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="7"/>
@@ -12772,11 +12709,11 @@
       </c>
       <c r="Y17" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="7">
         <f t="shared" si="17"/>
@@ -12834,10 +12771,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO17" s="7"/>
       <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
       <c r="AR17" s="7"/>
@@ -12857,7 +12791,6 @@
       <c r="BF17" s="7"/>
       <c r="BG17" s="7"/>
       <c r="BH17" s="7"/>
-      <c r="BI17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="7"/>
@@ -12934,27 +12867,27 @@
       </c>
       <c r="W18" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f t="shared" si="19"/>
@@ -13004,10 +12937,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
@@ -13027,7 +12957,6 @@
       <c r="BF18" s="7"/>
       <c r="BG18" s="7"/>
       <c r="BH18" s="7"/>
-      <c r="BI18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="7"/>
@@ -13114,11 +13043,11 @@
       </c>
       <c r="Z19" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="7">
         <f t="shared" si="18"/>
@@ -13138,11 +13067,11 @@
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="7">
         <f t="shared" si="24"/>
@@ -13172,10 +13101,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7"/>
       <c r="AR19" s="7"/>
@@ -13195,7 +13121,6 @@
       <c r="BF19" s="7"/>
       <c r="BG19" s="7"/>
       <c r="BH19" s="7"/>
-      <c r="BI19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
@@ -13208,8 +13133,8 @@
       <c r="D20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>126</v>
+      <c r="E20" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -13218,7 +13143,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="2"/>
@@ -13250,7 +13175,7 @@
       </c>
       <c r="S20" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="7">
         <f t="shared" si="10"/>
@@ -13336,10 +13261,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
@@ -13359,7 +13281,6 @@
       <c r="BF20" s="7"/>
       <c r="BG20" s="7"/>
       <c r="BH20" s="7"/>
-      <c r="BI20" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
@@ -13434,11 +13355,11 @@
       </c>
       <c r="W21" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="7">
         <f t="shared" si="15"/>
@@ -13504,10 +13425,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO21" s="7"/>
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
       <c r="AR21" s="7"/>
@@ -13527,7 +13445,6 @@
       <c r="BF21" s="7"/>
       <c r="BG21" s="7"/>
       <c r="BH21" s="7"/>
-      <c r="BI21" s="7"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
@@ -13602,11 +13519,11 @@
       </c>
       <c r="W22" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="7">
         <f t="shared" si="15"/>
@@ -13672,10 +13589,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO22" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
       <c r="AR22" s="7"/>
@@ -13695,7 +13609,6 @@
       <c r="BF22" s="7"/>
       <c r="BG22" s="7"/>
       <c r="BH22" s="7"/>
-      <c r="BI22" s="7"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
@@ -13834,10 +13747,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO23" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7"/>
       <c r="AR23" s="7"/>
@@ -13857,7 +13767,6 @@
       <c r="BF23" s="7"/>
       <c r="BG23" s="7"/>
       <c r="BH23" s="7"/>
-      <c r="BI23" s="7"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
@@ -13914,11 +13823,11 @@
       </c>
       <c r="S24" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="7">
         <f t="shared" si="11"/>
@@ -14000,10 +13909,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO24" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7"/>
       <c r="AR24" s="7"/>
@@ -14023,7 +13929,6 @@
       <c r="BF24" s="7"/>
       <c r="BG24" s="7"/>
       <c r="BH24" s="7"/>
-      <c r="BI24" s="7"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
@@ -14164,10 +14069,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO25" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO25" s="7"/>
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
       <c r="AR25" s="7"/>
@@ -14187,7 +14089,6 @@
       <c r="BF25" s="7"/>
       <c r="BG25" s="7"/>
       <c r="BH25" s="7"/>
-      <c r="BI25" s="7"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="7"/>
@@ -14268,11 +14169,11 @@
       </c>
       <c r="Y26" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="7">
         <f t="shared" si="17"/>
@@ -14330,10 +14231,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO26" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO26" s="7"/>
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
       <c r="AR26" s="7"/>
@@ -14353,7 +14251,6 @@
       <c r="BF26" s="7"/>
       <c r="BG26" s="7"/>
       <c r="BH26" s="7"/>
-      <c r="BI26" s="7"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="7"/>
@@ -14436,11 +14333,11 @@
       </c>
       <c r="Y27" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="7">
         <f t="shared" si="17"/>
@@ -14498,10 +14395,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO27" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO27" s="7"/>
       <c r="AP27" s="7"/>
       <c r="AQ27" s="7"/>
       <c r="AR27" s="7"/>
@@ -14521,7 +14415,6 @@
       <c r="BF27" s="7"/>
       <c r="BG27" s="7"/>
       <c r="BH27" s="7"/>
-      <c r="BI27" s="7"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
@@ -14594,11 +14487,11 @@
       </c>
       <c r="V28" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="7">
         <f t="shared" si="14"/>
@@ -14650,11 +14543,11 @@
       </c>
       <c r="AJ28" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28" s="7">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="7">
         <f t="shared" si="28"/>
@@ -14668,10 +14561,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO28" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
       <c r="AR28" s="7"/>
@@ -14691,7 +14581,6 @@
       <c r="BF28" s="7"/>
       <c r="BG28" s="7"/>
       <c r="BH28" s="7"/>
-      <c r="BI28" s="7"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
@@ -14754,11 +14643,11 @@
       </c>
       <c r="T29" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="7">
         <f t="shared" si="12"/>
@@ -14766,11 +14655,11 @@
       </c>
       <c r="W29" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="7">
         <f t="shared" si="15"/>
@@ -14836,10 +14725,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO29" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO29" s="7"/>
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
       <c r="AR29" s="7"/>
@@ -14859,7 +14745,6 @@
       <c r="BF29" s="7"/>
       <c r="BG29" s="7"/>
       <c r="BH29" s="7"/>
-      <c r="BI29" s="7"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
@@ -14932,11 +14817,11 @@
       </c>
       <c r="W30" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="7">
         <f t="shared" si="15"/>
@@ -15002,10 +14887,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO30" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO30" s="7"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
       <c r="AR30" s="7"/>
@@ -15025,7 +14907,6 @@
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
       <c r="BH30" s="7"/>
-      <c r="BI30" s="7"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
@@ -15166,10 +15047,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO31" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO31" s="7"/>
       <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
       <c r="AR31" s="7"/>
@@ -15189,7 +15067,6 @@
       <c r="BF31" s="7"/>
       <c r="BG31" s="7"/>
       <c r="BH31" s="7"/>
-      <c r="BI31" s="7"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
@@ -15250,11 +15127,11 @@
       </c>
       <c r="T32" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="7">
         <f t="shared" si="12"/>
@@ -15332,10 +15209,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO32" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
@@ -15355,7 +15229,6 @@
       <c r="BF32" s="7"/>
       <c r="BG32" s="7"/>
       <c r="BH32" s="7"/>
-      <c r="BI32" s="7"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
@@ -15416,11 +15289,11 @@
       </c>
       <c r="T33" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="7">
         <f t="shared" si="12"/>
@@ -15498,10 +15371,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO33" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO33" s="7"/>
       <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="7"/>
@@ -15521,7 +15391,6 @@
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
       <c r="BH33" s="7"/>
-      <c r="BI33" s="7"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
@@ -15588,7 +15457,7 @@
       </c>
       <c r="U34" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="7">
         <f t="shared" si="12"/>
@@ -15596,7 +15465,7 @@
       </c>
       <c r="W34" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="7">
         <f t="shared" si="14"/>
@@ -15666,10 +15535,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO34" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO34" s="7"/>
       <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
       <c r="AR34" s="7"/>
@@ -15689,7 +15555,6 @@
       <c r="BF34" s="7"/>
       <c r="BG34" s="7"/>
       <c r="BH34" s="7"/>
-      <c r="BI34" s="7"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="7"/>
@@ -15760,11 +15625,11 @@
       </c>
       <c r="V35" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="7">
         <f t="shared" si="14"/>
@@ -15834,10 +15699,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO35" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO35" s="7"/>
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
       <c r="AR35" s="7"/>
@@ -15857,7 +15719,6 @@
       <c r="BF35" s="7"/>
       <c r="BG35" s="7"/>
       <c r="BH35" s="7"/>
-      <c r="BI35" s="7"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="7"/>
@@ -15924,11 +15785,11 @@
       </c>
       <c r="U36" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="7">
         <f t="shared" si="13"/>
@@ -15956,11 +15817,11 @@
       </c>
       <c r="AC36" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="7">
         <f t="shared" si="21"/>
@@ -16002,10 +15863,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO36" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO36" s="7"/>
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
       <c r="AR36" s="7"/>
@@ -16025,7 +15883,6 @@
       <c r="BF36" s="7"/>
       <c r="BG36" s="7"/>
       <c r="BH36" s="7"/>
-      <c r="BI36" s="7"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="7"/>
@@ -16044,15 +15901,15 @@
       <c r="F37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>126</v>
+      <c r="G37" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="7">
         <f t="shared" si="2"/>
@@ -16084,7 +15941,7 @@
       </c>
       <c r="S37" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="7">
         <f t="shared" si="10"/>
@@ -16170,10 +16027,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO37" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO37" s="7"/>
       <c r="AP37" s="7"/>
       <c r="AQ37" s="7"/>
       <c r="AR37" s="7"/>
@@ -16193,7 +16047,6 @@
       <c r="BF37" s="7"/>
       <c r="BG37" s="7"/>
       <c r="BH37" s="7"/>
-      <c r="BI37" s="7"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="7"/>
@@ -16334,10 +16187,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO38" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO38" s="7"/>
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
       <c r="AR38" s="7"/>
@@ -16357,7 +16207,6 @@
       <c r="BF38" s="7"/>
       <c r="BG38" s="7"/>
       <c r="BH38" s="7"/>
-      <c r="BI38" s="7"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="7"/>
@@ -16496,10 +16345,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO39" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO39" s="7"/>
       <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="7"/>
@@ -16519,7 +16365,6 @@
       <c r="BF39" s="7"/>
       <c r="BG39" s="7"/>
       <c r="BH39" s="7"/>
-      <c r="BI39" s="7"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="7"/>
@@ -16658,10 +16503,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO40" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO40" s="7"/>
       <c r="AP40" s="7"/>
       <c r="AQ40" s="7"/>
       <c r="AR40" s="7"/>
@@ -16681,7 +16523,6 @@
       <c r="BF40" s="7"/>
       <c r="BG40" s="7"/>
       <c r="BH40" s="7"/>
-      <c r="BI40" s="7"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="7"/>
@@ -16792,11 +16633,11 @@
       </c>
       <c r="AF41" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="7">
         <f t="shared" si="24"/>
@@ -16826,10 +16667,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO41" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO41" s="7"/>
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
       <c r="AR41" s="7"/>
@@ -16849,7 +16687,6 @@
       <c r="BF41" s="7"/>
       <c r="BG41" s="7"/>
       <c r="BH41" s="7"/>
-      <c r="BI41" s="7"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="7"/>
@@ -16924,19 +16761,19 @@
       </c>
       <c r="W42" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="7">
         <f t="shared" si="17"/>
@@ -16994,10 +16831,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO42" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO42" s="7"/>
       <c r="AP42" s="7"/>
       <c r="AQ42" s="7"/>
       <c r="AR42" s="7"/>
@@ -17017,7 +16851,6 @@
       <c r="BF42" s="7"/>
       <c r="BG42" s="7"/>
       <c r="BH42" s="7"/>
-      <c r="BI42" s="7"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="7"/>
@@ -17092,11 +16925,11 @@
       </c>
       <c r="X43" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="7">
         <f t="shared" si="16"/>
@@ -17132,11 +16965,11 @@
       </c>
       <c r="AH43" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="7">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="7">
         <f t="shared" si="26"/>
@@ -17158,10 +16991,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO43" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO43" s="7"/>
       <c r="AP43" s="7"/>
       <c r="AQ43" s="7"/>
       <c r="AR43" s="7"/>
@@ -17181,7 +17011,6 @@
       <c r="BF43" s="7"/>
       <c r="BG43" s="7"/>
       <c r="BH43" s="7"/>
-      <c r="BI43" s="7"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="7"/>
@@ -17194,8 +17023,8 @@
       <c r="D44" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>126</v>
+      <c r="E44" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>235</v>
@@ -17208,7 +17037,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="7">
         <f t="shared" si="2"/>
@@ -17240,7 +17069,7 @@
       </c>
       <c r="S44" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="7">
         <f t="shared" si="10"/>
@@ -17272,11 +17101,11 @@
       </c>
       <c r="AA44" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="7">
         <f t="shared" si="19"/>
@@ -17304,11 +17133,11 @@
       </c>
       <c r="AI44" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ44" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="7">
         <f t="shared" si="27"/>
@@ -17326,10 +17155,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO44" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO44" s="7"/>
       <c r="AP44" s="7"/>
       <c r="AQ44" s="7"/>
       <c r="AR44" s="7"/>
@@ -17349,7 +17175,6 @@
       <c r="BF44" s="7"/>
       <c r="BG44" s="7"/>
       <c r="BH44" s="7"/>
-      <c r="BI44" s="7"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="7"/>
@@ -17426,11 +17251,11 @@
       </c>
       <c r="W45" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="7">
         <f t="shared" si="15"/>
@@ -17442,11 +17267,11 @@
       </c>
       <c r="AA45" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="7">
         <f t="shared" si="19"/>
@@ -17474,11 +17299,11 @@
       </c>
       <c r="AI45" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="7">
         <f t="shared" si="27"/>
@@ -17496,10 +17321,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO45" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO45" s="7"/>
       <c r="AP45" s="7"/>
       <c r="AQ45" s="7"/>
       <c r="AR45" s="7"/>
@@ -17519,7 +17341,6 @@
       <c r="BF45" s="7"/>
       <c r="BG45" s="7"/>
       <c r="BH45" s="7"/>
-      <c r="BI45" s="7"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="7"/>
@@ -17596,19 +17417,19 @@
       </c>
       <c r="W46" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="7">
         <f t="shared" si="17"/>
@@ -17666,10 +17487,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO46" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO46" s="7"/>
       <c r="AP46" s="7"/>
       <c r="AQ46" s="7"/>
       <c r="AR46" s="7"/>
@@ -17689,7 +17507,6 @@
       <c r="BF46" s="7"/>
       <c r="BG46" s="7"/>
       <c r="BH46" s="7"/>
-      <c r="BI46" s="7"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="7"/>
@@ -17748,11 +17565,11 @@
       </c>
       <c r="S47" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="7">
         <f t="shared" si="11"/>
@@ -17800,11 +17617,11 @@
       </c>
       <c r="AF47" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG47" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="7">
         <f t="shared" si="24"/>
@@ -17834,10 +17651,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO47" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO47" s="7"/>
       <c r="AP47" s="7"/>
       <c r="AQ47" s="7"/>
       <c r="AR47" s="7"/>
@@ -17857,7 +17671,6 @@
       <c r="BF47" s="7"/>
       <c r="BG47" s="7"/>
       <c r="BH47" s="7"/>
-      <c r="BI47" s="7"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="7"/>
@@ -17934,11 +17747,11 @@
       </c>
       <c r="W48" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="7">
         <f t="shared" si="15"/>
@@ -17958,11 +17771,11 @@
       </c>
       <c r="AC48" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="7">
         <f t="shared" si="21"/>
@@ -18002,12 +17815,9 @@
       </c>
       <c r="AN48" s="7">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AO48" s="7">
-        <f t="shared" si="31"/>
         <v>1</v>
       </c>
+      <c r="AO48" s="7"/>
       <c r="AP48" s="7"/>
       <c r="AQ48" s="7"/>
       <c r="AR48" s="7"/>
@@ -18027,7 +17837,6 @@
       <c r="BF48" s="7"/>
       <c r="BG48" s="7"/>
       <c r="BH48" s="7"/>
-      <c r="BI48" s="7"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="7"/>
@@ -18098,11 +17907,11 @@
       </c>
       <c r="V49" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" s="7">
         <f t="shared" si="14"/>
@@ -18172,10 +17981,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO49" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO49" s="7"/>
       <c r="AP49" s="7"/>
       <c r="AQ49" s="7"/>
       <c r="AR49" s="7"/>
@@ -18195,7 +18001,6 @@
       <c r="BF49" s="7"/>
       <c r="BG49" s="7"/>
       <c r="BH49" s="7"/>
-      <c r="BI49" s="7"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="7"/>
@@ -18208,11 +18013,11 @@
       <c r="D50" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>126</v>
+      <c r="E50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>26</v>
@@ -18254,7 +18059,7 @@
       </c>
       <c r="S50" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="7">
         <f t="shared" si="10"/>
@@ -18340,10 +18145,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO50" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO50" s="7"/>
       <c r="AP50" s="7"/>
       <c r="AQ50" s="7"/>
       <c r="AR50" s="7"/>
@@ -18363,7 +18165,6 @@
       <c r="BF50" s="7"/>
       <c r="BG50" s="7"/>
       <c r="BH50" s="7"/>
-      <c r="BI50" s="7"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="7"/>
@@ -18446,19 +18247,19 @@
       </c>
       <c r="Y51" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="7">
         <f t="shared" si="19"/>
@@ -18508,10 +18309,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO51" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO51" s="7"/>
       <c r="AP51" s="7"/>
       <c r="AQ51" s="7"/>
       <c r="AR51" s="7"/>
@@ -18531,7 +18329,6 @@
       <c r="BF51" s="7"/>
       <c r="BG51" s="7"/>
       <c r="BH51" s="7"/>
-      <c r="BI51" s="7"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
@@ -18668,10 +18465,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO52" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO52" s="7"/>
       <c r="AP52" s="7"/>
       <c r="AQ52" s="7"/>
       <c r="AR52" s="7"/>
@@ -18691,7 +18485,6 @@
       <c r="BF52" s="7"/>
       <c r="BG52" s="7"/>
       <c r="BH52" s="7"/>
-      <c r="BI52" s="7"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="7"/>
@@ -18774,7 +18567,7 @@
       </c>
       <c r="Y53" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53" s="7">
         <f t="shared" si="16"/>
@@ -18782,7 +18575,7 @@
       </c>
       <c r="AA53" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="7">
         <f t="shared" si="18"/>
@@ -18826,20 +18619,17 @@
       </c>
       <c r="AL53" s="7">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN53" s="7">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO53" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO53" s="7"/>
       <c r="AP53" s="7"/>
       <c r="AQ53" s="7"/>
       <c r="AR53" s="7"/>
@@ -18859,7 +18649,6 @@
       <c r="BF53" s="7"/>
       <c r="BG53" s="7"/>
       <c r="BH53" s="7"/>
-      <c r="BI53" s="7"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="7"/>
@@ -18940,11 +18729,11 @@
       </c>
       <c r="X54" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="7">
         <f t="shared" si="16"/>
@@ -18956,11 +18745,11 @@
       </c>
       <c r="AB54" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="7">
         <f t="shared" si="20"/>
@@ -19006,10 +18795,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO54" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO54" s="7"/>
       <c r="AP54" s="7"/>
       <c r="AQ54" s="7"/>
       <c r="AR54" s="7"/>
@@ -19029,7 +18815,6 @@
       <c r="BF54" s="7"/>
       <c r="BG54" s="7"/>
       <c r="BH54" s="7"/>
-      <c r="BI54" s="7"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="7"/>
@@ -19106,11 +18891,11 @@
       </c>
       <c r="X55" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="7">
         <f t="shared" si="16"/>
@@ -19146,11 +18931,11 @@
       </c>
       <c r="AH55" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="7">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="7">
         <f t="shared" si="26"/>
@@ -19172,10 +18957,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO55" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO55" s="7"/>
       <c r="AP55" s="7"/>
       <c r="AQ55" s="7"/>
       <c r="AR55" s="7"/>
@@ -19195,7 +18977,6 @@
       <c r="BF55" s="7"/>
       <c r="BG55" s="7"/>
       <c r="BH55" s="7"/>
-      <c r="BI55" s="7"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="7"/>
@@ -19274,7 +19055,7 @@
       </c>
       <c r="W56" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="7">
         <f t="shared" si="14"/>
@@ -19282,7 +19063,7 @@
       </c>
       <c r="Y56" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="7">
         <f t="shared" si="16"/>
@@ -19318,11 +19099,11 @@
       </c>
       <c r="AH56" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI56" s="7">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="7">
         <f t="shared" si="26"/>
@@ -19344,10 +19125,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO56" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO56" s="7"/>
       <c r="AP56" s="7"/>
       <c r="AQ56" s="7"/>
       <c r="AR56" s="7"/>
@@ -19367,7 +19145,6 @@
       <c r="BF56" s="7"/>
       <c r="BG56" s="7"/>
       <c r="BH56" s="7"/>
-      <c r="BI56" s="7"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="7"/>
@@ -19446,7 +19223,7 @@
       </c>
       <c r="W57" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="7">
         <f t="shared" si="14"/>
@@ -19454,7 +19231,7 @@
       </c>
       <c r="Y57" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="7">
         <f t="shared" si="16"/>
@@ -19490,11 +19267,11 @@
       </c>
       <c r="AH57" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI57" s="7">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="7">
         <f t="shared" si="26"/>
@@ -19516,10 +19293,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO57" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO57" s="7"/>
       <c r="AP57" s="7"/>
       <c r="AQ57" s="7"/>
       <c r="AR57" s="7"/>
@@ -19539,7 +19313,6 @@
       <c r="BF57" s="7"/>
       <c r="BG57" s="7"/>
       <c r="BH57" s="7"/>
-      <c r="BI57" s="7"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="7"/>
@@ -19618,7 +19391,7 @@
       </c>
       <c r="W58" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="7">
         <f t="shared" si="14"/>
@@ -19626,7 +19399,7 @@
       </c>
       <c r="Y58" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="7">
         <f t="shared" si="16"/>
@@ -19662,11 +19435,11 @@
       </c>
       <c r="AH58" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="7">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="7">
         <f t="shared" si="26"/>
@@ -19688,10 +19461,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO58" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO58" s="7"/>
       <c r="AP58" s="7"/>
       <c r="AQ58" s="7"/>
       <c r="AR58" s="7"/>
@@ -19711,7 +19481,6 @@
       <c r="BF58" s="7"/>
       <c r="BG58" s="7"/>
       <c r="BH58" s="7"/>
-      <c r="BI58" s="7"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="7"/>
@@ -19798,11 +19567,11 @@
       </c>
       <c r="Z59" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA59" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="7">
         <f t="shared" si="18"/>
@@ -19814,11 +19583,11 @@
       </c>
       <c r="AD59" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE59" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="7">
         <f t="shared" si="22"/>
@@ -19856,10 +19625,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO59" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO59" s="7"/>
       <c r="AP59" s="7"/>
       <c r="AQ59" s="7"/>
       <c r="AR59" s="7"/>
@@ -19879,7 +19645,6 @@
       <c r="BF59" s="7"/>
       <c r="BG59" s="7"/>
       <c r="BH59" s="7"/>
-      <c r="BI59" s="7"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="7"/>
@@ -19958,7 +19723,7 @@
       </c>
       <c r="W60" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" s="7">
         <f t="shared" si="14"/>
@@ -19966,7 +19731,7 @@
       </c>
       <c r="Y60" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="7">
         <f t="shared" si="16"/>
@@ -20002,11 +19767,11 @@
       </c>
       <c r="AH60" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="7">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="7">
         <f t="shared" si="26"/>
@@ -20028,10 +19793,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO60" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO60" s="7"/>
       <c r="AP60" s="7"/>
       <c r="AQ60" s="7"/>
       <c r="AR60" s="7"/>
@@ -20051,7 +19813,6 @@
       <c r="BF60" s="7"/>
       <c r="BG60" s="7"/>
       <c r="BH60" s="7"/>
-      <c r="BI60" s="7"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="7"/>
@@ -20070,8 +19831,8 @@
       <c r="F61" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>126</v>
+      <c r="G61" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>67</v>
@@ -20080,7 +19841,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="7">
         <f t="shared" si="2"/>
@@ -20112,7 +19873,7 @@
       </c>
       <c r="S61" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" s="7">
         <f t="shared" si="10"/>
@@ -20144,11 +19905,11 @@
       </c>
       <c r="AA61" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="7">
         <f t="shared" si="19"/>
@@ -20164,11 +19925,11 @@
       </c>
       <c r="AF61" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG61" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH61" s="7">
         <f t="shared" si="24"/>
@@ -20198,10 +19959,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO61" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO61" s="7"/>
       <c r="AP61" s="7"/>
       <c r="AQ61" s="7"/>
       <c r="AR61" s="7"/>
@@ -20221,7 +19979,6 @@
       <c r="BF61" s="7"/>
       <c r="BG61" s="7"/>
       <c r="BH61" s="7"/>
-      <c r="BI61" s="7"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="7"/>
@@ -20304,11 +20061,11 @@
       </c>
       <c r="Y62" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z62" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="7">
         <f t="shared" si="17"/>
@@ -20348,11 +20105,11 @@
       </c>
       <c r="AJ62" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK62" s="7">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="7">
         <f t="shared" si="28"/>
@@ -20366,10 +20123,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO62" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO62" s="7"/>
       <c r="AP62" s="7"/>
       <c r="AQ62" s="7"/>
       <c r="AR62" s="7"/>
@@ -20389,7 +20143,6 @@
       <c r="BF62" s="7"/>
       <c r="BG62" s="7"/>
       <c r="BH62" s="7"/>
-      <c r="BI62" s="7"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="7"/>
@@ -20486,11 +20239,11 @@
       </c>
       <c r="AB63" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63" s="7">
         <f t="shared" si="20"/>
@@ -20510,11 +20263,11 @@
       </c>
       <c r="AH63" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI63" s="7">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="7">
         <f t="shared" si="26"/>
@@ -20536,10 +20289,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO63" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO63" s="7"/>
       <c r="AP63" s="7"/>
       <c r="AQ63" s="7"/>
       <c r="AR63" s="7"/>
@@ -20559,7 +20309,6 @@
       <c r="BF63" s="7"/>
       <c r="BG63" s="7"/>
       <c r="BH63" s="7"/>
-      <c r="BI63" s="7"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="7"/>
@@ -20636,11 +20385,11 @@
       </c>
       <c r="X64" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="7">
         <f t="shared" si="16"/>
@@ -20676,11 +20425,11 @@
       </c>
       <c r="AH64" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI64" s="7">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="7">
         <f t="shared" si="26"/>
@@ -20702,10 +20451,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO64" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO64" s="7"/>
       <c r="AP64" s="7"/>
       <c r="AQ64" s="7"/>
       <c r="AR64" s="7"/>
@@ -20725,7 +20471,6 @@
       <c r="BF64" s="7"/>
       <c r="BG64" s="7"/>
       <c r="BH64" s="7"/>
-      <c r="BI64" s="7"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="7"/>
@@ -20784,11 +20529,11 @@
       </c>
       <c r="S65" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" s="7">
         <f t="shared" si="11"/>
@@ -20870,10 +20615,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO65" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO65" s="7"/>
       <c r="AP65" s="7"/>
       <c r="AQ65" s="7"/>
       <c r="AR65" s="7"/>
@@ -20893,7 +20635,6 @@
       <c r="BF65" s="7"/>
       <c r="BG65" s="7"/>
       <c r="BH65" s="7"/>
-      <c r="BI65" s="7"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="7"/>
@@ -20952,11 +20693,11 @@
       </c>
       <c r="S66" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" s="7">
         <f t="shared" si="11"/>
@@ -21008,11 +20749,11 @@
       </c>
       <c r="AG66" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH66" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI66" s="7">
         <f t="shared" si="25"/>
@@ -21038,10 +20779,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO66" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO66" s="7"/>
       <c r="AP66" s="7"/>
       <c r="AQ66" s="7"/>
       <c r="AR66" s="7"/>
@@ -21061,7 +20799,6 @@
       <c r="BF66" s="7"/>
       <c r="BG66" s="7"/>
       <c r="BH66" s="7"/>
-      <c r="BI66" s="7"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="7"/>
@@ -21077,8 +20814,8 @@
       <c r="E67" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>126</v>
+      <c r="F67" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>66</v>
@@ -21088,7 +20825,7 @@
       <c r="J67" s="7"/>
       <c r="K67" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="7">
         <f t="shared" si="2"/>
@@ -21120,7 +20857,7 @@
       </c>
       <c r="S67" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" s="7">
         <f t="shared" si="10"/>
@@ -21148,11 +20885,11 @@
       </c>
       <c r="Z67" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA67" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="7">
         <f t="shared" si="18"/>
@@ -21168,11 +20905,11 @@
       </c>
       <c r="AE67" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF67" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="7">
         <f t="shared" si="23"/>
@@ -21206,10 +20943,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO67" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO67" s="7"/>
       <c r="AP67" s="7"/>
       <c r="AQ67" s="7"/>
       <c r="AR67" s="7"/>
@@ -21229,7 +20963,6 @@
       <c r="BF67" s="7"/>
       <c r="BG67" s="7"/>
       <c r="BH67" s="7"/>
-      <c r="BI67" s="7"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="7"/>
@@ -21300,11 +21033,11 @@
       </c>
       <c r="V68" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X68" s="7">
         <f t="shared" si="14"/>
@@ -21340,11 +21073,11 @@
       </c>
       <c r="AF68" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG68" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH68" s="7">
         <f t="shared" si="24"/>
@@ -21374,10 +21107,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO68" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO68" s="7"/>
       <c r="AP68" s="7"/>
       <c r="AQ68" s="7"/>
       <c r="AR68" s="7"/>
@@ -21397,7 +21127,6 @@
       <c r="BF68" s="7"/>
       <c r="BG68" s="7"/>
       <c r="BH68" s="7"/>
-      <c r="BI68" s="7"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="7"/>
@@ -21536,10 +21265,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO69" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO69" s="7"/>
       <c r="AP69" s="7"/>
       <c r="AQ69" s="7"/>
       <c r="AR69" s="7"/>
@@ -21559,7 +21285,6 @@
       <c r="BF69" s="7"/>
       <c r="BG69" s="7"/>
       <c r="BH69" s="7"/>
-      <c r="BI69" s="7"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="7"/>
@@ -21634,27 +21359,27 @@
       </c>
       <c r="W70" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X70" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z70" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA70" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB70" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="7">
         <f t="shared" si="19"/>
@@ -21704,10 +21429,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO70" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO70" s="7"/>
       <c r="AP70" s="7"/>
       <c r="AQ70" s="7"/>
       <c r="AR70" s="7"/>
@@ -21727,7 +21449,6 @@
       <c r="BF70" s="7"/>
       <c r="BG70" s="7"/>
       <c r="BH70" s="7"/>
-      <c r="BI70" s="7"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="7"/>
@@ -21866,10 +21587,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO71" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO71" s="7"/>
       <c r="AP71" s="7"/>
       <c r="AQ71" s="7"/>
       <c r="AR71" s="7"/>
@@ -21889,7 +21607,6 @@
       <c r="BF71" s="7"/>
       <c r="BG71" s="7"/>
       <c r="BH71" s="7"/>
-      <c r="BI71" s="7"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="7"/>
@@ -21964,11 +21681,11 @@
       </c>
       <c r="W72" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X72" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="7">
         <f t="shared" si="15"/>
@@ -21980,11 +21697,11 @@
       </c>
       <c r="AA72" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB72" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC72" s="7">
         <f t="shared" si="19"/>
@@ -21996,11 +21713,11 @@
       </c>
       <c r="AE72" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF72" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="7">
         <f t="shared" si="23"/>
@@ -22034,10 +21751,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO72" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO72" s="7"/>
       <c r="AP72" s="7"/>
       <c r="AQ72" s="7"/>
       <c r="AR72" s="7"/>
@@ -22057,7 +21771,6 @@
       <c r="BF72" s="7"/>
       <c r="BG72" s="7"/>
       <c r="BH72" s="7"/>
-      <c r="BI72" s="7"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="7"/>
@@ -22146,7 +21859,7 @@
       </c>
       <c r="Z73" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA73" s="7">
         <f t="shared" si="17"/>
@@ -22154,7 +21867,7 @@
       </c>
       <c r="AB73" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC73" s="7">
         <f t="shared" si="19"/>
@@ -22204,10 +21917,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO73" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO73" s="7"/>
       <c r="AP73" s="7"/>
       <c r="AQ73" s="7"/>
       <c r="AR73" s="7"/>
@@ -22227,7 +21937,6 @@
       <c r="BF73" s="7"/>
       <c r="BG73" s="7"/>
       <c r="BH73" s="7"/>
-      <c r="BI73" s="7"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="7"/>
@@ -22338,11 +22047,11 @@
       </c>
       <c r="AF74" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG74" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH74" s="7">
         <f t="shared" si="24"/>
@@ -22372,10 +22081,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO74" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO74" s="7"/>
       <c r="AP74" s="7"/>
       <c r="AQ74" s="7"/>
       <c r="AR74" s="7"/>
@@ -22395,7 +22101,6 @@
       <c r="BF74" s="7"/>
       <c r="BG74" s="7"/>
       <c r="BH74" s="7"/>
-      <c r="BI74" s="7"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="7"/>
@@ -22470,11 +22175,11 @@
       </c>
       <c r="W75" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X75" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="7">
         <f t="shared" si="15"/>
@@ -22540,10 +22245,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO75" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO75" s="7"/>
       <c r="AP75" s="7"/>
       <c r="AQ75" s="7"/>
       <c r="AR75" s="7"/>
@@ -22563,7 +22265,6 @@
       <c r="BF75" s="7"/>
       <c r="BG75" s="7"/>
       <c r="BH75" s="7"/>
-      <c r="BI75" s="7"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="7"/>
@@ -22704,10 +22405,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO76" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO76" s="7"/>
       <c r="AP76" s="7"/>
       <c r="AQ76" s="7"/>
       <c r="AR76" s="7"/>
@@ -22727,7 +22425,6 @@
       <c r="BF76" s="7"/>
       <c r="BG76" s="7"/>
       <c r="BH76" s="7"/>
-      <c r="BI76" s="7"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="7"/>
@@ -22812,11 +22509,11 @@
       </c>
       <c r="Y77" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z77" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA77" s="7">
         <f t="shared" si="17"/>
@@ -22840,11 +22537,11 @@
       </c>
       <c r="AF77" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG77" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH77" s="7">
         <f t="shared" si="24"/>
@@ -22874,10 +22571,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO77" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO77" s="7"/>
       <c r="AP77" s="7"/>
       <c r="AQ77" s="7"/>
       <c r="AR77" s="7"/>
@@ -22897,7 +22591,6 @@
       <c r="BF77" s="7"/>
       <c r="BG77" s="7"/>
       <c r="BH77" s="7"/>
-      <c r="BI77" s="7"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="7"/>
@@ -23036,10 +22729,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO78" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO78" s="7"/>
       <c r="AP78" s="7"/>
       <c r="AQ78" s="7"/>
       <c r="AR78" s="7"/>
@@ -23059,7 +22749,6 @@
       <c r="BF78" s="7"/>
       <c r="BG78" s="7"/>
       <c r="BH78" s="7"/>
-      <c r="BI78" s="7"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="7"/>
@@ -23142,11 +22831,11 @@
       </c>
       <c r="Y79" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z79" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA79" s="7">
         <f t="shared" si="17"/>
@@ -23170,11 +22859,11 @@
       </c>
       <c r="AF79" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG79" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH79" s="7">
         <f t="shared" si="24"/>
@@ -23204,10 +22893,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO79" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO79" s="7"/>
       <c r="AP79" s="7"/>
       <c r="AQ79" s="7"/>
       <c r="AR79" s="7"/>
@@ -23227,7 +22913,6 @@
       <c r="BF79" s="7"/>
       <c r="BG79" s="7"/>
       <c r="BH79" s="7"/>
-      <c r="BI79" s="7"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="7"/>
@@ -23290,11 +22975,11 @@
       </c>
       <c r="T80" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80" s="7">
         <f t="shared" si="12"/>
@@ -23318,11 +23003,11 @@
       </c>
       <c r="AA80" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB80" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC80" s="7">
         <f t="shared" si="19"/>
@@ -23372,10 +23057,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO80" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO80" s="7"/>
       <c r="AP80" s="7"/>
       <c r="AQ80" s="7"/>
       <c r="AR80" s="7"/>
@@ -23395,7 +23077,6 @@
       <c r="BF80" s="7"/>
       <c r="BG80" s="7"/>
       <c r="BH80" s="7"/>
-      <c r="BI80" s="7"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="7"/>
@@ -23472,19 +23153,19 @@
       </c>
       <c r="W81" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X81" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z81" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="7">
         <f t="shared" si="17"/>
@@ -23542,10 +23223,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO81" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO81" s="7"/>
       <c r="AP81" s="7"/>
       <c r="AQ81" s="7"/>
       <c r="AR81" s="7"/>
@@ -23565,7 +23243,6 @@
       <c r="BF81" s="7"/>
       <c r="BG81" s="7"/>
       <c r="BH81" s="7"/>
-      <c r="BI81" s="7"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="7"/>
@@ -23664,11 +23341,11 @@
       </c>
       <c r="AC82" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD82" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE82" s="7">
         <f t="shared" si="21"/>
@@ -23710,10 +23387,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO82" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO82" s="7"/>
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
       <c r="AR82" s="7"/>
@@ -23733,7 +23407,6 @@
       <c r="BF82" s="7"/>
       <c r="BG82" s="7"/>
       <c r="BH82" s="7"/>
-      <c r="BI82" s="7"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="7"/>
@@ -23794,11 +23467,11 @@
       </c>
       <c r="S83" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U83" s="7">
         <f t="shared" si="11"/>
@@ -23814,11 +23487,11 @@
       </c>
       <c r="X83" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y83" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="7">
         <f t="shared" si="16"/>
@@ -23862,11 +23535,11 @@
       </c>
       <c r="AJ83" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK83" s="7">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83" s="7">
         <f t="shared" si="28"/>
@@ -23880,10 +23553,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO83" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO83" s="7"/>
       <c r="AP83" s="7"/>
       <c r="AQ83" s="7"/>
       <c r="AR83" s="7"/>
@@ -23903,7 +23573,6 @@
       <c r="BF83" s="7"/>
       <c r="BG83" s="7"/>
       <c r="BH83" s="7"/>
-      <c r="BI83" s="7"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="7"/>
@@ -23980,11 +23649,11 @@
       </c>
       <c r="W84" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X84" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y84" s="7">
         <f t="shared" si="15"/>
@@ -23992,7 +23661,7 @@
       </c>
       <c r="Z84" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA84" s="7">
         <f t="shared" si="17"/>
@@ -24000,7 +23669,7 @@
       </c>
       <c r="AB84" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC84" s="7">
         <f t="shared" si="19"/>
@@ -24020,11 +23689,11 @@
       </c>
       <c r="AG84" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH84" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI84" s="7">
         <f t="shared" si="25"/>
@@ -24050,10 +23719,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO84" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO84" s="7"/>
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
       <c r="AR84" s="7"/>
@@ -24073,7 +23739,6 @@
       <c r="BF84" s="7"/>
       <c r="BG84" s="7"/>
       <c r="BH84" s="7"/>
-      <c r="BI84" s="7"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="7"/>
@@ -24172,11 +23837,11 @@
       </c>
       <c r="AD85" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE85" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF85" s="7">
         <f t="shared" si="22"/>
@@ -24214,10 +23879,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO85" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO85" s="7"/>
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
       <c r="AR85" s="7"/>
@@ -24237,7 +23899,6 @@
       <c r="BF85" s="7"/>
       <c r="BG85" s="7"/>
       <c r="BH85" s="7"/>
-      <c r="BI85" s="7"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="7"/>
@@ -24312,11 +23973,11 @@
       </c>
       <c r="W86" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X86" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y86" s="7">
         <f t="shared" si="15"/>
@@ -24328,11 +23989,11 @@
       </c>
       <c r="AA86" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB86" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC86" s="7">
         <f t="shared" si="19"/>
@@ -24376,16 +24037,13 @@
       </c>
       <c r="AM86" s="7">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN86" s="7">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AO86" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO86" s="7"/>
       <c r="AP86" s="7"/>
       <c r="AQ86" s="7"/>
       <c r="AR86" s="7"/>
@@ -24405,7 +24063,6 @@
       <c r="BF86" s="7"/>
       <c r="BG86" s="7"/>
       <c r="BH86" s="7"/>
-      <c r="BI86" s="7"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="7"/>
@@ -24508,11 +24165,11 @@
       </c>
       <c r="AD87" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE87" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF87" s="7">
         <f t="shared" si="22"/>
@@ -24550,10 +24207,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO87" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO87" s="7"/>
       <c r="AP87" s="7"/>
       <c r="AQ87" s="7"/>
       <c r="AR87" s="7"/>
@@ -24573,7 +24227,6 @@
       <c r="BF87" s="7"/>
       <c r="BG87" s="7"/>
       <c r="BH87" s="7"/>
-      <c r="BI87" s="7"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="7"/>
@@ -24648,11 +24301,11 @@
       </c>
       <c r="W88" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X88" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y88" s="7">
         <f t="shared" si="15"/>
@@ -24664,11 +24317,11 @@
       </c>
       <c r="AA88" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB88" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC88" s="7">
         <f t="shared" si="19"/>
@@ -24712,16 +24365,13 @@
       </c>
       <c r="AM88" s="7">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN88" s="7">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AO88" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO88" s="7"/>
       <c r="AP88" s="7"/>
       <c r="AQ88" s="7"/>
       <c r="AR88" s="7"/>
@@ -24741,7 +24391,6 @@
       <c r="BF88" s="7"/>
       <c r="BG88" s="7"/>
       <c r="BH88" s="7"/>
-      <c r="BI88" s="7"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="7"/>
@@ -24814,11 +24463,11 @@
       </c>
       <c r="W89" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X89" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="7">
         <f t="shared" si="15"/>
@@ -24884,10 +24533,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO89" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO89" s="7"/>
       <c r="AP89" s="7"/>
       <c r="AQ89" s="7"/>
       <c r="AR89" s="7"/>
@@ -24907,7 +24553,6 @@
       <c r="BF89" s="7"/>
       <c r="BG89" s="7"/>
       <c r="BH89" s="7"/>
-      <c r="BI89" s="7"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="7"/>
@@ -24998,11 +24643,11 @@
       </c>
       <c r="AA90" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB90" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC90" s="7">
         <f t="shared" si="19"/>
@@ -25022,11 +24667,11 @@
       </c>
       <c r="AG90" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH90" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI90" s="7">
         <f t="shared" si="25"/>
@@ -25052,10 +24697,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO90" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO90" s="7"/>
       <c r="AP90" s="7"/>
       <c r="AQ90" s="7"/>
       <c r="AR90" s="7"/>
@@ -25075,7 +24717,6 @@
       <c r="BF90" s="7"/>
       <c r="BG90" s="7"/>
       <c r="BH90" s="7"/>
-      <c r="BI90" s="7"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="7"/>
@@ -25158,11 +24799,11 @@
       </c>
       <c r="Y91" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z91" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="7">
         <f t="shared" si="17"/>
@@ -25220,10 +24861,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO91" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO91" s="7"/>
       <c r="AP91" s="7"/>
       <c r="AQ91" s="7"/>
       <c r="AR91" s="7"/>
@@ -25243,7 +24881,6 @@
       <c r="BF91" s="7"/>
       <c r="BG91" s="7"/>
       <c r="BH91" s="7"/>
-      <c r="BI91" s="7"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="7"/>
@@ -25388,10 +25025,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO92" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO92" s="7"/>
       <c r="AP92" s="7"/>
       <c r="AQ92" s="7"/>
       <c r="AR92" s="7"/>
@@ -25411,7 +25045,6 @@
       <c r="BF92" s="7"/>
       <c r="BG92" s="7"/>
       <c r="BH92" s="7"/>
-      <c r="BI92" s="7"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="7"/>
@@ -25486,11 +25119,11 @@
       </c>
       <c r="V93" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W93" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X93" s="7">
         <f t="shared" si="14"/>
@@ -25502,7 +25135,7 @@
       </c>
       <c r="Z93" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA93" s="7">
         <f t="shared" si="17"/>
@@ -25510,7 +25143,7 @@
       </c>
       <c r="AB93" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC93" s="7">
         <f t="shared" si="19"/>
@@ -25560,10 +25193,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO93" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO93" s="7"/>
       <c r="AP93" s="7"/>
       <c r="AQ93" s="7"/>
       <c r="AR93" s="7"/>
@@ -25583,7 +25213,6 @@
       <c r="BF93" s="7"/>
       <c r="BG93" s="7"/>
       <c r="BH93" s="7"/>
-      <c r="BI93" s="7"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="7"/>
@@ -25660,11 +25289,11 @@
       </c>
       <c r="W94" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X94" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="7">
         <f t="shared" si="15"/>
@@ -25676,11 +25305,11 @@
       </c>
       <c r="AA94" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB94" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC94" s="7">
         <f t="shared" si="19"/>
@@ -25730,10 +25359,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO94" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO94" s="7"/>
       <c r="AP94" s="7"/>
       <c r="AQ94" s="7"/>
       <c r="AR94" s="7"/>
@@ -25753,7 +25379,6 @@
       <c r="BF94" s="7"/>
       <c r="BG94" s="7"/>
       <c r="BH94" s="7"/>
-      <c r="BI94" s="7"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="7"/>
@@ -25814,11 +25439,11 @@
       </c>
       <c r="T95" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U95" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V95" s="7">
         <f t="shared" si="12"/>
@@ -25896,10 +25521,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO95" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO95" s="7"/>
       <c r="AP95" s="7"/>
       <c r="AQ95" s="7"/>
       <c r="AR95" s="7"/>
@@ -25919,7 +25541,6 @@
       <c r="BF95" s="7"/>
       <c r="BG95" s="7"/>
       <c r="BH95" s="7"/>
-      <c r="BI95" s="7"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="7"/>
@@ -26018,11 +25639,11 @@
       </c>
       <c r="AC96" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD96" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE96" s="7">
         <f t="shared" si="21"/>
@@ -26046,11 +25667,11 @@
       </c>
       <c r="AJ96" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK96" s="7">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL96" s="7">
         <f t="shared" si="28"/>
@@ -26064,10 +25685,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO96" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO96" s="7"/>
       <c r="AP96" s="7"/>
       <c r="AQ96" s="7"/>
       <c r="AR96" s="7"/>
@@ -26087,7 +25705,6 @@
       <c r="BF96" s="7"/>
       <c r="BG96" s="7"/>
       <c r="BH96" s="7"/>
-      <c r="BI96" s="7"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="7"/>
@@ -26150,11 +25767,11 @@
       </c>
       <c r="T97" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U97" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V97" s="7">
         <f t="shared" si="12"/>
@@ -26178,11 +25795,11 @@
       </c>
       <c r="AA97" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB97" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC97" s="7">
         <f t="shared" si="19"/>
@@ -26232,10 +25849,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO97" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO97" s="7"/>
       <c r="AP97" s="7"/>
       <c r="AQ97" s="7"/>
       <c r="AR97" s="7"/>
@@ -26255,7 +25869,6 @@
       <c r="BF97" s="7"/>
       <c r="BG97" s="7"/>
       <c r="BH97" s="7"/>
-      <c r="BI97" s="7"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="7"/>
@@ -26394,10 +26007,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO98" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO98" s="7"/>
       <c r="AP98" s="7"/>
       <c r="AQ98" s="7"/>
       <c r="AR98" s="7"/>
@@ -26417,7 +26027,6 @@
       <c r="BF98" s="7"/>
       <c r="BG98" s="7"/>
       <c r="BH98" s="7"/>
-      <c r="BI98" s="7"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="7"/>
@@ -26486,11 +26095,11 @@
       </c>
       <c r="V99" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W99" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X99" s="7">
         <f t="shared" si="14"/>
@@ -26506,11 +26115,11 @@
       </c>
       <c r="AA99" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB99" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC99" s="7">
         <f t="shared" si="19"/>
@@ -26560,10 +26169,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO99" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO99" s="7"/>
       <c r="AP99" s="7"/>
       <c r="AQ99" s="7"/>
       <c r="AR99" s="7"/>
@@ -26583,7 +26189,6 @@
       <c r="BF99" s="7"/>
       <c r="BG99" s="7"/>
       <c r="BH99" s="7"/>
-      <c r="BI99" s="7"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="7"/>
@@ -26726,10 +26331,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO100" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO100" s="7"/>
       <c r="AP100" s="7"/>
       <c r="AQ100" s="7"/>
       <c r="AR100" s="7"/>
@@ -26749,7 +26351,6 @@
       <c r="BF100" s="7"/>
       <c r="BG100" s="7"/>
       <c r="BH100" s="7"/>
-      <c r="BI100" s="7"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="7"/>
@@ -26832,11 +26433,11 @@
       </c>
       <c r="Y101" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z101" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="7">
         <f t="shared" si="17"/>
@@ -26894,10 +26495,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO101" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO101" s="7"/>
       <c r="AP101" s="7"/>
       <c r="AQ101" s="7"/>
       <c r="AR101" s="7"/>
@@ -26917,7 +26515,6 @@
       <c r="BF101" s="7"/>
       <c r="BG101" s="7"/>
       <c r="BH101" s="7"/>
-      <c r="BI101" s="7"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="7"/>
@@ -27004,11 +26601,11 @@
       </c>
       <c r="Z102" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA102" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="7">
         <f t="shared" si="18"/>
@@ -27052,20 +26649,17 @@
       </c>
       <c r="AL102" s="7">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM102" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN102" s="7">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO102" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO102" s="7"/>
       <c r="AP102" s="7"/>
       <c r="AQ102" s="7"/>
       <c r="AR102" s="7"/>
@@ -27085,7 +26679,6 @@
       <c r="BF102" s="7"/>
       <c r="BG102" s="7"/>
       <c r="BH102" s="7"/>
-      <c r="BI102" s="7"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="7"/>
@@ -27104,8 +26697,8 @@
       <c r="F103" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>126</v>
+      <c r="G103" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>91</v>
@@ -27114,7 +26707,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="7">
         <f t="shared" si="2"/>
@@ -27146,7 +26739,7 @@
       </c>
       <c r="S103" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T103" s="7">
         <f t="shared" si="10"/>
@@ -27162,11 +26755,11 @@
       </c>
       <c r="W103" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X103" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y103" s="7">
         <f t="shared" si="15"/>
@@ -27178,11 +26771,11 @@
       </c>
       <c r="AA103" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB103" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC103" s="7">
         <f t="shared" si="19"/>
@@ -27232,10 +26825,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO103" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO103" s="7"/>
       <c r="AP103" s="7"/>
       <c r="AQ103" s="7"/>
       <c r="AR103" s="7"/>
@@ -27255,7 +26845,6 @@
       <c r="BF103" s="7"/>
       <c r="BG103" s="7"/>
       <c r="BH103" s="7"/>
-      <c r="BI103" s="7"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="7"/>
@@ -27344,11 +26933,11 @@
       </c>
       <c r="Z104" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA104" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB104" s="7">
         <f t="shared" si="18"/>
@@ -27392,20 +26981,17 @@
       </c>
       <c r="AL104" s="7">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM104" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN104" s="7">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO104" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO104" s="7"/>
       <c r="AP104" s="7"/>
       <c r="AQ104" s="7"/>
       <c r="AR104" s="7"/>
@@ -27425,7 +27011,6 @@
       <c r="BF104" s="7"/>
       <c r="BG104" s="7"/>
       <c r="BH104" s="7"/>
-      <c r="BI104" s="7"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="7"/>
@@ -27524,11 +27109,11 @@
       </c>
       <c r="AC105" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD105" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE105" s="7">
         <f t="shared" si="21"/>
@@ -27560,20 +27145,17 @@
       </c>
       <c r="AL105" s="7">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM105" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN105" s="7">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO105" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO105" s="7"/>
       <c r="AP105" s="7"/>
       <c r="AQ105" s="7"/>
       <c r="AR105" s="7"/>
@@ -27593,7 +27175,6 @@
       <c r="BF105" s="7"/>
       <c r="BG105" s="7"/>
       <c r="BH105" s="7"/>
-      <c r="BI105" s="7"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="7"/>
@@ -27668,11 +27249,11 @@
       </c>
       <c r="W106" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X106" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y106" s="7">
         <f t="shared" si="15"/>
@@ -27684,11 +27265,11 @@
       </c>
       <c r="AA106" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB106" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC106" s="7">
         <f t="shared" si="19"/>
@@ -27738,10 +27319,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO106" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO106" s="7"/>
       <c r="AP106" s="7"/>
       <c r="AQ106" s="7"/>
       <c r="AR106" s="7"/>
@@ -27761,7 +27339,6 @@
       <c r="BF106" s="7"/>
       <c r="BG106" s="7"/>
       <c r="BH106" s="7"/>
-      <c r="BI106" s="7"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="7"/>
@@ -27860,11 +27437,11 @@
       </c>
       <c r="AC107" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD107" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE107" s="7">
         <f t="shared" si="21"/>
@@ -27906,10 +27483,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO107" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO107" s="7"/>
       <c r="AP107" s="7"/>
       <c r="AQ107" s="7"/>
       <c r="AR107" s="7"/>
@@ -27929,7 +27503,6 @@
       <c r="BF107" s="7"/>
       <c r="BG107" s="7"/>
       <c r="BH107" s="7"/>
-      <c r="BI107" s="7"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="7"/>
@@ -28002,11 +27575,11 @@
       </c>
       <c r="V108" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W108" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X108" s="7">
         <f t="shared" si="14"/>
@@ -28030,11 +27603,11 @@
       </c>
       <c r="AC108" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD108" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE108" s="7">
         <f t="shared" si="21"/>
@@ -28076,10 +27649,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO108" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO108" s="7"/>
       <c r="AP108" s="7"/>
       <c r="AQ108" s="7"/>
       <c r="AR108" s="7"/>
@@ -28099,7 +27669,6 @@
       <c r="BF108" s="7"/>
       <c r="BG108" s="7"/>
       <c r="BH108" s="7"/>
-      <c r="BI108" s="7"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="7"/>
@@ -28198,11 +27767,11 @@
       </c>
       <c r="AC109" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD109" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE109" s="7">
         <f t="shared" si="21"/>
@@ -28244,10 +27813,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO109" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO109" s="7"/>
       <c r="AP109" s="7"/>
       <c r="AQ109" s="7"/>
       <c r="AR109" s="7"/>
@@ -28267,7 +27833,6 @@
       <c r="BF109" s="7"/>
       <c r="BG109" s="7"/>
       <c r="BH109" s="7"/>
-      <c r="BI109" s="7"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="7"/>
@@ -28344,11 +27909,11 @@
       </c>
       <c r="W110" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X110" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y110" s="7">
         <f t="shared" si="15"/>
@@ -28360,11 +27925,11 @@
       </c>
       <c r="AA110" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB110" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC110" s="7">
         <f t="shared" si="19"/>
@@ -28414,10 +27979,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO110" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO110" s="7"/>
       <c r="AP110" s="7"/>
       <c r="AQ110" s="7"/>
       <c r="AR110" s="7"/>
@@ -28437,7 +27999,6 @@
       <c r="BF110" s="7"/>
       <c r="BG110" s="7"/>
       <c r="BH110" s="7"/>
-      <c r="BI110" s="7"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="7"/>
@@ -28514,11 +28075,11 @@
       </c>
       <c r="W111" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X111" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y111" s="7">
         <f t="shared" si="15"/>
@@ -28530,11 +28091,11 @@
       </c>
       <c r="AA111" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB111" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC111" s="7">
         <f t="shared" si="19"/>
@@ -28546,11 +28107,11 @@
       </c>
       <c r="AE111" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF111" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG111" s="7">
         <f t="shared" si="23"/>
@@ -28584,10 +28145,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO111" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO111" s="7"/>
       <c r="AP111" s="7"/>
       <c r="AQ111" s="7"/>
       <c r="AR111" s="7"/>
@@ -28607,7 +28165,6 @@
       <c r="BF111" s="7"/>
       <c r="BG111" s="7"/>
       <c r="BH111" s="7"/>
-      <c r="BI111" s="7"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="7"/>
@@ -28698,11 +28255,11 @@
       </c>
       <c r="AA112" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB112" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC112" s="7">
         <f t="shared" si="19"/>
@@ -28714,11 +28271,11 @@
       </c>
       <c r="AE112" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF112" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG112" s="7">
         <f t="shared" si="23"/>
@@ -28730,11 +28287,11 @@
       </c>
       <c r="AI112" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ112" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK112" s="7">
         <f t="shared" si="27"/>
@@ -28752,10 +28309,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO112" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO112" s="7"/>
       <c r="AP112" s="7"/>
       <c r="AQ112" s="7"/>
       <c r="AR112" s="7"/>
@@ -28775,7 +28329,6 @@
       <c r="BF112" s="7"/>
       <c r="BG112" s="7"/>
       <c r="BH112" s="7"/>
-      <c r="BI112" s="7"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="7"/>
@@ -28876,11 +28429,11 @@
       </c>
       <c r="AC113" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD113" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE113" s="7">
         <f t="shared" si="21"/>
@@ -28922,10 +28475,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO113" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO113" s="7"/>
       <c r="AP113" s="7"/>
       <c r="AQ113" s="7"/>
       <c r="AR113" s="7"/>
@@ -28945,7 +28495,6 @@
       <c r="BF113" s="7"/>
       <c r="BG113" s="7"/>
       <c r="BH113" s="7"/>
-      <c r="BI113" s="7"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="7"/>
@@ -29038,11 +28587,11 @@
       </c>
       <c r="AA114" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB114" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC114" s="7">
         <f t="shared" si="19"/>
@@ -29070,11 +28619,11 @@
       </c>
       <c r="AI114" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ114" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK114" s="7">
         <f t="shared" si="27"/>
@@ -29092,10 +28641,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO114" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO114" s="7"/>
       <c r="AP114" s="7"/>
       <c r="AQ114" s="7"/>
       <c r="AR114" s="7"/>
@@ -29115,7 +28661,6 @@
       <c r="BF114" s="7"/>
       <c r="BG114" s="7"/>
       <c r="BH114" s="7"/>
-      <c r="BI114" s="7"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="7"/>
@@ -29214,11 +28759,11 @@
       </c>
       <c r="AD115" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE115" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF115" s="7">
         <f t="shared" si="22"/>
@@ -29256,10 +28801,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO115" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO115" s="7"/>
       <c r="AP115" s="7"/>
       <c r="AQ115" s="7"/>
       <c r="AR115" s="7"/>
@@ -29279,7 +28821,6 @@
       <c r="BF115" s="7"/>
       <c r="BG115" s="7"/>
       <c r="BH115" s="7"/>
-      <c r="BI115" s="7"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="7"/>
@@ -29295,8 +28836,8 @@
       <c r="E116" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F116" s="7" t="s">
-        <v>126</v>
+      <c r="F116" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>67</v>
@@ -29308,7 +28849,7 @@
       <c r="J116" s="7"/>
       <c r="K116" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116" s="7">
         <f t="shared" si="2"/>
@@ -29344,7 +28885,7 @@
       </c>
       <c r="T116" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U116" s="7">
         <f t="shared" si="11"/>
@@ -29396,11 +28937,11 @@
       </c>
       <c r="AG116" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH116" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI116" s="7">
         <f t="shared" si="25"/>
@@ -29426,10 +28967,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO116" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO116" s="7"/>
       <c r="AP116" s="7"/>
       <c r="AQ116" s="7"/>
       <c r="AR116" s="7"/>
@@ -29449,7 +28987,6 @@
       <c r="BF116" s="7"/>
       <c r="BG116" s="7"/>
       <c r="BH116" s="7"/>
-      <c r="BI116" s="7"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="7"/>
@@ -29556,19 +29093,19 @@
       </c>
       <c r="AE117" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF117" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG117" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH117" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI117" s="7">
         <f t="shared" si="25"/>
@@ -29594,10 +29131,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO117" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO117" s="7"/>
       <c r="AP117" s="7"/>
       <c r="AQ117" s="7"/>
       <c r="AR117" s="7"/>
@@ -29617,7 +29151,6 @@
       <c r="BF117" s="7"/>
       <c r="BG117" s="7"/>
       <c r="BH117" s="7"/>
-      <c r="BI117" s="7"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="7"/>
@@ -29678,11 +29211,11 @@
       </c>
       <c r="S118" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T118" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U118" s="7">
         <f t="shared" si="11"/>
@@ -29694,11 +29227,11 @@
       </c>
       <c r="W118" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X118" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y118" s="7">
         <f t="shared" si="15"/>
@@ -29764,10 +29297,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO118" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO118" s="7"/>
       <c r="AP118" s="7"/>
       <c r="AQ118" s="7"/>
       <c r="AR118" s="7"/>
@@ -29787,7 +29317,6 @@
       <c r="BF118" s="7"/>
       <c r="BG118" s="7"/>
       <c r="BH118" s="7"/>
-      <c r="BI118" s="7"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="7"/>
@@ -29926,10 +29455,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO119" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO119" s="7"/>
       <c r="AP119" s="7"/>
       <c r="AQ119" s="7"/>
       <c r="AR119" s="7"/>
@@ -29949,7 +29475,6 @@
       <c r="BF119" s="7"/>
       <c r="BG119" s="7"/>
       <c r="BH119" s="7"/>
-      <c r="BI119" s="7"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="7"/>
@@ -30034,11 +29559,11 @@
       </c>
       <c r="Y120" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z120" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA120" s="7">
         <f t="shared" si="17"/>
@@ -30062,11 +29587,11 @@
       </c>
       <c r="AF120" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG120" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH120" s="7">
         <f t="shared" si="24"/>
@@ -30096,10 +29621,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO120" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO120" s="7"/>
       <c r="AP120" s="7"/>
       <c r="AQ120" s="7"/>
       <c r="AR120" s="7"/>
@@ -30119,7 +29641,6 @@
       <c r="BF120" s="7"/>
       <c r="BG120" s="7"/>
       <c r="BH120" s="7"/>
-      <c r="BI120" s="7"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="7"/>
@@ -30202,11 +29723,11 @@
       </c>
       <c r="Y121" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z121" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA121" s="7">
         <f t="shared" si="17"/>
@@ -30230,11 +29751,11 @@
       </c>
       <c r="AF121" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG121" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH121" s="7">
         <f t="shared" si="24"/>
@@ -30264,10 +29785,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO121" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO121" s="7"/>
       <c r="AP121" s="7"/>
       <c r="AQ121" s="7"/>
       <c r="AR121" s="7"/>
@@ -30287,7 +29805,6 @@
       <c r="BF121" s="7"/>
       <c r="BG121" s="7"/>
       <c r="BH121" s="7"/>
-      <c r="BI121" s="7"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="7"/>
@@ -30362,11 +29879,11 @@
       </c>
       <c r="W122" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X122" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y122" s="7">
         <f t="shared" si="15"/>
@@ -30394,11 +29911,11 @@
       </c>
       <c r="AE122" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF122" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG122" s="7">
         <f t="shared" si="23"/>
@@ -30432,10 +29949,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO122" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO122" s="7"/>
       <c r="AP122" s="7"/>
       <c r="AQ122" s="7"/>
       <c r="AR122" s="7"/>
@@ -30455,7 +29969,6 @@
       <c r="BF122" s="7"/>
       <c r="BG122" s="7"/>
       <c r="BH122" s="7"/>
-      <c r="BI122" s="7"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="7"/>
@@ -30530,19 +30043,19 @@
       </c>
       <c r="W123" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X123" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y123" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z123" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA123" s="7">
         <f t="shared" si="17"/>
@@ -30562,11 +30075,11 @@
       </c>
       <c r="AE123" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF123" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG123" s="7">
         <f t="shared" si="23"/>
@@ -30600,10 +30113,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO123" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO123" s="7"/>
       <c r="AP123" s="7"/>
       <c r="AQ123" s="7"/>
       <c r="AR123" s="7"/>
@@ -30623,7 +30133,6 @@
       <c r="BF123" s="7"/>
       <c r="BG123" s="7"/>
       <c r="BH123" s="7"/>
-      <c r="BI123" s="7"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="7"/>
@@ -30762,10 +30271,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO124" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO124" s="7"/>
       <c r="AP124" s="7"/>
       <c r="AQ124" s="7"/>
       <c r="AR124" s="7"/>
@@ -30785,7 +30291,6 @@
       <c r="BF124" s="7"/>
       <c r="BG124" s="7"/>
       <c r="BH124" s="7"/>
-      <c r="BI124" s="7"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="7"/>
@@ -30846,11 +30351,11 @@
       </c>
       <c r="S125" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T125" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U125" s="7">
         <f t="shared" si="11"/>
@@ -30862,11 +30367,11 @@
       </c>
       <c r="W125" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X125" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y125" s="7">
         <f t="shared" si="15"/>
@@ -30932,10 +30437,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO125" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO125" s="7"/>
       <c r="AP125" s="7"/>
       <c r="AQ125" s="7"/>
       <c r="AR125" s="7"/>
@@ -30955,7 +30457,6 @@
       <c r="BF125" s="7"/>
       <c r="BG125" s="7"/>
       <c r="BH125" s="7"/>
-      <c r="BI125" s="7"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="7"/>
@@ -31032,19 +30533,19 @@
       </c>
       <c r="W126" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X126" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y126" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z126" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA126" s="7">
         <f t="shared" si="17"/>
@@ -31102,10 +30603,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO126" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO126" s="7"/>
       <c r="AP126" s="7"/>
       <c r="AQ126" s="7"/>
       <c r="AR126" s="7"/>
@@ -31125,7 +30623,6 @@
       <c r="BF126" s="7"/>
       <c r="BG126" s="7"/>
       <c r="BH126" s="7"/>
-      <c r="BI126" s="7"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="7"/>
@@ -31200,11 +30697,11 @@
       </c>
       <c r="W127" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X127" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y127" s="7">
         <f t="shared" si="15"/>
@@ -31216,11 +30713,11 @@
       </c>
       <c r="AA127" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB127" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC127" s="7">
         <f t="shared" si="19"/>
@@ -31270,10 +30767,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO127" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO127" s="7"/>
       <c r="AP127" s="7"/>
       <c r="AQ127" s="7"/>
       <c r="AR127" s="7"/>
@@ -31293,7 +30787,6 @@
       <c r="BF127" s="7"/>
       <c r="BG127" s="7"/>
       <c r="BH127" s="7"/>
-      <c r="BI127" s="7"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="7"/>
@@ -31376,7 +30869,7 @@
       </c>
       <c r="Y128" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z128" s="7">
         <f t="shared" si="16"/>
@@ -31384,7 +30877,7 @@
       </c>
       <c r="AA128" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB128" s="7">
         <f t="shared" si="18"/>
@@ -31438,10 +30931,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO128" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO128" s="7"/>
       <c r="AP128" s="7"/>
       <c r="AQ128" s="7"/>
       <c r="AR128" s="7"/>
@@ -31461,7 +30951,6 @@
       <c r="BF128" s="7"/>
       <c r="BG128" s="7"/>
       <c r="BH128" s="7"/>
-      <c r="BI128" s="7"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="7"/>
@@ -31546,19 +31035,19 @@
       </c>
       <c r="Y129" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z129" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA129" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB129" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC129" s="7">
         <f t="shared" si="19"/>
@@ -31594,11 +31083,11 @@
       </c>
       <c r="AK129" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL129" s="7">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM129" s="7">
         <f t="shared" si="29"/>
@@ -31608,10 +31097,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO129" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO129" s="7"/>
       <c r="AP129" s="7"/>
       <c r="AQ129" s="7"/>
       <c r="AR129" s="7"/>
@@ -31631,7 +31117,6 @@
       <c r="BF129" s="7"/>
       <c r="BG129" s="7"/>
       <c r="BH129" s="7"/>
-      <c r="BI129" s="7"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="7"/>
@@ -31720,11 +31205,11 @@
       </c>
       <c r="Z130" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA130" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB130" s="7">
         <f t="shared" si="18"/>
@@ -31748,11 +31233,11 @@
       </c>
       <c r="AG130" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH130" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI130" s="7">
         <f t="shared" si="25"/>
@@ -31764,11 +31249,11 @@
       </c>
       <c r="AK130" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL130" s="7">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM130" s="7">
         <f t="shared" si="29"/>
@@ -31778,10 +31263,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO130" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO130" s="7"/>
       <c r="AP130" s="7"/>
       <c r="AQ130" s="7"/>
       <c r="AR130" s="7"/>
@@ -31801,7 +31283,6 @@
       <c r="BF130" s="7"/>
       <c r="BG130" s="7"/>
       <c r="BH130" s="7"/>
-      <c r="BI130" s="7"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="7"/>
@@ -31940,10 +31421,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO131" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO131" s="7"/>
       <c r="AP131" s="7"/>
       <c r="AQ131" s="7"/>
       <c r="AR131" s="7"/>
@@ -31963,7 +31441,6 @@
       <c r="BF131" s="7"/>
       <c r="BG131" s="7"/>
       <c r="BH131" s="7"/>
-      <c r="BI131" s="7"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="7"/>
@@ -32062,11 +31539,11 @@
       </c>
       <c r="AC132" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD132" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE132" s="7">
         <f t="shared" si="21"/>
@@ -32094,11 +31571,11 @@
       </c>
       <c r="AK132" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL132" s="7">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM132" s="7">
         <f t="shared" si="29"/>
@@ -32108,10 +31585,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO132" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO132" s="7"/>
       <c r="AP132" s="7"/>
       <c r="AQ132" s="7"/>
       <c r="AR132" s="7"/>
@@ -32131,7 +31605,6 @@
       <c r="BF132" s="7"/>
       <c r="BG132" s="7"/>
       <c r="BH132" s="7"/>
-      <c r="BI132" s="7"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="7"/>
@@ -32202,11 +31675,11 @@
       </c>
       <c r="U133" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V133" s="7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W133" s="7">
         <f t="shared" si="13"/>
@@ -32242,11 +31715,11 @@
       </c>
       <c r="AE133" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF133" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG133" s="7">
         <f t="shared" si="23"/>
@@ -32280,10 +31753,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO133" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO133" s="7"/>
       <c r="AP133" s="7"/>
       <c r="AQ133" s="7"/>
       <c r="AR133" s="7"/>
@@ -32303,7 +31773,6 @@
       <c r="BF133" s="7"/>
       <c r="BG133" s="7"/>
       <c r="BH133" s="7"/>
-      <c r="BI133" s="7"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="7"/>
@@ -32450,10 +31919,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO134" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO134" s="7"/>
       <c r="AP134" s="7"/>
       <c r="AQ134" s="7"/>
       <c r="AR134" s="7"/>
@@ -32473,7 +31939,6 @@
       <c r="BF134" s="7"/>
       <c r="BG134" s="7"/>
       <c r="BH134" s="7"/>
-      <c r="BI134" s="7"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="7"/>
@@ -32584,11 +32049,11 @@
       </c>
       <c r="AF135" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG135" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH135" s="7">
         <f t="shared" si="24"/>
@@ -32618,10 +32083,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO135" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO135" s="7"/>
       <c r="AP135" s="7"/>
       <c r="AQ135" s="7"/>
       <c r="AR135" s="7"/>
@@ -32641,7 +32103,6 @@
       <c r="BF135" s="7"/>
       <c r="BG135" s="7"/>
       <c r="BH135" s="7"/>
-      <c r="BI135" s="7"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="7"/>
@@ -32738,7 +32199,7 @@
       </c>
       <c r="AB136" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC136" s="7">
         <f t="shared" si="19"/>
@@ -32746,7 +32207,7 @@
       </c>
       <c r="AD136" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE136" s="7">
         <f t="shared" si="21"/>
@@ -32788,10 +32249,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO136" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO136" s="7"/>
       <c r="AP136" s="7"/>
       <c r="AQ136" s="7"/>
       <c r="AR136" s="7"/>
@@ -32811,7 +32269,6 @@
       <c r="BF136" s="7"/>
       <c r="BG136" s="7"/>
       <c r="BH136" s="7"/>
-      <c r="BI136" s="7"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="7"/>
@@ -32888,27 +32345,27 @@
       </c>
       <c r="W137" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X137" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y137" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z137" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA137" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB137" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC137" s="7">
         <f t="shared" si="19"/>
@@ -32958,10 +32415,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO137" s="7">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="AO137" s="7"/>
       <c r="AP137" s="7"/>
       <c r="AQ137" s="7"/>
       <c r="AR137" s="7"/>
@@ -32981,7 +32435,6 @@
       <c r="BF137" s="7"/>
       <c r="BG137" s="7"/>
       <c r="BH137" s="7"/>
-      <c r="BI137" s="7"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="7"/>
@@ -33019,11 +32472,11 @@
       <c r="AG138" s="7"/>
       <c r="AH138" s="7"/>
       <c r="AI138" s="7"/>
-      <c r="AJ138" s="7"/>
-      <c r="AK138" s="7">
-        <f>SUM(AK2:AK137)</f>
+      <c r="AJ138" s="7">
+        <f>SUM(AJ2:AJ137)</f>
         <v>4</v>
       </c>
+      <c r="AK138" s="7"/>
       <c r="AL138" s="7"/>
       <c r="AM138" s="7"/>
       <c r="AN138" s="7"/>
@@ -33047,7 +32500,6 @@
       <c r="BF138" s="7"/>
       <c r="BG138" s="7"/>
       <c r="BH138" s="7"/>
-      <c r="BI138" s="7"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="7"/>
@@ -33110,7 +32562,6 @@
       <c r="BF139" s="7"/>
       <c r="BG139" s="7"/>
       <c r="BH139" s="7"/>
-      <c r="BI139" s="7"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="7"/>
@@ -33173,7 +32624,6 @@
       <c r="BF140" s="7"/>
       <c r="BG140" s="7"/>
       <c r="BH140" s="7"/>
-      <c r="BI140" s="7"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="7"/>
@@ -33236,7 +32686,6 @@
       <c r="BF141" s="7"/>
       <c r="BG141" s="7"/>
       <c r="BH141" s="7"/>
-      <c r="BI141" s="7"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="7"/>
@@ -33299,7 +32748,6 @@
       <c r="BF142" s="7"/>
       <c r="BG142" s="7"/>
       <c r="BH142" s="7"/>
-      <c r="BI142" s="7"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="7"/>
@@ -33362,7 +32810,6 @@
       <c r="BF143" s="7"/>
       <c r="BG143" s="7"/>
       <c r="BH143" s="7"/>
-      <c r="BI143" s="7"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="7"/>
@@ -33425,7 +32872,6 @@
       <c r="BF144" s="7"/>
       <c r="BG144" s="7"/>
       <c r="BH144" s="7"/>
-      <c r="BI144" s="7"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="7"/>
@@ -33488,7 +32934,6 @@
       <c r="BF145" s="7"/>
       <c r="BG145" s="7"/>
       <c r="BH145" s="7"/>
-      <c r="BI145" s="7"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="7"/>
@@ -33551,7 +32996,6 @@
       <c r="BF146" s="7"/>
       <c r="BG146" s="7"/>
       <c r="BH146" s="7"/>
-      <c r="BI146" s="7"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="7"/>
@@ -33614,7 +33058,6 @@
       <c r="BF147" s="7"/>
       <c r="BG147" s="7"/>
       <c r="BH147" s="7"/>
-      <c r="BI147" s="7"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="7"/>
@@ -33677,7 +33120,6 @@
       <c r="BF148" s="7"/>
       <c r="BG148" s="7"/>
       <c r="BH148" s="7"/>
-      <c r="BI148" s="7"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="7"/>
@@ -33740,7 +33182,6 @@
       <c r="BF149" s="7"/>
       <c r="BG149" s="7"/>
       <c r="BH149" s="7"/>
-      <c r="BI149" s="7"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="7"/>
@@ -33803,7 +33244,6 @@
       <c r="BF150" s="7"/>
       <c r="BG150" s="7"/>
       <c r="BH150" s="7"/>
-      <c r="BI150" s="7"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="7"/>
@@ -33866,7 +33306,6 @@
       <c r="BF151" s="7"/>
       <c r="BG151" s="7"/>
       <c r="BH151" s="7"/>
-      <c r="BI151" s="7"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="7"/>
@@ -33929,7 +33368,6 @@
       <c r="BF152" s="7"/>
       <c r="BG152" s="7"/>
       <c r="BH152" s="7"/>
-      <c r="BI152" s="7"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="7"/>
@@ -33992,7 +33430,6 @@
       <c r="BF153" s="7"/>
       <c r="BG153" s="7"/>
       <c r="BH153" s="7"/>
-      <c r="BI153" s="7"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="7"/>
@@ -34055,7 +33492,6 @@
       <c r="BF154" s="7"/>
       <c r="BG154" s="7"/>
       <c r="BH154" s="7"/>
-      <c r="BI154" s="7"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="7"/>
@@ -34118,7 +33554,6 @@
       <c r="BF155" s="7"/>
       <c r="BG155" s="7"/>
       <c r="BH155" s="7"/>
-      <c r="BI155" s="7"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="7"/>
@@ -34181,7 +33616,6 @@
       <c r="BF156" s="7"/>
       <c r="BG156" s="7"/>
       <c r="BH156" s="7"/>
-      <c r="BI156" s="7"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="7"/>
@@ -34244,7 +33678,6 @@
       <c r="BF157" s="7"/>
       <c r="BG157" s="7"/>
       <c r="BH157" s="7"/>
-      <c r="BI157" s="7"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="7"/>
@@ -34307,7 +33740,6 @@
       <c r="BF158" s="7"/>
       <c r="BG158" s="7"/>
       <c r="BH158" s="7"/>
-      <c r="BI158" s="7"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="7"/>
@@ -34370,7 +33802,6 @@
       <c r="BF159" s="7"/>
       <c r="BG159" s="7"/>
       <c r="BH159" s="7"/>
-      <c r="BI159" s="7"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="7"/>
@@ -34433,7 +33864,6 @@
       <c r="BF160" s="7"/>
       <c r="BG160" s="7"/>
       <c r="BH160" s="7"/>
-      <c r="BI160" s="7"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="7"/>
@@ -34496,7 +33926,6 @@
       <c r="BF161" s="7"/>
       <c r="BG161" s="7"/>
       <c r="BH161" s="7"/>
-      <c r="BI161" s="7"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="7"/>
@@ -34559,7 +33988,6 @@
       <c r="BF162" s="7"/>
       <c r="BG162" s="7"/>
       <c r="BH162" s="7"/>
-      <c r="BI162" s="7"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="7"/>
@@ -34622,7 +34050,6 @@
       <c r="BF163" s="7"/>
       <c r="BG163" s="7"/>
       <c r="BH163" s="7"/>
-      <c r="BI163" s="7"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="7"/>
@@ -34685,7 +34112,6 @@
       <c r="BF164" s="7"/>
       <c r="BG164" s="7"/>
       <c r="BH164" s="7"/>
-      <c r="BI164" s="7"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="7"/>
@@ -34748,7 +34174,6 @@
       <c r="BF165" s="7"/>
       <c r="BG165" s="7"/>
       <c r="BH165" s="7"/>
-      <c r="BI165" s="7"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="7"/>
@@ -34811,7 +34236,6 @@
       <c r="BF166" s="7"/>
       <c r="BG166" s="7"/>
       <c r="BH166" s="7"/>
-      <c r="BI166" s="7"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="7"/>
@@ -34874,7 +34298,6 @@
       <c r="BF167" s="7"/>
       <c r="BG167" s="7"/>
       <c r="BH167" s="7"/>
-      <c r="BI167" s="7"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="7"/>
@@ -34937,7 +34360,6 @@
       <c r="BF168" s="7"/>
       <c r="BG168" s="7"/>
       <c r="BH168" s="7"/>
-      <c r="BI168" s="7"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="7"/>
@@ -35000,7 +34422,6 @@
       <c r="BF169" s="7"/>
       <c r="BG169" s="7"/>
       <c r="BH169" s="7"/>
-      <c r="BI169" s="7"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="7"/>
@@ -35063,7 +34484,6 @@
       <c r="BF170" s="7"/>
       <c r="BG170" s="7"/>
       <c r="BH170" s="7"/>
-      <c r="BI170" s="7"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="7"/>
@@ -35126,7 +34546,6 @@
       <c r="BF171" s="7"/>
       <c r="BG171" s="7"/>
       <c r="BH171" s="7"/>
-      <c r="BI171" s="7"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="7"/>
@@ -35189,7 +34608,6 @@
       <c r="BF172" s="7"/>
       <c r="BG172" s="7"/>
       <c r="BH172" s="7"/>
-      <c r="BI172" s="7"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="7"/>
@@ -35252,7 +34670,6 @@
       <c r="BF173" s="7"/>
       <c r="BG173" s="7"/>
       <c r="BH173" s="7"/>
-      <c r="BI173" s="7"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="7"/>
@@ -35315,7 +34732,6 @@
       <c r="BF174" s="7"/>
       <c r="BG174" s="7"/>
       <c r="BH174" s="7"/>
-      <c r="BI174" s="7"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="7"/>
@@ -35378,7 +34794,6 @@
       <c r="BF175" s="7"/>
       <c r="BG175" s="7"/>
       <c r="BH175" s="7"/>
-      <c r="BI175" s="7"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="7"/>
@@ -35441,7 +34856,6 @@
       <c r="BF176" s="7"/>
       <c r="BG176" s="7"/>
       <c r="BH176" s="7"/>
-      <c r="BI176" s="7"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="7"/>
@@ -35504,7 +34918,6 @@
       <c r="BF177" s="7"/>
       <c r="BG177" s="7"/>
       <c r="BH177" s="7"/>
-      <c r="BI177" s="7"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="7"/>
@@ -35567,7 +34980,6 @@
       <c r="BF178" s="7"/>
       <c r="BG178" s="7"/>
       <c r="BH178" s="7"/>
-      <c r="BI178" s="7"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="7"/>
@@ -35630,7 +35042,6 @@
       <c r="BF179" s="7"/>
       <c r="BG179" s="7"/>
       <c r="BH179" s="7"/>
-      <c r="BI179" s="7"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="7"/>
@@ -35693,7 +35104,6 @@
       <c r="BF180" s="7"/>
       <c r="BG180" s="7"/>
       <c r="BH180" s="7"/>
-      <c r="BI180" s="7"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="7"/>
@@ -35756,7 +35166,6 @@
       <c r="BF181" s="7"/>
       <c r="BG181" s="7"/>
       <c r="BH181" s="7"/>
-      <c r="BI181" s="7"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="7"/>
@@ -35819,7 +35228,6 @@
       <c r="BF182" s="7"/>
       <c r="BG182" s="7"/>
       <c r="BH182" s="7"/>
-      <c r="BI182" s="7"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="7"/>
@@ -35882,7 +35290,6 @@
       <c r="BF183" s="7"/>
       <c r="BG183" s="7"/>
       <c r="BH183" s="7"/>
-      <c r="BI183" s="7"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="7"/>
@@ -35945,7 +35352,6 @@
       <c r="BF184" s="7"/>
       <c r="BG184" s="7"/>
       <c r="BH184" s="7"/>
-      <c r="BI184" s="7"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="7"/>
@@ -36008,7 +35414,6 @@
       <c r="BF185" s="7"/>
       <c r="BG185" s="7"/>
       <c r="BH185" s="7"/>
-      <c r="BI185" s="7"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="7"/>
@@ -36071,7 +35476,6 @@
       <c r="BF186" s="7"/>
       <c r="BG186" s="7"/>
       <c r="BH186" s="7"/>
-      <c r="BI186" s="7"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="7"/>
@@ -36134,7 +35538,6 @@
       <c r="BF187" s="7"/>
       <c r="BG187" s="7"/>
       <c r="BH187" s="7"/>
-      <c r="BI187" s="7"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="7"/>
@@ -36197,7 +35600,6 @@
       <c r="BF188" s="7"/>
       <c r="BG188" s="7"/>
       <c r="BH188" s="7"/>
-      <c r="BI188" s="7"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="7"/>
@@ -36260,7 +35662,6 @@
       <c r="BF189" s="7"/>
       <c r="BG189" s="7"/>
       <c r="BH189" s="7"/>
-      <c r="BI189" s="7"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="7"/>
@@ -36323,7 +35724,6 @@
       <c r="BF190" s="7"/>
       <c r="BG190" s="7"/>
       <c r="BH190" s="7"/>
-      <c r="BI190" s="7"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="7"/>
@@ -36386,7 +35786,6 @@
       <c r="BF191" s="7"/>
       <c r="BG191" s="7"/>
       <c r="BH191" s="7"/>
-      <c r="BI191" s="7"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="7"/>
@@ -36449,7 +35848,6 @@
       <c r="BF192" s="7"/>
       <c r="BG192" s="7"/>
       <c r="BH192" s="7"/>
-      <c r="BI192" s="7"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="7"/>
@@ -36512,7 +35910,6 @@
       <c r="BF193" s="7"/>
       <c r="BG193" s="7"/>
       <c r="BH193" s="7"/>
-      <c r="BI193" s="7"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="7"/>
@@ -36575,7 +35972,6 @@
       <c r="BF194" s="7"/>
       <c r="BG194" s="7"/>
       <c r="BH194" s="7"/>
-      <c r="BI194" s="7"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="7"/>
@@ -36638,7 +36034,6 @@
       <c r="BF195" s="7"/>
       <c r="BG195" s="7"/>
       <c r="BH195" s="7"/>
-      <c r="BI195" s="7"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="7"/>
@@ -36701,7 +36096,6 @@
       <c r="BF196" s="7"/>
       <c r="BG196" s="7"/>
       <c r="BH196" s="7"/>
-      <c r="BI196" s="7"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="7"/>
@@ -36764,7 +36158,6 @@
       <c r="BF197" s="7"/>
       <c r="BG197" s="7"/>
       <c r="BH197" s="7"/>
-      <c r="BI197" s="7"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="7"/>
@@ -36827,7 +36220,6 @@
       <c r="BF198" s="7"/>
       <c r="BG198" s="7"/>
       <c r="BH198" s="7"/>
-      <c r="BI198" s="7"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="7"/>
@@ -36890,7 +36282,6 @@
       <c r="BF199" s="7"/>
       <c r="BG199" s="7"/>
       <c r="BH199" s="7"/>
-      <c r="BI199" s="7"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="7"/>
@@ -36953,7 +36344,6 @@
       <c r="BF200" s="7"/>
       <c r="BG200" s="7"/>
       <c r="BH200" s="7"/>
-      <c r="BI200" s="7"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="7"/>
@@ -37016,7 +36406,6 @@
       <c r="BF201" s="7"/>
       <c r="BG201" s="7"/>
       <c r="BH201" s="7"/>
-      <c r="BI201" s="7"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="7"/>
@@ -37079,7 +36468,6 @@
       <c r="BF202" s="7"/>
       <c r="BG202" s="7"/>
       <c r="BH202" s="7"/>
-      <c r="BI202" s="7"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="7"/>
@@ -37142,7 +36530,6 @@
       <c r="BF203" s="7"/>
       <c r="BG203" s="7"/>
       <c r="BH203" s="7"/>
-      <c r="BI203" s="7"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="7"/>
@@ -37205,7 +36592,6 @@
       <c r="BF204" s="7"/>
       <c r="BG204" s="7"/>
       <c r="BH204" s="7"/>
-      <c r="BI204" s="7"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="7"/>
@@ -37268,7 +36654,6 @@
       <c r="BF205" s="7"/>
       <c r="BG205" s="7"/>
       <c r="BH205" s="7"/>
-      <c r="BI205" s="7"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="7"/>
@@ -37331,7 +36716,6 @@
       <c r="BF206" s="7"/>
       <c r="BG206" s="7"/>
       <c r="BH206" s="7"/>
-      <c r="BI206" s="7"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="7"/>
@@ -37394,7 +36778,6 @@
       <c r="BF207" s="7"/>
       <c r="BG207" s="7"/>
       <c r="BH207" s="7"/>
-      <c r="BI207" s="7"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="7"/>
@@ -37457,7 +36840,6 @@
       <c r="BF208" s="7"/>
       <c r="BG208" s="7"/>
       <c r="BH208" s="7"/>
-      <c r="BI208" s="7"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="7"/>
@@ -37520,7 +36902,6 @@
       <c r="BF209" s="7"/>
       <c r="BG209" s="7"/>
       <c r="BH209" s="7"/>
-      <c r="BI209" s="7"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="7"/>
@@ -37583,7 +36964,6 @@
       <c r="BF210" s="7"/>
       <c r="BG210" s="7"/>
       <c r="BH210" s="7"/>
-      <c r="BI210" s="7"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="7"/>
@@ -37646,7 +37026,6 @@
       <c r="BF211" s="7"/>
       <c r="BG211" s="7"/>
       <c r="BH211" s="7"/>
-      <c r="BI211" s="7"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="7"/>
@@ -37709,7 +37088,6 @@
       <c r="BF212" s="7"/>
       <c r="BG212" s="7"/>
       <c r="BH212" s="7"/>
-      <c r="BI212" s="7"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="7"/>
@@ -37772,7 +37150,6 @@
       <c r="BF213" s="7"/>
       <c r="BG213" s="7"/>
       <c r="BH213" s="7"/>
-      <c r="BI213" s="7"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="7"/>
@@ -37835,7 +37212,6 @@
       <c r="BF214" s="7"/>
       <c r="BG214" s="7"/>
       <c r="BH214" s="7"/>
-      <c r="BI214" s="7"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="7"/>
@@ -37898,7 +37274,6 @@
       <c r="BF215" s="7"/>
       <c r="BG215" s="7"/>
       <c r="BH215" s="7"/>
-      <c r="BI215" s="7"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="7"/>
@@ -37961,7 +37336,6 @@
       <c r="BF216" s="7"/>
       <c r="BG216" s="7"/>
       <c r="BH216" s="7"/>
-      <c r="BI216" s="7"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="7"/>
@@ -38024,7 +37398,6 @@
       <c r="BF217" s="7"/>
       <c r="BG217" s="7"/>
       <c r="BH217" s="7"/>
-      <c r="BI217" s="7"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="7"/>
@@ -38087,7 +37460,6 @@
       <c r="BF218" s="7"/>
       <c r="BG218" s="7"/>
       <c r="BH218" s="7"/>
-      <c r="BI218" s="7"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="7"/>
@@ -38150,7 +37522,6 @@
       <c r="BF219" s="7"/>
       <c r="BG219" s="7"/>
       <c r="BH219" s="7"/>
-      <c r="BI219" s="7"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="7"/>
@@ -38213,7 +37584,6 @@
       <c r="BF220" s="7"/>
       <c r="BG220" s="7"/>
       <c r="BH220" s="7"/>
-      <c r="BI220" s="7"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="7"/>
@@ -38276,7 +37646,6 @@
       <c r="BF221" s="7"/>
       <c r="BG221" s="7"/>
       <c r="BH221" s="7"/>
-      <c r="BI221" s="7"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="7"/>
@@ -38339,7 +37708,6 @@
       <c r="BF222" s="7"/>
       <c r="BG222" s="7"/>
       <c r="BH222" s="7"/>
-      <c r="BI222" s="7"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="7"/>
@@ -38402,7 +37770,6 @@
       <c r="BF223" s="7"/>
       <c r="BG223" s="7"/>
       <c r="BH223" s="7"/>
-      <c r="BI223" s="7"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="7"/>
@@ -38465,7 +37832,6 @@
       <c r="BF224" s="7"/>
       <c r="BG224" s="7"/>
       <c r="BH224" s="7"/>
-      <c r="BI224" s="7"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="7"/>
@@ -38528,7 +37894,6 @@
       <c r="BF225" s="7"/>
       <c r="BG225" s="7"/>
       <c r="BH225" s="7"/>
-      <c r="BI225" s="7"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="7"/>
@@ -38591,7 +37956,6 @@
       <c r="BF226" s="7"/>
       <c r="BG226" s="7"/>
       <c r="BH226" s="7"/>
-      <c r="BI226" s="7"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="7"/>
@@ -38654,7 +38018,6 @@
       <c r="BF227" s="7"/>
       <c r="BG227" s="7"/>
       <c r="BH227" s="7"/>
-      <c r="BI227" s="7"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="7"/>
@@ -38717,7 +38080,6 @@
       <c r="BF228" s="7"/>
       <c r="BG228" s="7"/>
       <c r="BH228" s="7"/>
-      <c r="BI228" s="7"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="7"/>
@@ -38780,7 +38142,6 @@
       <c r="BF229" s="7"/>
       <c r="BG229" s="7"/>
       <c r="BH229" s="7"/>
-      <c r="BI229" s="7"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="7"/>
@@ -38843,7 +38204,6 @@
       <c r="BF230" s="7"/>
       <c r="BG230" s="7"/>
       <c r="BH230" s="7"/>
-      <c r="BI230" s="7"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="7"/>
@@ -38906,7 +38266,6 @@
       <c r="BF231" s="7"/>
       <c r="BG231" s="7"/>
       <c r="BH231" s="7"/>
-      <c r="BI231" s="7"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="7"/>
@@ -38969,7 +38328,6 @@
       <c r="BF232" s="7"/>
       <c r="BG232" s="7"/>
       <c r="BH232" s="7"/>
-      <c r="BI232" s="7"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="7"/>
@@ -39032,7 +38390,6 @@
       <c r="BF233" s="7"/>
       <c r="BG233" s="7"/>
       <c r="BH233" s="7"/>
-      <c r="BI233" s="7"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="7"/>
@@ -39095,7 +38452,6 @@
       <c r="BF234" s="7"/>
       <c r="BG234" s="7"/>
       <c r="BH234" s="7"/>
-      <c r="BI234" s="7"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="7"/>
@@ -39158,7 +38514,6 @@
       <c r="BF235" s="7"/>
       <c r="BG235" s="7"/>
       <c r="BH235" s="7"/>
-      <c r="BI235" s="7"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="7"/>
@@ -39221,7 +38576,6 @@
       <c r="BF236" s="7"/>
       <c r="BG236" s="7"/>
       <c r="BH236" s="7"/>
-      <c r="BI236" s="7"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="7"/>
@@ -39284,7 +38638,6 @@
       <c r="BF237" s="7"/>
       <c r="BG237" s="7"/>
       <c r="BH237" s="7"/>
-      <c r="BI237" s="7"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="7"/>
@@ -39347,7 +38700,6 @@
       <c r="BF238" s="7"/>
       <c r="BG238" s="7"/>
       <c r="BH238" s="7"/>
-      <c r="BI238" s="7"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="7"/>
@@ -39410,7 +38762,6 @@
       <c r="BF239" s="7"/>
       <c r="BG239" s="7"/>
       <c r="BH239" s="7"/>
-      <c r="BI239" s="7"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="7"/>
@@ -39473,7 +38824,6 @@
       <c r="BF240" s="7"/>
       <c r="BG240" s="7"/>
       <c r="BH240" s="7"/>
-      <c r="BI240" s="7"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="7"/>
@@ -39536,7 +38886,6 @@
       <c r="BF241" s="7"/>
       <c r="BG241" s="7"/>
       <c r="BH241" s="7"/>
-      <c r="BI241" s="7"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="7"/>
@@ -39599,7 +38948,6 @@
       <c r="BF242" s="7"/>
       <c r="BG242" s="7"/>
       <c r="BH242" s="7"/>
-      <c r="BI242" s="7"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="7"/>
@@ -39662,7 +39010,6 @@
       <c r="BF243" s="7"/>
       <c r="BG243" s="7"/>
       <c r="BH243" s="7"/>
-      <c r="BI243" s="7"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="7"/>
@@ -39725,7 +39072,6 @@
       <c r="BF244" s="7"/>
       <c r="BG244" s="7"/>
       <c r="BH244" s="7"/>
-      <c r="BI244" s="7"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="7"/>
@@ -39788,7 +39134,6 @@
       <c r="BF245" s="7"/>
       <c r="BG245" s="7"/>
       <c r="BH245" s="7"/>
-      <c r="BI245" s="7"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="7"/>
@@ -39851,7 +39196,6 @@
       <c r="BF246" s="7"/>
       <c r="BG246" s="7"/>
       <c r="BH246" s="7"/>
-      <c r="BI246" s="7"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="7"/>
@@ -39914,7 +39258,6 @@
       <c r="BF247" s="7"/>
       <c r="BG247" s="7"/>
       <c r="BH247" s="7"/>
-      <c r="BI247" s="7"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="7"/>
@@ -39977,7 +39320,6 @@
       <c r="BF248" s="7"/>
       <c r="BG248" s="7"/>
       <c r="BH248" s="7"/>
-      <c r="BI248" s="7"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="7"/>
@@ -40040,7 +39382,6 @@
       <c r="BF249" s="7"/>
       <c r="BG249" s="7"/>
       <c r="BH249" s="7"/>
-      <c r="BI249" s="7"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="7"/>
@@ -40103,7 +39444,6 @@
       <c r="BF250" s="7"/>
       <c r="BG250" s="7"/>
       <c r="BH250" s="7"/>
-      <c r="BI250" s="7"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="7"/>
@@ -40166,7 +39506,6 @@
       <c r="BF251" s="7"/>
       <c r="BG251" s="7"/>
       <c r="BH251" s="7"/>
-      <c r="BI251" s="7"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="7"/>
@@ -40229,7 +39568,6 @@
       <c r="BF252" s="7"/>
       <c r="BG252" s="7"/>
       <c r="BH252" s="7"/>
-      <c r="BI252" s="7"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="7"/>
@@ -40292,7 +39630,6 @@
       <c r="BF253" s="7"/>
       <c r="BG253" s="7"/>
       <c r="BH253" s="7"/>
-      <c r="BI253" s="7"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="7"/>
@@ -40355,7 +39692,6 @@
       <c r="BF254" s="7"/>
       <c r="BG254" s="7"/>
       <c r="BH254" s="7"/>
-      <c r="BI254" s="7"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="7"/>
@@ -40418,7 +39754,6 @@
       <c r="BF255" s="7"/>
       <c r="BG255" s="7"/>
       <c r="BH255" s="7"/>
-      <c r="BI255" s="7"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="7"/>
@@ -40481,7 +39816,6 @@
       <c r="BF256" s="7"/>
       <c r="BG256" s="7"/>
       <c r="BH256" s="7"/>
-      <c r="BI256" s="7"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="7"/>
@@ -40544,7 +39878,6 @@
       <c r="BF257" s="7"/>
       <c r="BG257" s="7"/>
       <c r="BH257" s="7"/>
-      <c r="BI257" s="7"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="7"/>
@@ -40607,7 +39940,6 @@
       <c r="BF258" s="7"/>
       <c r="BG258" s="7"/>
       <c r="BH258" s="7"/>
-      <c r="BI258" s="7"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="7"/>
@@ -40670,7 +40002,6 @@
       <c r="BF259" s="7"/>
       <c r="BG259" s="7"/>
       <c r="BH259" s="7"/>
-      <c r="BI259" s="7"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="7"/>
@@ -40733,7 +40064,6 @@
       <c r="BF260" s="7"/>
       <c r="BG260" s="7"/>
       <c r="BH260" s="7"/>
-      <c r="BI260" s="7"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="7"/>
@@ -40796,7 +40126,6 @@
       <c r="BF261" s="7"/>
       <c r="BG261" s="7"/>
       <c r="BH261" s="7"/>
-      <c r="BI261" s="7"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="7"/>
@@ -40859,7 +40188,6 @@
       <c r="BF262" s="7"/>
       <c r="BG262" s="7"/>
       <c r="BH262" s="7"/>
-      <c r="BI262" s="7"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="7"/>
@@ -40922,7 +40250,6 @@
       <c r="BF263" s="7"/>
       <c r="BG263" s="7"/>
       <c r="BH263" s="7"/>
-      <c r="BI263" s="7"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="7"/>
@@ -40985,7 +40312,6 @@
       <c r="BF264" s="7"/>
       <c r="BG264" s="7"/>
       <c r="BH264" s="7"/>
-      <c r="BI264" s="7"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="7"/>
@@ -41048,7 +40374,6 @@
       <c r="BF265" s="7"/>
       <c r="BG265" s="7"/>
       <c r="BH265" s="7"/>
-      <c r="BI265" s="7"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="7"/>
@@ -41111,7 +40436,6 @@
       <c r="BF266" s="7"/>
       <c r="BG266" s="7"/>
       <c r="BH266" s="7"/>
-      <c r="BI266" s="7"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="7"/>
@@ -41174,7 +40498,6 @@
       <c r="BF267" s="7"/>
       <c r="BG267" s="7"/>
       <c r="BH267" s="7"/>
-      <c r="BI267" s="7"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="7"/>
@@ -41237,7 +40560,6 @@
       <c r="BF268" s="7"/>
       <c r="BG268" s="7"/>
       <c r="BH268" s="7"/>
-      <c r="BI268" s="7"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="7"/>
@@ -41300,7 +40622,6 @@
       <c r="BF269" s="7"/>
       <c r="BG269" s="7"/>
       <c r="BH269" s="7"/>
-      <c r="BI269" s="7"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="7"/>
@@ -41363,7 +40684,6 @@
       <c r="BF270" s="7"/>
       <c r="BG270" s="7"/>
       <c r="BH270" s="7"/>
-      <c r="BI270" s="7"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="7"/>
@@ -41426,7 +40746,6 @@
       <c r="BF271" s="7"/>
       <c r="BG271" s="7"/>
       <c r="BH271" s="7"/>
-      <c r="BI271" s="7"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="7"/>
@@ -41489,7 +40808,6 @@
       <c r="BF272" s="7"/>
       <c r="BG272" s="7"/>
       <c r="BH272" s="7"/>
-      <c r="BI272" s="7"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="7"/>
@@ -41552,7 +40870,6 @@
       <c r="BF273" s="7"/>
       <c r="BG273" s="7"/>
       <c r="BH273" s="7"/>
-      <c r="BI273" s="7"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="7"/>
@@ -41615,7 +40932,6 @@
       <c r="BF274" s="7"/>
       <c r="BG274" s="7"/>
       <c r="BH274" s="7"/>
-      <c r="BI274" s="7"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="7"/>
@@ -41678,7 +40994,6 @@
       <c r="BF275" s="7"/>
       <c r="BG275" s="7"/>
       <c r="BH275" s="7"/>
-      <c r="BI275" s="7"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="7"/>
@@ -41741,7 +41056,6 @@
       <c r="BF276" s="7"/>
       <c r="BG276" s="7"/>
       <c r="BH276" s="7"/>
-      <c r="BI276" s="7"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="7"/>
@@ -41804,7 +41118,6 @@
       <c r="BF277" s="7"/>
       <c r="BG277" s="7"/>
       <c r="BH277" s="7"/>
-      <c r="BI277" s="7"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="7"/>
@@ -41867,7 +41180,6 @@
       <c r="BF278" s="7"/>
       <c r="BG278" s="7"/>
       <c r="BH278" s="7"/>
-      <c r="BI278" s="7"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="7"/>
@@ -41930,7 +41242,6 @@
       <c r="BF279" s="7"/>
       <c r="BG279" s="7"/>
       <c r="BH279" s="7"/>
-      <c r="BI279" s="7"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="7"/>
@@ -41993,7 +41304,6 @@
       <c r="BF280" s="7"/>
       <c r="BG280" s="7"/>
       <c r="BH280" s="7"/>
-      <c r="BI280" s="7"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="7"/>
@@ -42056,7 +41366,6 @@
       <c r="BF281" s="7"/>
       <c r="BG281" s="7"/>
       <c r="BH281" s="7"/>
-      <c r="BI281" s="7"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="7"/>
@@ -42119,7 +41428,6 @@
       <c r="BF282" s="7"/>
       <c r="BG282" s="7"/>
       <c r="BH282" s="7"/>
-      <c r="BI282" s="7"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="7"/>
@@ -42182,7 +41490,6 @@
       <c r="BF283" s="7"/>
       <c r="BG283" s="7"/>
       <c r="BH283" s="7"/>
-      <c r="BI283" s="7"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="7"/>
@@ -42245,7 +41552,6 @@
       <c r="BF284" s="7"/>
       <c r="BG284" s="7"/>
       <c r="BH284" s="7"/>
-      <c r="BI284" s="7"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="7"/>
@@ -42308,7 +41614,6 @@
       <c r="BF285" s="7"/>
       <c r="BG285" s="7"/>
       <c r="BH285" s="7"/>
-      <c r="BI285" s="7"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="7"/>
@@ -42371,7 +41676,6 @@
       <c r="BF286" s="7"/>
       <c r="BG286" s="7"/>
       <c r="BH286" s="7"/>
-      <c r="BI286" s="7"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="7"/>
@@ -42434,7 +41738,6 @@
       <c r="BF287" s="7"/>
       <c r="BG287" s="7"/>
       <c r="BH287" s="7"/>
-      <c r="BI287" s="7"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="7"/>
@@ -42497,7 +41800,6 @@
       <c r="BF288" s="7"/>
       <c r="BG288" s="7"/>
       <c r="BH288" s="7"/>
-      <c r="BI288" s="7"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="7"/>
@@ -42560,7 +41862,6 @@
       <c r="BF289" s="7"/>
       <c r="BG289" s="7"/>
       <c r="BH289" s="7"/>
-      <c r="BI289" s="7"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="7"/>
@@ -42623,7 +41924,6 @@
       <c r="BF290" s="7"/>
       <c r="BG290" s="7"/>
       <c r="BH290" s="7"/>
-      <c r="BI290" s="7"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="7"/>
@@ -42686,7 +41986,6 @@
       <c r="BF291" s="7"/>
       <c r="BG291" s="7"/>
       <c r="BH291" s="7"/>
-      <c r="BI291" s="7"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="7"/>
@@ -42749,7 +42048,6 @@
       <c r="BF292" s="7"/>
       <c r="BG292" s="7"/>
       <c r="BH292" s="7"/>
-      <c r="BI292" s="7"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="7"/>
@@ -42812,7 +42110,6 @@
       <c r="BF293" s="7"/>
       <c r="BG293" s="7"/>
       <c r="BH293" s="7"/>
-      <c r="BI293" s="7"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="7"/>
@@ -42875,7 +42172,6 @@
       <c r="BF294" s="7"/>
       <c r="BG294" s="7"/>
       <c r="BH294" s="7"/>
-      <c r="BI294" s="7"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="7"/>
@@ -42938,7 +42234,6 @@
       <c r="BF295" s="7"/>
       <c r="BG295" s="7"/>
       <c r="BH295" s="7"/>
-      <c r="BI295" s="7"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="7"/>
@@ -43001,7 +42296,6 @@
       <c r="BF296" s="7"/>
       <c r="BG296" s="7"/>
       <c r="BH296" s="7"/>
-      <c r="BI296" s="7"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="7"/>
@@ -43064,7 +42358,6 @@
       <c r="BF297" s="7"/>
       <c r="BG297" s="7"/>
       <c r="BH297" s="7"/>
-      <c r="BI297" s="7"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="7"/>
@@ -43127,7 +42420,6 @@
       <c r="BF298" s="7"/>
       <c r="BG298" s="7"/>
       <c r="BH298" s="7"/>
-      <c r="BI298" s="7"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="7"/>
@@ -43190,7 +42482,6 @@
       <c r="BF299" s="7"/>
       <c r="BG299" s="7"/>
       <c r="BH299" s="7"/>
-      <c r="BI299" s="7"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="7"/>
@@ -43253,7 +42544,6 @@
       <c r="BF300" s="7"/>
       <c r="BG300" s="7"/>
       <c r="BH300" s="7"/>
-      <c r="BI300" s="7"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="7"/>
@@ -43316,7 +42606,6 @@
       <c r="BF301" s="7"/>
       <c r="BG301" s="7"/>
       <c r="BH301" s="7"/>
-      <c r="BI301" s="7"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="7"/>
@@ -43379,7 +42668,6 @@
       <c r="BF302" s="7"/>
       <c r="BG302" s="7"/>
       <c r="BH302" s="7"/>
-      <c r="BI302" s="7"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="7"/>
@@ -43442,7 +42730,6 @@
       <c r="BF303" s="7"/>
       <c r="BG303" s="7"/>
       <c r="BH303" s="7"/>
-      <c r="BI303" s="7"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="7"/>
@@ -43505,7 +42792,6 @@
       <c r="BF304" s="7"/>
       <c r="BG304" s="7"/>
       <c r="BH304" s="7"/>
-      <c r="BI304" s="7"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="7"/>
@@ -43568,7 +42854,6 @@
       <c r="BF305" s="7"/>
       <c r="BG305" s="7"/>
       <c r="BH305" s="7"/>
-      <c r="BI305" s="7"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="7"/>
@@ -43631,7 +42916,6 @@
       <c r="BF306" s="7"/>
       <c r="BG306" s="7"/>
       <c r="BH306" s="7"/>
-      <c r="BI306" s="7"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="7"/>
@@ -43694,7 +42978,6 @@
       <c r="BF307" s="7"/>
       <c r="BG307" s="7"/>
       <c r="BH307" s="7"/>
-      <c r="BI307" s="7"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="7"/>
@@ -43757,7 +43040,6 @@
       <c r="BF308" s="7"/>
       <c r="BG308" s="7"/>
       <c r="BH308" s="7"/>
-      <c r="BI308" s="7"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="7"/>
@@ -43820,7 +43102,6 @@
       <c r="BF309" s="7"/>
       <c r="BG309" s="7"/>
       <c r="BH309" s="7"/>
-      <c r="BI309" s="7"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="7"/>
@@ -43883,7 +43164,6 @@
       <c r="BF310" s="7"/>
       <c r="BG310" s="7"/>
       <c r="BH310" s="7"/>
-      <c r="BI310" s="7"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="7"/>
@@ -43946,7 +43226,6 @@
       <c r="BF311" s="7"/>
       <c r="BG311" s="7"/>
       <c r="BH311" s="7"/>
-      <c r="BI311" s="7"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="7"/>
@@ -44009,7 +43288,6 @@
       <c r="BF312" s="7"/>
       <c r="BG312" s="7"/>
       <c r="BH312" s="7"/>
-      <c r="BI312" s="7"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="7"/>
@@ -44072,7 +43350,6 @@
       <c r="BF313" s="7"/>
       <c r="BG313" s="7"/>
       <c r="BH313" s="7"/>
-      <c r="BI313" s="7"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="7"/>
@@ -44135,7 +43412,6 @@
       <c r="BF314" s="7"/>
       <c r="BG314" s="7"/>
       <c r="BH314" s="7"/>
-      <c r="BI314" s="7"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="7"/>
@@ -44198,7 +43474,6 @@
       <c r="BF315" s="7"/>
       <c r="BG315" s="7"/>
       <c r="BH315" s="7"/>
-      <c r="BI315" s="7"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="7"/>
@@ -44261,7 +43536,6 @@
       <c r="BF316" s="7"/>
       <c r="BG316" s="7"/>
       <c r="BH316" s="7"/>
-      <c r="BI316" s="7"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="7"/>
@@ -44324,7 +43598,6 @@
       <c r="BF317" s="7"/>
       <c r="BG317" s="7"/>
       <c r="BH317" s="7"/>
-      <c r="BI317" s="7"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="7"/>
@@ -44387,7 +43660,6 @@
       <c r="BF318" s="7"/>
       <c r="BG318" s="7"/>
       <c r="BH318" s="7"/>
-      <c r="BI318" s="7"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="7"/>
@@ -44450,7 +43722,6 @@
       <c r="BF319" s="7"/>
       <c r="BG319" s="7"/>
       <c r="BH319" s="7"/>
-      <c r="BI319" s="7"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="7"/>
@@ -44513,7 +43784,6 @@
       <c r="BF320" s="7"/>
       <c r="BG320" s="7"/>
       <c r="BH320" s="7"/>
-      <c r="BI320" s="7"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="7"/>
@@ -44576,7 +43846,6 @@
       <c r="BF321" s="7"/>
       <c r="BG321" s="7"/>
       <c r="BH321" s="7"/>
-      <c r="BI321" s="7"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="7"/>
@@ -44639,7 +43908,6 @@
       <c r="BF322" s="7"/>
       <c r="BG322" s="7"/>
       <c r="BH322" s="7"/>
-      <c r="BI322" s="7"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="7"/>
@@ -44702,7 +43970,6 @@
       <c r="BF323" s="7"/>
       <c r="BG323" s="7"/>
       <c r="BH323" s="7"/>
-      <c r="BI323" s="7"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="7"/>
@@ -44765,7 +44032,6 @@
       <c r="BF324" s="7"/>
       <c r="BG324" s="7"/>
       <c r="BH324" s="7"/>
-      <c r="BI324" s="7"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="7"/>
@@ -44828,7 +44094,6 @@
       <c r="BF325" s="7"/>
       <c r="BG325" s="7"/>
       <c r="BH325" s="7"/>
-      <c r="BI325" s="7"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="7"/>
@@ -44891,7 +44156,6 @@
       <c r="BF326" s="7"/>
       <c r="BG326" s="7"/>
       <c r="BH326" s="7"/>
-      <c r="BI326" s="7"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="7"/>
@@ -44954,7 +44218,6 @@
       <c r="BF327" s="7"/>
       <c r="BG327" s="7"/>
       <c r="BH327" s="7"/>
-      <c r="BI327" s="7"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="7"/>
@@ -45017,7 +44280,6 @@
       <c r="BF328" s="7"/>
       <c r="BG328" s="7"/>
       <c r="BH328" s="7"/>
-      <c r="BI328" s="7"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="7"/>
@@ -45080,7 +44342,6 @@
       <c r="BF329" s="7"/>
       <c r="BG329" s="7"/>
       <c r="BH329" s="7"/>
-      <c r="BI329" s="7"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="7"/>
@@ -45143,7 +44404,6 @@
       <c r="BF330" s="7"/>
       <c r="BG330" s="7"/>
       <c r="BH330" s="7"/>
-      <c r="BI330" s="7"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="7"/>
@@ -45206,7 +44466,6 @@
       <c r="BF331" s="7"/>
       <c r="BG331" s="7"/>
       <c r="BH331" s="7"/>
-      <c r="BI331" s="7"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="7"/>
@@ -45269,7 +44528,6 @@
       <c r="BF332" s="7"/>
       <c r="BG332" s="7"/>
       <c r="BH332" s="7"/>
-      <c r="BI332" s="7"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="7"/>
@@ -45332,7 +44590,6 @@
       <c r="BF333" s="7"/>
       <c r="BG333" s="7"/>
       <c r="BH333" s="7"/>
-      <c r="BI333" s="7"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="7"/>
@@ -45395,7 +44652,6 @@
       <c r="BF334" s="7"/>
       <c r="BG334" s="7"/>
       <c r="BH334" s="7"/>
-      <c r="BI334" s="7"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="7"/>
@@ -45458,7 +44714,6 @@
       <c r="BF335" s="7"/>
       <c r="BG335" s="7"/>
       <c r="BH335" s="7"/>
-      <c r="BI335" s="7"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="7"/>
@@ -45521,7 +44776,6 @@
       <c r="BF336" s="7"/>
       <c r="BG336" s="7"/>
       <c r="BH336" s="7"/>
-      <c r="BI336" s="7"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="7"/>
@@ -45584,7 +44838,6 @@
       <c r="BF337" s="7"/>
       <c r="BG337" s="7"/>
       <c r="BH337" s="7"/>
-      <c r="BI337" s="7"/>
     </row>
     <row r="338" ht="15.75" customHeight="1"/>
     <row r="339" ht="15.75" customHeight="1"/>

--- a/Analysis Documents/Article Data - FINAL (3).xlsx
+++ b/Analysis Documents/Article Data - FINAL (3).xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhiMMjeeY5xHUCwyQwalfy6qONjZQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjqf5slCCzSZ2uZcpPnVWPl5WZG7w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="550">
   <si>
     <t>ID No.</t>
   </si>
@@ -1674,7 +1674,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1717,6 +1717,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1736,7 +1741,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1756,13 +1761,14 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -10001,7 +10007,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="60" width="10.56"/>
+    <col customWidth="1" min="1" max="61" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -10057,73 +10063,75 @@
       <c r="R1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
       <c r="AQ1" s="10"/>
       <c r="AR1" s="10"/>
@@ -10143,6 +10151,7 @@
       <c r="BF1" s="10"/>
       <c r="BG1" s="10"/>
       <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7"/>
@@ -10205,11 +10214,11 @@
       </c>
       <c r="S2" s="7">
         <f t="shared" ref="S2:S137" si="9">IF(ISNUMBER(MATCH(S$1,E2:I2,0)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="7">
         <f t="shared" ref="T2:T137" si="10">IF(ISNUMBER(MATCH(T$1,E2:I2,0)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="7">
         <f t="shared" ref="U2:U137" si="11">IF(ISNUMBER(MATCH(U$1,E2:I2,0)),1,0)</f>
@@ -10245,11 +10254,11 @@
       </c>
       <c r="AC2" s="7">
         <f t="shared" ref="AC2:AC137" si="19">IF(ISNUMBER(MATCH(AC$1,E2:I2,0)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="7">
         <f t="shared" ref="AD2:AD137" si="20">IF(ISNUMBER(MATCH(AD$1,E2:I2,0)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="7">
         <f t="shared" ref="AE2:AE137" si="21">IF(ISNUMBER(MATCH(AE$1,E2:I2,0)),1,0)</f>
@@ -10257,11 +10266,11 @@
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF137" si="22">IF(ISNUMBER(MATCH(AF$1,E2:I2,0)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="7">
         <f t="shared" ref="AG2:AG137" si="23">IF(ISNUMBER(MATCH(AG$1,E2:I2,0)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="7">
         <f t="shared" ref="AH2:AH137" si="24">IF(ISNUMBER(MATCH(AH$1,E2:I2,0)),1,0)</f>
@@ -10291,7 +10300,10 @@
         <f t="shared" ref="AN2:AN137" si="30">IF(ISNUMBER(MATCH(AN$1,E2:I2,0)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="7"/>
+      <c r="AO2" s="7">
+        <f t="shared" ref="AO2:AO137" si="31">IF(ISNUMBER(MATCH(AO$1,E2:I2,0)),1,0)</f>
+        <v>0</v>
+      </c>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
@@ -10311,6 +10323,7 @@
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
       <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="7"/>
@@ -10395,15 +10408,15 @@
       </c>
       <c r="Y3" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="7">
         <f t="shared" si="18"/>
@@ -10411,7 +10424,7 @@
       </c>
       <c r="AC3" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="7">
         <f t="shared" si="20"/>
@@ -10457,7 +10470,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO3" s="7"/>
+      <c r="AO3" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
@@ -10477,6 +10493,7 @@
       <c r="BF3" s="7"/>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
+      <c r="BI3" s="7"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -10551,11 +10568,11 @@
       </c>
       <c r="W4" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="7">
         <f t="shared" si="15"/>
@@ -10567,11 +10584,11 @@
       </c>
       <c r="AA4" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="7">
         <f t="shared" si="19"/>
@@ -10621,7 +10638,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO4" s="7"/>
+      <c r="AO4" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
@@ -10641,6 +10661,7 @@
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="7"/>
@@ -10703,11 +10724,11 @@
       </c>
       <c r="T5" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="7">
         <f t="shared" si="12"/>
@@ -10731,11 +10752,11 @@
       </c>
       <c r="AA5" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="19"/>
@@ -10785,7 +10806,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO5" s="7"/>
+      <c r="AO5" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
@@ -10805,6 +10829,7 @@
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7"/>
@@ -10867,11 +10892,11 @@
       </c>
       <c r="S6" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="11"/>
@@ -10915,7 +10940,7 @@
       </c>
       <c r="AE6" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="22"/>
@@ -10923,7 +10948,7 @@
       </c>
       <c r="AG6" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="7">
         <f t="shared" si="24"/>
@@ -10953,7 +10978,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO6" s="7"/>
+      <c r="AO6" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
@@ -10973,6 +11001,7 @@
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="7"/>
@@ -11045,11 +11074,11 @@
       </c>
       <c r="V7" s="7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="7">
         <f t="shared" si="14"/>
@@ -11119,7 +11148,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="7"/>
+      <c r="AO7" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
       <c r="AR7" s="7"/>
@@ -11139,6 +11171,7 @@
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
+      <c r="BI7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="7"/>
@@ -11211,11 +11244,11 @@
       </c>
       <c r="V8" s="7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="7">
         <f t="shared" si="14"/>
@@ -11235,11 +11268,11 @@
       </c>
       <c r="AB8" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="7">
         <f t="shared" si="20"/>
@@ -11285,7 +11318,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="7"/>
+      <c r="AO8" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
@@ -11305,6 +11341,7 @@
       <c r="BF8" s="7"/>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7"/>
+      <c r="BI8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="7"/>
@@ -11363,7 +11400,7 @@
       </c>
       <c r="S9" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="7">
         <f t="shared" si="10"/>
@@ -11371,7 +11408,7 @@
       </c>
       <c r="U9" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="7">
         <f t="shared" si="12"/>
@@ -11449,7 +11486,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO9" s="7"/>
+      <c r="AO9" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7"/>
@@ -11469,6 +11509,7 @@
       <c r="BF9" s="7"/>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="7"/>
@@ -11557,11 +11598,11 @@
       </c>
       <c r="AA10" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="7">
         <f t="shared" si="19"/>
@@ -11611,7 +11652,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="7"/>
+      <c r="AO10" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
@@ -11631,6 +11675,7 @@
       <c r="BF10" s="7"/>
       <c r="BG10" s="7"/>
       <c r="BH10" s="7"/>
+      <c r="BI10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="7"/>
@@ -11775,7 +11820,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="7"/>
+      <c r="AO11" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
       <c r="AR11" s="7"/>
@@ -11795,6 +11843,7 @@
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="7"/>
@@ -11887,11 +11936,11 @@
       </c>
       <c r="AA12" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="7">
         <f t="shared" si="19"/>
@@ -11941,7 +11990,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="7"/>
+      <c r="AO12" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
@@ -11961,6 +12013,7 @@
       <c r="BF12" s="7"/>
       <c r="BG12" s="7"/>
       <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="7"/>
@@ -12019,11 +12072,11 @@
       </c>
       <c r="S13" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="7">
         <f t="shared" si="11"/>
@@ -12105,7 +12158,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="7"/>
+      <c r="AO13" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
       <c r="AR13" s="7"/>
@@ -12125,6 +12181,7 @@
       <c r="BF13" s="7"/>
       <c r="BG13" s="7"/>
       <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="7"/>
@@ -12203,11 +12260,11 @@
       </c>
       <c r="W14" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="7">
         <f t="shared" si="15"/>
@@ -12219,11 +12276,11 @@
       </c>
       <c r="AA14" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="7">
         <f t="shared" si="19"/>
@@ -12231,7 +12288,7 @@
       </c>
       <c r="AD14" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="7">
         <f t="shared" si="21"/>
@@ -12239,7 +12296,7 @@
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="7">
         <f t="shared" si="23"/>
@@ -12273,7 +12330,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO14" s="7"/>
+      <c r="AO14" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
       <c r="AR14" s="7"/>
@@ -12293,6 +12353,7 @@
       <c r="BF14" s="7"/>
       <c r="BG14" s="7"/>
       <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
@@ -12371,11 +12432,11 @@
       </c>
       <c r="W15" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="7">
         <f t="shared" si="15"/>
@@ -12399,7 +12460,7 @@
       </c>
       <c r="AD15" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="7">
         <f t="shared" si="21"/>
@@ -12407,15 +12468,15 @@
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" s="7">
         <f t="shared" si="25"/>
@@ -12441,7 +12502,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="7"/>
+      <c r="AO15" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
       <c r="AR15" s="7"/>
@@ -12461,6 +12525,7 @@
       <c r="BF15" s="7"/>
       <c r="BG15" s="7"/>
       <c r="BH15" s="7"/>
+      <c r="BI15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="7"/>
@@ -12553,11 +12618,11 @@
       </c>
       <c r="AA16" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="7">
         <f t="shared" si="19"/>
@@ -12565,7 +12630,7 @@
       </c>
       <c r="AD16" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="7">
         <f t="shared" si="21"/>
@@ -12573,7 +12638,7 @@
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="7">
         <f t="shared" si="23"/>
@@ -12607,7 +12672,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="7"/>
+      <c r="AO16" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
@@ -12627,6 +12695,7 @@
       <c r="BF16" s="7"/>
       <c r="BG16" s="7"/>
       <c r="BH16" s="7"/>
+      <c r="BI16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="7"/>
@@ -12709,11 +12778,11 @@
       </c>
       <c r="Y17" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="7">
         <f t="shared" si="17"/>
@@ -12771,7 +12840,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="7"/>
+      <c r="AO17" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
       <c r="AR17" s="7"/>
@@ -12791,6 +12863,7 @@
       <c r="BF17" s="7"/>
       <c r="BG17" s="7"/>
       <c r="BH17" s="7"/>
+      <c r="BI17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="7"/>
@@ -12867,27 +12940,27 @@
       </c>
       <c r="W18" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="7">
         <f t="shared" si="19"/>
@@ -12937,7 +13010,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="7"/>
+      <c r="AO18" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
@@ -12957,6 +13033,7 @@
       <c r="BF18" s="7"/>
       <c r="BG18" s="7"/>
       <c r="BH18" s="7"/>
+      <c r="BI18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="7"/>
@@ -13043,11 +13120,11 @@
       </c>
       <c r="Z19" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="7">
         <f t="shared" si="18"/>
@@ -13067,11 +13144,11 @@
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="7">
         <f t="shared" si="24"/>
@@ -13101,7 +13178,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="7"/>
+      <c r="AO19" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7"/>
       <c r="AR19" s="7"/>
@@ -13121,6 +13201,7 @@
       <c r="BF19" s="7"/>
       <c r="BG19" s="7"/>
       <c r="BH19" s="7"/>
+      <c r="BI19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
@@ -13133,8 +13214,8 @@
       <c r="D20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>26</v>
+      <c r="E20" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -13143,7 +13224,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="2"/>
@@ -13175,7 +13256,7 @@
       </c>
       <c r="S20" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="7">
         <f t="shared" si="10"/>
@@ -13261,7 +13342,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="7"/>
+      <c r="AO20" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
@@ -13281,6 +13365,7 @@
       <c r="BF20" s="7"/>
       <c r="BG20" s="7"/>
       <c r="BH20" s="7"/>
+      <c r="BI20" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
@@ -13355,11 +13440,11 @@
       </c>
       <c r="W21" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="7">
         <f t="shared" si="15"/>
@@ -13425,7 +13510,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="7"/>
+      <c r="AO21" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
       <c r="AR21" s="7"/>
@@ -13445,6 +13533,7 @@
       <c r="BF21" s="7"/>
       <c r="BG21" s="7"/>
       <c r="BH21" s="7"/>
+      <c r="BI21" s="7"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
@@ -13519,11 +13608,11 @@
       </c>
       <c r="W22" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="7">
         <f t="shared" si="15"/>
@@ -13589,7 +13678,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO22" s="7"/>
+      <c r="AO22" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
       <c r="AR22" s="7"/>
@@ -13609,6 +13701,7 @@
       <c r="BF22" s="7"/>
       <c r="BG22" s="7"/>
       <c r="BH22" s="7"/>
+      <c r="BI22" s="7"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
@@ -13747,7 +13840,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO23" s="7"/>
+      <c r="AO23" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7"/>
       <c r="AR23" s="7"/>
@@ -13767,6 +13863,7 @@
       <c r="BF23" s="7"/>
       <c r="BG23" s="7"/>
       <c r="BH23" s="7"/>
+      <c r="BI23" s="7"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
@@ -13823,11 +13920,11 @@
       </c>
       <c r="S24" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="7">
         <f t="shared" si="11"/>
@@ -13909,7 +14006,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO24" s="7"/>
+      <c r="AO24" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7"/>
       <c r="AR24" s="7"/>
@@ -13929,6 +14029,7 @@
       <c r="BF24" s="7"/>
       <c r="BG24" s="7"/>
       <c r="BH24" s="7"/>
+      <c r="BI24" s="7"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
@@ -14069,7 +14170,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO25" s="7"/>
+      <c r="AO25" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
       <c r="AR25" s="7"/>
@@ -14089,6 +14193,7 @@
       <c r="BF25" s="7"/>
       <c r="BG25" s="7"/>
       <c r="BH25" s="7"/>
+      <c r="BI25" s="7"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="7"/>
@@ -14169,11 +14274,11 @@
       </c>
       <c r="Y26" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="7">
         <f t="shared" si="17"/>
@@ -14231,7 +14336,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO26" s="7"/>
+      <c r="AO26" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
       <c r="AR26" s="7"/>
@@ -14251,6 +14359,7 @@
       <c r="BF26" s="7"/>
       <c r="BG26" s="7"/>
       <c r="BH26" s="7"/>
+      <c r="BI26" s="7"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="7"/>
@@ -14333,11 +14442,11 @@
       </c>
       <c r="Y27" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27" s="7">
         <f t="shared" si="17"/>
@@ -14395,7 +14504,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO27" s="7"/>
+      <c r="AO27" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP27" s="7"/>
       <c r="AQ27" s="7"/>
       <c r="AR27" s="7"/>
@@ -14415,6 +14527,7 @@
       <c r="BF27" s="7"/>
       <c r="BG27" s="7"/>
       <c r="BH27" s="7"/>
+      <c r="BI27" s="7"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
@@ -14487,11 +14600,11 @@
       </c>
       <c r="V28" s="7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="7">
         <f t="shared" si="14"/>
@@ -14543,11 +14656,11 @@
       </c>
       <c r="AJ28" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="7">
         <f t="shared" si="28"/>
@@ -14561,7 +14674,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO28" s="7"/>
+      <c r="AO28" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
       <c r="AR28" s="7"/>
@@ -14581,6 +14697,7 @@
       <c r="BF28" s="7"/>
       <c r="BG28" s="7"/>
       <c r="BH28" s="7"/>
+      <c r="BI28" s="7"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
@@ -14643,11 +14760,11 @@
       </c>
       <c r="T29" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="7">
         <f t="shared" si="12"/>
@@ -14655,11 +14772,11 @@
       </c>
       <c r="W29" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="7">
         <f t="shared" si="15"/>
@@ -14725,7 +14842,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO29" s="7"/>
+      <c r="AO29" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
       <c r="AR29" s="7"/>
@@ -14745,6 +14865,7 @@
       <c r="BF29" s="7"/>
       <c r="BG29" s="7"/>
       <c r="BH29" s="7"/>
+      <c r="BI29" s="7"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
@@ -14817,11 +14938,11 @@
       </c>
       <c r="W30" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="7">
         <f t="shared" si="15"/>
@@ -14887,7 +15008,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO30" s="7"/>
+      <c r="AO30" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
       <c r="AR30" s="7"/>
@@ -14907,6 +15031,7 @@
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
       <c r="BH30" s="7"/>
+      <c r="BI30" s="7"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
@@ -15047,7 +15172,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO31" s="7"/>
+      <c r="AO31" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
       <c r="AR31" s="7"/>
@@ -15067,6 +15195,7 @@
       <c r="BF31" s="7"/>
       <c r="BG31" s="7"/>
       <c r="BH31" s="7"/>
+      <c r="BI31" s="7"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
@@ -15127,11 +15256,11 @@
       </c>
       <c r="T32" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="7">
         <f t="shared" si="12"/>
@@ -15209,7 +15338,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO32" s="7"/>
+      <c r="AO32" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
@@ -15229,6 +15361,7 @@
       <c r="BF32" s="7"/>
       <c r="BG32" s="7"/>
       <c r="BH32" s="7"/>
+      <c r="BI32" s="7"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
@@ -15289,11 +15422,11 @@
       </c>
       <c r="T33" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="7">
         <f t="shared" si="12"/>
@@ -15371,7 +15504,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO33" s="7"/>
+      <c r="AO33" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="7"/>
@@ -15391,6 +15527,7 @@
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
       <c r="BH33" s="7"/>
+      <c r="BI33" s="7"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
@@ -15457,7 +15594,7 @@
       </c>
       <c r="U34" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="7">
         <f t="shared" si="12"/>
@@ -15465,7 +15602,7 @@
       </c>
       <c r="W34" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="7">
         <f t="shared" si="14"/>
@@ -15535,7 +15672,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO34" s="7"/>
+      <c r="AO34" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
       <c r="AR34" s="7"/>
@@ -15555,6 +15695,7 @@
       <c r="BF34" s="7"/>
       <c r="BG34" s="7"/>
       <c r="BH34" s="7"/>
+      <c r="BI34" s="7"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="7"/>
@@ -15625,11 +15766,11 @@
       </c>
       <c r="V35" s="7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="7">
         <f t="shared" si="14"/>
@@ -15699,7 +15840,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO35" s="7"/>
+      <c r="AO35" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
       <c r="AR35" s="7"/>
@@ -15719,6 +15863,7 @@
       <c r="BF35" s="7"/>
       <c r="BG35" s="7"/>
       <c r="BH35" s="7"/>
+      <c r="BI35" s="7"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="7"/>
@@ -15785,11 +15930,11 @@
       </c>
       <c r="U36" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="7">
         <f t="shared" si="13"/>
@@ -15817,11 +15962,11 @@
       </c>
       <c r="AC36" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="7">
         <f t="shared" si="21"/>
@@ -15863,7 +16008,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO36" s="7"/>
+      <c r="AO36" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
       <c r="AR36" s="7"/>
@@ -15883,6 +16031,7 @@
       <c r="BF36" s="7"/>
       <c r="BG36" s="7"/>
       <c r="BH36" s="7"/>
+      <c r="BI36" s="7"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="7"/>
@@ -15901,15 +16050,15 @@
       <c r="F37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>26</v>
+      <c r="G37" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="7">
         <f t="shared" si="2"/>
@@ -15941,7 +16090,7 @@
       </c>
       <c r="S37" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="7">
         <f t="shared" si="10"/>
@@ -16027,7 +16176,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO37" s="7"/>
+      <c r="AO37" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP37" s="7"/>
       <c r="AQ37" s="7"/>
       <c r="AR37" s="7"/>
@@ -16047,6 +16199,7 @@
       <c r="BF37" s="7"/>
       <c r="BG37" s="7"/>
       <c r="BH37" s="7"/>
+      <c r="BI37" s="7"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="7"/>
@@ -16187,7 +16340,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO38" s="7"/>
+      <c r="AO38" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
       <c r="AR38" s="7"/>
@@ -16207,6 +16363,7 @@
       <c r="BF38" s="7"/>
       <c r="BG38" s="7"/>
       <c r="BH38" s="7"/>
+      <c r="BI38" s="7"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="7"/>
@@ -16345,7 +16502,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO39" s="7"/>
+      <c r="AO39" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="7"/>
@@ -16365,6 +16525,7 @@
       <c r="BF39" s="7"/>
       <c r="BG39" s="7"/>
       <c r="BH39" s="7"/>
+      <c r="BI39" s="7"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="7"/>
@@ -16503,7 +16664,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO40" s="7"/>
+      <c r="AO40" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP40" s="7"/>
       <c r="AQ40" s="7"/>
       <c r="AR40" s="7"/>
@@ -16523,6 +16687,7 @@
       <c r="BF40" s="7"/>
       <c r="BG40" s="7"/>
       <c r="BH40" s="7"/>
+      <c r="BI40" s="7"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="7"/>
@@ -16633,11 +16798,11 @@
       </c>
       <c r="AF41" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41" s="7">
         <f t="shared" si="24"/>
@@ -16667,7 +16832,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO41" s="7"/>
+      <c r="AO41" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
       <c r="AR41" s="7"/>
@@ -16687,6 +16855,7 @@
       <c r="BF41" s="7"/>
       <c r="BG41" s="7"/>
       <c r="BH41" s="7"/>
+      <c r="BI41" s="7"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="7"/>
@@ -16761,19 +16930,19 @@
       </c>
       <c r="W42" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="7">
         <f t="shared" si="17"/>
@@ -16831,7 +17000,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO42" s="7"/>
+      <c r="AO42" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP42" s="7"/>
       <c r="AQ42" s="7"/>
       <c r="AR42" s="7"/>
@@ -16851,6 +17023,7 @@
       <c r="BF42" s="7"/>
       <c r="BG42" s="7"/>
       <c r="BH42" s="7"/>
+      <c r="BI42" s="7"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="7"/>
@@ -16925,11 +17098,11 @@
       </c>
       <c r="X43" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43" s="7">
         <f t="shared" si="16"/>
@@ -16965,11 +17138,11 @@
       </c>
       <c r="AH43" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43" s="7">
         <f t="shared" si="26"/>
@@ -16991,7 +17164,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO43" s="7"/>
+      <c r="AO43" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP43" s="7"/>
       <c r="AQ43" s="7"/>
       <c r="AR43" s="7"/>
@@ -17011,6 +17187,7 @@
       <c r="BF43" s="7"/>
       <c r="BG43" s="7"/>
       <c r="BH43" s="7"/>
+      <c r="BI43" s="7"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="7"/>
@@ -17023,8 +17200,8 @@
       <c r="D44" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>26</v>
+      <c r="E44" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>235</v>
@@ -17037,7 +17214,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="7">
         <f t="shared" si="2"/>
@@ -17069,7 +17246,7 @@
       </c>
       <c r="S44" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="7">
         <f t="shared" si="10"/>
@@ -17101,11 +17278,11 @@
       </c>
       <c r="AA44" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="7">
         <f t="shared" si="19"/>
@@ -17133,11 +17310,11 @@
       </c>
       <c r="AI44" s="7">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="7">
         <f t="shared" si="27"/>
@@ -17155,7 +17332,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO44" s="7"/>
+      <c r="AO44" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP44" s="7"/>
       <c r="AQ44" s="7"/>
       <c r="AR44" s="7"/>
@@ -17175,6 +17355,7 @@
       <c r="BF44" s="7"/>
       <c r="BG44" s="7"/>
       <c r="BH44" s="7"/>
+      <c r="BI44" s="7"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="7"/>
@@ -17251,11 +17432,11 @@
       </c>
       <c r="W45" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45" s="7">
         <f t="shared" si="15"/>
@@ -17267,11 +17448,11 @@
       </c>
       <c r="AA45" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="7">
         <f t="shared" si="19"/>
@@ -17299,11 +17480,11 @@
       </c>
       <c r="AI45" s="7">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK45" s="7">
         <f t="shared" si="27"/>
@@ -17321,7 +17502,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO45" s="7"/>
+      <c r="AO45" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP45" s="7"/>
       <c r="AQ45" s="7"/>
       <c r="AR45" s="7"/>
@@ -17341,6 +17525,7 @@
       <c r="BF45" s="7"/>
       <c r="BG45" s="7"/>
       <c r="BH45" s="7"/>
+      <c r="BI45" s="7"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="7"/>
@@ -17417,19 +17602,19 @@
       </c>
       <c r="W46" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46" s="7">
         <f t="shared" si="17"/>
@@ -17487,7 +17672,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO46" s="7"/>
+      <c r="AO46" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP46" s="7"/>
       <c r="AQ46" s="7"/>
       <c r="AR46" s="7"/>
@@ -17507,6 +17695,7 @@
       <c r="BF46" s="7"/>
       <c r="BG46" s="7"/>
       <c r="BH46" s="7"/>
+      <c r="BI46" s="7"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="7"/>
@@ -17565,11 +17754,11 @@
       </c>
       <c r="S47" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" s="7">
         <f t="shared" si="11"/>
@@ -17617,11 +17806,11 @@
       </c>
       <c r="AF47" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH47" s="7">
         <f t="shared" si="24"/>
@@ -17651,7 +17840,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO47" s="7"/>
+      <c r="AO47" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP47" s="7"/>
       <c r="AQ47" s="7"/>
       <c r="AR47" s="7"/>
@@ -17671,6 +17863,7 @@
       <c r="BF47" s="7"/>
       <c r="BG47" s="7"/>
       <c r="BH47" s="7"/>
+      <c r="BI47" s="7"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="7"/>
@@ -17747,11 +17940,11 @@
       </c>
       <c r="W48" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48" s="7">
         <f t="shared" si="15"/>
@@ -17771,11 +17964,11 @@
       </c>
       <c r="AC48" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48" s="7">
         <f t="shared" si="21"/>
@@ -17815,9 +18008,12 @@
       </c>
       <c r="AN48" s="7">
         <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AO48" s="7">
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="AO48" s="7"/>
       <c r="AP48" s="7"/>
       <c r="AQ48" s="7"/>
       <c r="AR48" s="7"/>
@@ -17837,6 +18033,7 @@
       <c r="BF48" s="7"/>
       <c r="BG48" s="7"/>
       <c r="BH48" s="7"/>
+      <c r="BI48" s="7"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="7"/>
@@ -17907,11 +18104,11 @@
       </c>
       <c r="V49" s="7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" s="7">
         <f t="shared" si="14"/>
@@ -17981,7 +18178,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO49" s="7"/>
+      <c r="AO49" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP49" s="7"/>
       <c r="AQ49" s="7"/>
       <c r="AR49" s="7"/>
@@ -18001,6 +18201,7 @@
       <c r="BF49" s="7"/>
       <c r="BG49" s="7"/>
       <c r="BH49" s="7"/>
+      <c r="BI49" s="7"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="7"/>
@@ -18013,11 +18214,11 @@
       <c r="D50" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>26</v>
+      <c r="E50" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>26</v>
@@ -18059,7 +18260,7 @@
       </c>
       <c r="S50" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="7">
         <f t="shared" si="10"/>
@@ -18145,7 +18346,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO50" s="7"/>
+      <c r="AO50" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP50" s="7"/>
       <c r="AQ50" s="7"/>
       <c r="AR50" s="7"/>
@@ -18165,6 +18369,7 @@
       <c r="BF50" s="7"/>
       <c r="BG50" s="7"/>
       <c r="BH50" s="7"/>
+      <c r="BI50" s="7"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="7"/>
@@ -18247,19 +18452,19 @@
       </c>
       <c r="Y51" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51" s="7">
         <f t="shared" si="19"/>
@@ -18309,7 +18514,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO51" s="7"/>
+      <c r="AO51" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP51" s="7"/>
       <c r="AQ51" s="7"/>
       <c r="AR51" s="7"/>
@@ -18329,6 +18537,7 @@
       <c r="BF51" s="7"/>
       <c r="BG51" s="7"/>
       <c r="BH51" s="7"/>
+      <c r="BI51" s="7"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
@@ -18465,7 +18674,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO52" s="7"/>
+      <c r="AO52" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP52" s="7"/>
       <c r="AQ52" s="7"/>
       <c r="AR52" s="7"/>
@@ -18485,6 +18697,7 @@
       <c r="BF52" s="7"/>
       <c r="BG52" s="7"/>
       <c r="BH52" s="7"/>
+      <c r="BI52" s="7"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="7"/>
@@ -18567,7 +18780,7 @@
       </c>
       <c r="Y53" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="7">
         <f t="shared" si="16"/>
@@ -18575,7 +18788,7 @@
       </c>
       <c r="AA53" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB53" s="7">
         <f t="shared" si="18"/>
@@ -18619,17 +18832,20 @@
       </c>
       <c r="AL53" s="7">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="7">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN53" s="7">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO53" s="7"/>
+      <c r="AO53" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP53" s="7"/>
       <c r="AQ53" s="7"/>
       <c r="AR53" s="7"/>
@@ -18649,6 +18865,7 @@
       <c r="BF53" s="7"/>
       <c r="BG53" s="7"/>
       <c r="BH53" s="7"/>
+      <c r="BI53" s="7"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="7"/>
@@ -18729,11 +18946,11 @@
       </c>
       <c r="X54" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z54" s="7">
         <f t="shared" si="16"/>
@@ -18745,11 +18962,11 @@
       </c>
       <c r="AB54" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="7">
         <f t="shared" si="20"/>
@@ -18795,7 +19012,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO54" s="7"/>
+      <c r="AO54" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP54" s="7"/>
       <c r="AQ54" s="7"/>
       <c r="AR54" s="7"/>
@@ -18815,6 +19035,7 @@
       <c r="BF54" s="7"/>
       <c r="BG54" s="7"/>
       <c r="BH54" s="7"/>
+      <c r="BI54" s="7"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="7"/>
@@ -18891,11 +19112,11 @@
       </c>
       <c r="X55" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z55" s="7">
         <f t="shared" si="16"/>
@@ -18931,11 +19152,11 @@
       </c>
       <c r="AH55" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ55" s="7">
         <f t="shared" si="26"/>
@@ -18957,7 +19178,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO55" s="7"/>
+      <c r="AO55" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP55" s="7"/>
       <c r="AQ55" s="7"/>
       <c r="AR55" s="7"/>
@@ -18977,6 +19201,7 @@
       <c r="BF55" s="7"/>
       <c r="BG55" s="7"/>
       <c r="BH55" s="7"/>
+      <c r="BI55" s="7"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="7"/>
@@ -19055,7 +19280,7 @@
       </c>
       <c r="W56" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" s="7">
         <f t="shared" si="14"/>
@@ -19063,7 +19288,7 @@
       </c>
       <c r="Y56" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56" s="7">
         <f t="shared" si="16"/>
@@ -19099,11 +19324,11 @@
       </c>
       <c r="AH56" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI56" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ56" s="7">
         <f t="shared" si="26"/>
@@ -19125,7 +19350,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO56" s="7"/>
+      <c r="AO56" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP56" s="7"/>
       <c r="AQ56" s="7"/>
       <c r="AR56" s="7"/>
@@ -19145,6 +19373,7 @@
       <c r="BF56" s="7"/>
       <c r="BG56" s="7"/>
       <c r="BH56" s="7"/>
+      <c r="BI56" s="7"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="7"/>
@@ -19223,7 +19452,7 @@
       </c>
       <c r="W57" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57" s="7">
         <f t="shared" si="14"/>
@@ -19231,7 +19460,7 @@
       </c>
       <c r="Y57" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z57" s="7">
         <f t="shared" si="16"/>
@@ -19267,11 +19496,11 @@
       </c>
       <c r="AH57" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ57" s="7">
         <f t="shared" si="26"/>
@@ -19293,7 +19522,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO57" s="7"/>
+      <c r="AO57" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP57" s="7"/>
       <c r="AQ57" s="7"/>
       <c r="AR57" s="7"/>
@@ -19313,6 +19545,7 @@
       <c r="BF57" s="7"/>
       <c r="BG57" s="7"/>
       <c r="BH57" s="7"/>
+      <c r="BI57" s="7"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="7"/>
@@ -19391,7 +19624,7 @@
       </c>
       <c r="W58" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="7">
         <f t="shared" si="14"/>
@@ -19399,7 +19632,7 @@
       </c>
       <c r="Y58" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z58" s="7">
         <f t="shared" si="16"/>
@@ -19435,11 +19668,11 @@
       </c>
       <c r="AH58" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ58" s="7">
         <f t="shared" si="26"/>
@@ -19461,7 +19694,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO58" s="7"/>
+      <c r="AO58" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP58" s="7"/>
       <c r="AQ58" s="7"/>
       <c r="AR58" s="7"/>
@@ -19481,6 +19717,7 @@
       <c r="BF58" s="7"/>
       <c r="BG58" s="7"/>
       <c r="BH58" s="7"/>
+      <c r="BI58" s="7"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="7"/>
@@ -19567,11 +19804,11 @@
       </c>
       <c r="Z59" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB59" s="7">
         <f t="shared" si="18"/>
@@ -19583,11 +19820,11 @@
       </c>
       <c r="AD59" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF59" s="7">
         <f t="shared" si="22"/>
@@ -19625,7 +19862,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO59" s="7"/>
+      <c r="AO59" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP59" s="7"/>
       <c r="AQ59" s="7"/>
       <c r="AR59" s="7"/>
@@ -19645,6 +19885,7 @@
       <c r="BF59" s="7"/>
       <c r="BG59" s="7"/>
       <c r="BH59" s="7"/>
+      <c r="BI59" s="7"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="7"/>
@@ -19723,7 +19964,7 @@
       </c>
       <c r="W60" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="7">
         <f t="shared" si="14"/>
@@ -19731,7 +19972,7 @@
       </c>
       <c r="Y60" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="7">
         <f t="shared" si="16"/>
@@ -19767,11 +20008,11 @@
       </c>
       <c r="AH60" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ60" s="7">
         <f t="shared" si="26"/>
@@ -19793,7 +20034,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO60" s="7"/>
+      <c r="AO60" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP60" s="7"/>
       <c r="AQ60" s="7"/>
       <c r="AR60" s="7"/>
@@ -19813,6 +20057,7 @@
       <c r="BF60" s="7"/>
       <c r="BG60" s="7"/>
       <c r="BH60" s="7"/>
+      <c r="BI60" s="7"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="7"/>
@@ -19831,8 +20076,8 @@
       <c r="F61" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G61" s="8" t="s">
-        <v>26</v>
+      <c r="G61" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>67</v>
@@ -19841,7 +20086,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="7">
         <f t="shared" si="2"/>
@@ -19873,7 +20118,7 @@
       </c>
       <c r="S61" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="7">
         <f t="shared" si="10"/>
@@ -19905,11 +20150,11 @@
       </c>
       <c r="AA61" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61" s="7">
         <f t="shared" si="19"/>
@@ -19925,11 +20170,11 @@
       </c>
       <c r="AF61" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH61" s="7">
         <f t="shared" si="24"/>
@@ -19959,7 +20204,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO61" s="7"/>
+      <c r="AO61" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP61" s="7"/>
       <c r="AQ61" s="7"/>
       <c r="AR61" s="7"/>
@@ -19979,6 +20227,7 @@
       <c r="BF61" s="7"/>
       <c r="BG61" s="7"/>
       <c r="BH61" s="7"/>
+      <c r="BI61" s="7"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="7"/>
@@ -20061,11 +20310,11 @@
       </c>
       <c r="Y62" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA62" s="7">
         <f t="shared" si="17"/>
@@ -20105,11 +20354,11 @@
       </c>
       <c r="AJ62" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="7">
         <f t="shared" si="28"/>
@@ -20123,7 +20372,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO62" s="7"/>
+      <c r="AO62" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP62" s="7"/>
       <c r="AQ62" s="7"/>
       <c r="AR62" s="7"/>
@@ -20143,6 +20395,7 @@
       <c r="BF62" s="7"/>
       <c r="BG62" s="7"/>
       <c r="BH62" s="7"/>
+      <c r="BI62" s="7"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="7"/>
@@ -20239,11 +20492,11 @@
       </c>
       <c r="AB63" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="7">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="7">
         <f t="shared" si="20"/>
@@ -20263,11 +20516,11 @@
       </c>
       <c r="AH63" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI63" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ63" s="7">
         <f t="shared" si="26"/>
@@ -20289,7 +20542,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO63" s="7"/>
+      <c r="AO63" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP63" s="7"/>
       <c r="AQ63" s="7"/>
       <c r="AR63" s="7"/>
@@ -20309,6 +20565,7 @@
       <c r="BF63" s="7"/>
       <c r="BG63" s="7"/>
       <c r="BH63" s="7"/>
+      <c r="BI63" s="7"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="7"/>
@@ -20385,11 +20642,11 @@
       </c>
       <c r="X64" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z64" s="7">
         <f t="shared" si="16"/>
@@ -20425,11 +20682,11 @@
       </c>
       <c r="AH64" s="7">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ64" s="7">
         <f t="shared" si="26"/>
@@ -20451,7 +20708,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO64" s="7"/>
+      <c r="AO64" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP64" s="7"/>
       <c r="AQ64" s="7"/>
       <c r="AR64" s="7"/>
@@ -20471,6 +20731,7 @@
       <c r="BF64" s="7"/>
       <c r="BG64" s="7"/>
       <c r="BH64" s="7"/>
+      <c r="BI64" s="7"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="7"/>
@@ -20529,11 +20790,11 @@
       </c>
       <c r="S65" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="7">
         <f t="shared" si="11"/>
@@ -20615,7 +20876,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO65" s="7"/>
+      <c r="AO65" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP65" s="7"/>
       <c r="AQ65" s="7"/>
       <c r="AR65" s="7"/>
@@ -20635,6 +20899,7 @@
       <c r="BF65" s="7"/>
       <c r="BG65" s="7"/>
       <c r="BH65" s="7"/>
+      <c r="BI65" s="7"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="7"/>
@@ -20693,11 +20958,11 @@
       </c>
       <c r="S66" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="7">
         <f t="shared" si="11"/>
@@ -20749,11 +21014,11 @@
       </c>
       <c r="AG66" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH66" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI66" s="7">
         <f t="shared" si="25"/>
@@ -20779,7 +21044,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO66" s="7"/>
+      <c r="AO66" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP66" s="7"/>
       <c r="AQ66" s="7"/>
       <c r="AR66" s="7"/>
@@ -20799,6 +21067,7 @@
       <c r="BF66" s="7"/>
       <c r="BG66" s="7"/>
       <c r="BH66" s="7"/>
+      <c r="BI66" s="7"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="7"/>
@@ -20814,8 +21083,8 @@
       <c r="E67" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>26</v>
+      <c r="F67" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>66</v>
@@ -20825,7 +21094,7 @@
       <c r="J67" s="7"/>
       <c r="K67" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="7">
         <f t="shared" si="2"/>
@@ -20857,7 +21126,7 @@
       </c>
       <c r="S67" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" s="7">
         <f t="shared" si="10"/>
@@ -20885,11 +21154,11 @@
       </c>
       <c r="Z67" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB67" s="7">
         <f t="shared" si="18"/>
@@ -20905,11 +21174,11 @@
       </c>
       <c r="AE67" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG67" s="7">
         <f t="shared" si="23"/>
@@ -20943,7 +21212,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO67" s="7"/>
+      <c r="AO67" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP67" s="7"/>
       <c r="AQ67" s="7"/>
       <c r="AR67" s="7"/>
@@ -20963,6 +21235,7 @@
       <c r="BF67" s="7"/>
       <c r="BG67" s="7"/>
       <c r="BH67" s="7"/>
+      <c r="BI67" s="7"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="7"/>
@@ -21033,11 +21306,11 @@
       </c>
       <c r="V68" s="7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X68" s="7">
         <f t="shared" si="14"/>
@@ -21073,11 +21346,11 @@
       </c>
       <c r="AF68" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH68" s="7">
         <f t="shared" si="24"/>
@@ -21107,7 +21380,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO68" s="7"/>
+      <c r="AO68" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP68" s="7"/>
       <c r="AQ68" s="7"/>
       <c r="AR68" s="7"/>
@@ -21127,6 +21403,7 @@
       <c r="BF68" s="7"/>
       <c r="BG68" s="7"/>
       <c r="BH68" s="7"/>
+      <c r="BI68" s="7"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="7"/>
@@ -21265,7 +21542,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO69" s="7"/>
+      <c r="AO69" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP69" s="7"/>
       <c r="AQ69" s="7"/>
       <c r="AR69" s="7"/>
@@ -21285,6 +21565,7 @@
       <c r="BF69" s="7"/>
       <c r="BG69" s="7"/>
       <c r="BH69" s="7"/>
+      <c r="BI69" s="7"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="7"/>
@@ -21359,27 +21640,27 @@
       </c>
       <c r="W70" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X70" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y70" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA70" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB70" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC70" s="7">
         <f t="shared" si="19"/>
@@ -21429,7 +21710,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO70" s="7"/>
+      <c r="AO70" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP70" s="7"/>
       <c r="AQ70" s="7"/>
       <c r="AR70" s="7"/>
@@ -21449,6 +21733,7 @@
       <c r="BF70" s="7"/>
       <c r="BG70" s="7"/>
       <c r="BH70" s="7"/>
+      <c r="BI70" s="7"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="7"/>
@@ -21587,7 +21872,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO71" s="7"/>
+      <c r="AO71" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP71" s="7"/>
       <c r="AQ71" s="7"/>
       <c r="AR71" s="7"/>
@@ -21607,6 +21895,7 @@
       <c r="BF71" s="7"/>
       <c r="BG71" s="7"/>
       <c r="BH71" s="7"/>
+      <c r="BI71" s="7"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="7"/>
@@ -21681,11 +21970,11 @@
       </c>
       <c r="W72" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X72" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" s="7">
         <f t="shared" si="15"/>
@@ -21697,11 +21986,11 @@
       </c>
       <c r="AA72" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72" s="7">
         <f t="shared" si="19"/>
@@ -21713,11 +22002,11 @@
       </c>
       <c r="AE72" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF72" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG72" s="7">
         <f t="shared" si="23"/>
@@ -21751,7 +22040,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO72" s="7"/>
+      <c r="AO72" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP72" s="7"/>
       <c r="AQ72" s="7"/>
       <c r="AR72" s="7"/>
@@ -21771,6 +22063,7 @@
       <c r="BF72" s="7"/>
       <c r="BG72" s="7"/>
       <c r="BH72" s="7"/>
+      <c r="BI72" s="7"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="7"/>
@@ -21859,7 +22152,7 @@
       </c>
       <c r="Z73" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA73" s="7">
         <f t="shared" si="17"/>
@@ -21867,7 +22160,7 @@
       </c>
       <c r="AB73" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73" s="7">
         <f t="shared" si="19"/>
@@ -21917,7 +22210,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO73" s="7"/>
+      <c r="AO73" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP73" s="7"/>
       <c r="AQ73" s="7"/>
       <c r="AR73" s="7"/>
@@ -21937,6 +22233,7 @@
       <c r="BF73" s="7"/>
       <c r="BG73" s="7"/>
       <c r="BH73" s="7"/>
+      <c r="BI73" s="7"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="7"/>
@@ -22047,11 +22344,11 @@
       </c>
       <c r="AF74" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG74" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH74" s="7">
         <f t="shared" si="24"/>
@@ -22081,7 +22378,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO74" s="7"/>
+      <c r="AO74" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP74" s="7"/>
       <c r="AQ74" s="7"/>
       <c r="AR74" s="7"/>
@@ -22101,6 +22401,7 @@
       <c r="BF74" s="7"/>
       <c r="BG74" s="7"/>
       <c r="BH74" s="7"/>
+      <c r="BI74" s="7"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="7"/>
@@ -22175,11 +22476,11 @@
       </c>
       <c r="W75" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X75" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75" s="7">
         <f t="shared" si="15"/>
@@ -22245,7 +22546,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO75" s="7"/>
+      <c r="AO75" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP75" s="7"/>
       <c r="AQ75" s="7"/>
       <c r="AR75" s="7"/>
@@ -22265,6 +22569,7 @@
       <c r="BF75" s="7"/>
       <c r="BG75" s="7"/>
       <c r="BH75" s="7"/>
+      <c r="BI75" s="7"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="7"/>
@@ -22405,7 +22710,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO76" s="7"/>
+      <c r="AO76" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP76" s="7"/>
       <c r="AQ76" s="7"/>
       <c r="AR76" s="7"/>
@@ -22425,6 +22733,7 @@
       <c r="BF76" s="7"/>
       <c r="BG76" s="7"/>
       <c r="BH76" s="7"/>
+      <c r="BI76" s="7"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="7"/>
@@ -22509,11 +22818,11 @@
       </c>
       <c r="Y77" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z77" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA77" s="7">
         <f t="shared" si="17"/>
@@ -22537,11 +22846,11 @@
       </c>
       <c r="AF77" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG77" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH77" s="7">
         <f t="shared" si="24"/>
@@ -22571,7 +22880,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO77" s="7"/>
+      <c r="AO77" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP77" s="7"/>
       <c r="AQ77" s="7"/>
       <c r="AR77" s="7"/>
@@ -22591,6 +22903,7 @@
       <c r="BF77" s="7"/>
       <c r="BG77" s="7"/>
       <c r="BH77" s="7"/>
+      <c r="BI77" s="7"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="7"/>
@@ -22729,7 +23042,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO78" s="7"/>
+      <c r="AO78" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP78" s="7"/>
       <c r="AQ78" s="7"/>
       <c r="AR78" s="7"/>
@@ -22749,6 +23065,7 @@
       <c r="BF78" s="7"/>
       <c r="BG78" s="7"/>
       <c r="BH78" s="7"/>
+      <c r="BI78" s="7"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="7"/>
@@ -22831,11 +23148,11 @@
       </c>
       <c r="Y79" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA79" s="7">
         <f t="shared" si="17"/>
@@ -22859,11 +23176,11 @@
       </c>
       <c r="AF79" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG79" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH79" s="7">
         <f t="shared" si="24"/>
@@ -22893,7 +23210,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO79" s="7"/>
+      <c r="AO79" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP79" s="7"/>
       <c r="AQ79" s="7"/>
       <c r="AR79" s="7"/>
@@ -22913,6 +23233,7 @@
       <c r="BF79" s="7"/>
       <c r="BG79" s="7"/>
       <c r="BH79" s="7"/>
+      <c r="BI79" s="7"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="7"/>
@@ -22975,11 +23296,11 @@
       </c>
       <c r="T80" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80" s="7">
         <f t="shared" si="12"/>
@@ -23003,11 +23324,11 @@
       </c>
       <c r="AA80" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB80" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80" s="7">
         <f t="shared" si="19"/>
@@ -23057,7 +23378,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO80" s="7"/>
+      <c r="AO80" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP80" s="7"/>
       <c r="AQ80" s="7"/>
       <c r="AR80" s="7"/>
@@ -23077,6 +23401,7 @@
       <c r="BF80" s="7"/>
       <c r="BG80" s="7"/>
       <c r="BH80" s="7"/>
+      <c r="BI80" s="7"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="7"/>
@@ -23153,19 +23478,19 @@
       </c>
       <c r="W81" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X81" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y81" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA81" s="7">
         <f t="shared" si="17"/>
@@ -23223,7 +23548,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO81" s="7"/>
+      <c r="AO81" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP81" s="7"/>
       <c r="AQ81" s="7"/>
       <c r="AR81" s="7"/>
@@ -23243,6 +23571,7 @@
       <c r="BF81" s="7"/>
       <c r="BG81" s="7"/>
       <c r="BH81" s="7"/>
+      <c r="BI81" s="7"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="7"/>
@@ -23341,11 +23670,11 @@
       </c>
       <c r="AC82" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD82" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE82" s="7">
         <f t="shared" si="21"/>
@@ -23387,7 +23716,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO82" s="7"/>
+      <c r="AO82" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
       <c r="AR82" s="7"/>
@@ -23407,6 +23739,7 @@
       <c r="BF82" s="7"/>
       <c r="BG82" s="7"/>
       <c r="BH82" s="7"/>
+      <c r="BI82" s="7"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="7"/>
@@ -23467,11 +23800,11 @@
       </c>
       <c r="S83" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" s="7">
         <f t="shared" si="11"/>
@@ -23487,11 +23820,11 @@
       </c>
       <c r="X83" s="7">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z83" s="7">
         <f t="shared" si="16"/>
@@ -23535,11 +23868,11 @@
       </c>
       <c r="AJ83" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK83" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL83" s="7">
         <f t="shared" si="28"/>
@@ -23553,7 +23886,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO83" s="7"/>
+      <c r="AO83" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP83" s="7"/>
       <c r="AQ83" s="7"/>
       <c r="AR83" s="7"/>
@@ -23573,6 +23909,7 @@
       <c r="BF83" s="7"/>
       <c r="BG83" s="7"/>
       <c r="BH83" s="7"/>
+      <c r="BI83" s="7"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="7"/>
@@ -23649,11 +23986,11 @@
       </c>
       <c r="W84" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X84" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y84" s="7">
         <f t="shared" si="15"/>
@@ -23661,7 +23998,7 @@
       </c>
       <c r="Z84" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA84" s="7">
         <f t="shared" si="17"/>
@@ -23669,7 +24006,7 @@
       </c>
       <c r="AB84" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84" s="7">
         <f t="shared" si="19"/>
@@ -23689,11 +24026,11 @@
       </c>
       <c r="AG84" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH84" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI84" s="7">
         <f t="shared" si="25"/>
@@ -23719,7 +24056,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO84" s="7"/>
+      <c r="AO84" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
       <c r="AR84" s="7"/>
@@ -23739,6 +24079,7 @@
       <c r="BF84" s="7"/>
       <c r="BG84" s="7"/>
       <c r="BH84" s="7"/>
+      <c r="BI84" s="7"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="7"/>
@@ -23837,11 +24178,11 @@
       </c>
       <c r="AD85" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE85" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF85" s="7">
         <f t="shared" si="22"/>
@@ -23879,7 +24220,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO85" s="7"/>
+      <c r="AO85" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
       <c r="AR85" s="7"/>
@@ -23899,6 +24243,7 @@
       <c r="BF85" s="7"/>
       <c r="BG85" s="7"/>
       <c r="BH85" s="7"/>
+      <c r="BI85" s="7"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="7"/>
@@ -23973,11 +24318,11 @@
       </c>
       <c r="W86" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X86" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y86" s="7">
         <f t="shared" si="15"/>
@@ -23989,11 +24334,11 @@
       </c>
       <c r="AA86" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB86" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC86" s="7">
         <f t="shared" si="19"/>
@@ -24037,13 +24382,16 @@
       </c>
       <c r="AM86" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN86" s="7">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AO86" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="AO86" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP86" s="7"/>
       <c r="AQ86" s="7"/>
       <c r="AR86" s="7"/>
@@ -24063,6 +24411,7 @@
       <c r="BF86" s="7"/>
       <c r="BG86" s="7"/>
       <c r="BH86" s="7"/>
+      <c r="BI86" s="7"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="7"/>
@@ -24165,11 +24514,11 @@
       </c>
       <c r="AD87" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE87" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF87" s="7">
         <f t="shared" si="22"/>
@@ -24207,7 +24556,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO87" s="7"/>
+      <c r="AO87" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP87" s="7"/>
       <c r="AQ87" s="7"/>
       <c r="AR87" s="7"/>
@@ -24227,6 +24579,7 @@
       <c r="BF87" s="7"/>
       <c r="BG87" s="7"/>
       <c r="BH87" s="7"/>
+      <c r="BI87" s="7"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="7"/>
@@ -24301,11 +24654,11 @@
       </c>
       <c r="W88" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X88" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y88" s="7">
         <f t="shared" si="15"/>
@@ -24317,11 +24670,11 @@
       </c>
       <c r="AA88" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB88" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC88" s="7">
         <f t="shared" si="19"/>
@@ -24365,13 +24718,16 @@
       </c>
       <c r="AM88" s="7">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN88" s="7">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AO88" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="AO88" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP88" s="7"/>
       <c r="AQ88" s="7"/>
       <c r="AR88" s="7"/>
@@ -24391,6 +24747,7 @@
       <c r="BF88" s="7"/>
       <c r="BG88" s="7"/>
       <c r="BH88" s="7"/>
+      <c r="BI88" s="7"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="7"/>
@@ -24463,11 +24820,11 @@
       </c>
       <c r="W89" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X89" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y89" s="7">
         <f t="shared" si="15"/>
@@ -24533,7 +24890,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO89" s="7"/>
+      <c r="AO89" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP89" s="7"/>
       <c r="AQ89" s="7"/>
       <c r="AR89" s="7"/>
@@ -24553,6 +24913,7 @@
       <c r="BF89" s="7"/>
       <c r="BG89" s="7"/>
       <c r="BH89" s="7"/>
+      <c r="BI89" s="7"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="7"/>
@@ -24643,11 +25004,11 @@
       </c>
       <c r="AA90" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB90" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90" s="7">
         <f t="shared" si="19"/>
@@ -24667,11 +25028,11 @@
       </c>
       <c r="AG90" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH90" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI90" s="7">
         <f t="shared" si="25"/>
@@ -24697,7 +25058,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO90" s="7"/>
+      <c r="AO90" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP90" s="7"/>
       <c r="AQ90" s="7"/>
       <c r="AR90" s="7"/>
@@ -24717,6 +25081,7 @@
       <c r="BF90" s="7"/>
       <c r="BG90" s="7"/>
       <c r="BH90" s="7"/>
+      <c r="BI90" s="7"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="7"/>
@@ -24799,11 +25164,11 @@
       </c>
       <c r="Y91" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA91" s="7">
         <f t="shared" si="17"/>
@@ -24861,7 +25226,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO91" s="7"/>
+      <c r="AO91" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP91" s="7"/>
       <c r="AQ91" s="7"/>
       <c r="AR91" s="7"/>
@@ -24881,6 +25249,7 @@
       <c r="BF91" s="7"/>
       <c r="BG91" s="7"/>
       <c r="BH91" s="7"/>
+      <c r="BI91" s="7"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="7"/>
@@ -25025,7 +25394,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO92" s="7"/>
+      <c r="AO92" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP92" s="7"/>
       <c r="AQ92" s="7"/>
       <c r="AR92" s="7"/>
@@ -25045,6 +25417,7 @@
       <c r="BF92" s="7"/>
       <c r="BG92" s="7"/>
       <c r="BH92" s="7"/>
+      <c r="BI92" s="7"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="7"/>
@@ -25119,11 +25492,11 @@
       </c>
       <c r="V93" s="7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W93" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X93" s="7">
         <f t="shared" si="14"/>
@@ -25135,7 +25508,7 @@
       </c>
       <c r="Z93" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA93" s="7">
         <f t="shared" si="17"/>
@@ -25143,7 +25516,7 @@
       </c>
       <c r="AB93" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC93" s="7">
         <f t="shared" si="19"/>
@@ -25193,7 +25566,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO93" s="7"/>
+      <c r="AO93" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP93" s="7"/>
       <c r="AQ93" s="7"/>
       <c r="AR93" s="7"/>
@@ -25213,6 +25589,7 @@
       <c r="BF93" s="7"/>
       <c r="BG93" s="7"/>
       <c r="BH93" s="7"/>
+      <c r="BI93" s="7"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="7"/>
@@ -25289,11 +25666,11 @@
       </c>
       <c r="W94" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X94" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y94" s="7">
         <f t="shared" si="15"/>
@@ -25305,11 +25682,11 @@
       </c>
       <c r="AA94" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB94" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94" s="7">
         <f t="shared" si="19"/>
@@ -25359,7 +25736,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO94" s="7"/>
+      <c r="AO94" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP94" s="7"/>
       <c r="AQ94" s="7"/>
       <c r="AR94" s="7"/>
@@ -25379,6 +25759,7 @@
       <c r="BF94" s="7"/>
       <c r="BG94" s="7"/>
       <c r="BH94" s="7"/>
+      <c r="BI94" s="7"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="7"/>
@@ -25439,11 +25820,11 @@
       </c>
       <c r="T95" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V95" s="7">
         <f t="shared" si="12"/>
@@ -25521,7 +25902,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO95" s="7"/>
+      <c r="AO95" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP95" s="7"/>
       <c r="AQ95" s="7"/>
       <c r="AR95" s="7"/>
@@ -25541,6 +25925,7 @@
       <c r="BF95" s="7"/>
       <c r="BG95" s="7"/>
       <c r="BH95" s="7"/>
+      <c r="BI95" s="7"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="7"/>
@@ -25639,11 +26024,11 @@
       </c>
       <c r="AC96" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD96" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE96" s="7">
         <f t="shared" si="21"/>
@@ -25667,11 +26052,11 @@
       </c>
       <c r="AJ96" s="7">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK96" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL96" s="7">
         <f t="shared" si="28"/>
@@ -25685,7 +26070,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO96" s="7"/>
+      <c r="AO96" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP96" s="7"/>
       <c r="AQ96" s="7"/>
       <c r="AR96" s="7"/>
@@ -25705,6 +26093,7 @@
       <c r="BF96" s="7"/>
       <c r="BG96" s="7"/>
       <c r="BH96" s="7"/>
+      <c r="BI96" s="7"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="7"/>
@@ -25767,11 +26156,11 @@
       </c>
       <c r="T97" s="7">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U97" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V97" s="7">
         <f t="shared" si="12"/>
@@ -25795,11 +26184,11 @@
       </c>
       <c r="AA97" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB97" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC97" s="7">
         <f t="shared" si="19"/>
@@ -25849,7 +26238,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO97" s="7"/>
+      <c r="AO97" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP97" s="7"/>
       <c r="AQ97" s="7"/>
       <c r="AR97" s="7"/>
@@ -25869,6 +26261,7 @@
       <c r="BF97" s="7"/>
       <c r="BG97" s="7"/>
       <c r="BH97" s="7"/>
+      <c r="BI97" s="7"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="7"/>
@@ -26007,7 +26400,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO98" s="7"/>
+      <c r="AO98" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP98" s="7"/>
       <c r="AQ98" s="7"/>
       <c r="AR98" s="7"/>
@@ -26027,6 +26423,7 @@
       <c r="BF98" s="7"/>
       <c r="BG98" s="7"/>
       <c r="BH98" s="7"/>
+      <c r="BI98" s="7"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="7"/>
@@ -26095,11 +26492,11 @@
       </c>
       <c r="V99" s="7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W99" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X99" s="7">
         <f t="shared" si="14"/>
@@ -26115,11 +26512,11 @@
       </c>
       <c r="AA99" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB99" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC99" s="7">
         <f t="shared" si="19"/>
@@ -26169,7 +26566,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO99" s="7"/>
+      <c r="AO99" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP99" s="7"/>
       <c r="AQ99" s="7"/>
       <c r="AR99" s="7"/>
@@ -26189,6 +26589,7 @@
       <c r="BF99" s="7"/>
       <c r="BG99" s="7"/>
       <c r="BH99" s="7"/>
+      <c r="BI99" s="7"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="7"/>
@@ -26331,7 +26732,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO100" s="7"/>
+      <c r="AO100" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP100" s="7"/>
       <c r="AQ100" s="7"/>
       <c r="AR100" s="7"/>
@@ -26351,6 +26755,7 @@
       <c r="BF100" s="7"/>
       <c r="BG100" s="7"/>
       <c r="BH100" s="7"/>
+      <c r="BI100" s="7"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="7"/>
@@ -26433,11 +26838,11 @@
       </c>
       <c r="Y101" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z101" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA101" s="7">
         <f t="shared" si="17"/>
@@ -26495,7 +26900,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO101" s="7"/>
+      <c r="AO101" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP101" s="7"/>
       <c r="AQ101" s="7"/>
       <c r="AR101" s="7"/>
@@ -26515,6 +26923,7 @@
       <c r="BF101" s="7"/>
       <c r="BG101" s="7"/>
       <c r="BH101" s="7"/>
+      <c r="BI101" s="7"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="7"/>
@@ -26601,11 +27010,11 @@
       </c>
       <c r="Z102" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB102" s="7">
         <f t="shared" si="18"/>
@@ -26649,17 +27058,20 @@
       </c>
       <c r="AL102" s="7">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM102" s="7">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN102" s="7">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO102" s="7"/>
+      <c r="AO102" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP102" s="7"/>
       <c r="AQ102" s="7"/>
       <c r="AR102" s="7"/>
@@ -26679,6 +27091,7 @@
       <c r="BF102" s="7"/>
       <c r="BG102" s="7"/>
       <c r="BH102" s="7"/>
+      <c r="BI102" s="7"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="7"/>
@@ -26697,8 +27110,8 @@
       <c r="F103" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G103" s="8" t="s">
-        <v>26</v>
+      <c r="G103" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>91</v>
@@ -26707,7 +27120,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="7">
         <f t="shared" si="2"/>
@@ -26739,7 +27152,7 @@
       </c>
       <c r="S103" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T103" s="7">
         <f t="shared" si="10"/>
@@ -26755,11 +27168,11 @@
       </c>
       <c r="W103" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X103" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y103" s="7">
         <f t="shared" si="15"/>
@@ -26771,11 +27184,11 @@
       </c>
       <c r="AA103" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB103" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC103" s="7">
         <f t="shared" si="19"/>
@@ -26825,7 +27238,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO103" s="7"/>
+      <c r="AO103" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP103" s="7"/>
       <c r="AQ103" s="7"/>
       <c r="AR103" s="7"/>
@@ -26845,6 +27261,7 @@
       <c r="BF103" s="7"/>
       <c r="BG103" s="7"/>
       <c r="BH103" s="7"/>
+      <c r="BI103" s="7"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="7"/>
@@ -26933,11 +27350,11 @@
       </c>
       <c r="Z104" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA104" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB104" s="7">
         <f t="shared" si="18"/>
@@ -26981,17 +27398,20 @@
       </c>
       <c r="AL104" s="7">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104" s="7">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN104" s="7">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO104" s="7"/>
+      <c r="AO104" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP104" s="7"/>
       <c r="AQ104" s="7"/>
       <c r="AR104" s="7"/>
@@ -27011,6 +27431,7 @@
       <c r="BF104" s="7"/>
       <c r="BG104" s="7"/>
       <c r="BH104" s="7"/>
+      <c r="BI104" s="7"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="7"/>
@@ -27109,11 +27530,11 @@
       </c>
       <c r="AC105" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD105" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE105" s="7">
         <f t="shared" si="21"/>
@@ -27145,17 +27566,20 @@
       </c>
       <c r="AL105" s="7">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM105" s="7">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN105" s="7">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO105" s="7"/>
+      <c r="AO105" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP105" s="7"/>
       <c r="AQ105" s="7"/>
       <c r="AR105" s="7"/>
@@ -27175,6 +27599,7 @@
       <c r="BF105" s="7"/>
       <c r="BG105" s="7"/>
       <c r="BH105" s="7"/>
+      <c r="BI105" s="7"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="7"/>
@@ -27249,11 +27674,11 @@
       </c>
       <c r="W106" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X106" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y106" s="7">
         <f t="shared" si="15"/>
@@ -27265,11 +27690,11 @@
       </c>
       <c r="AA106" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB106" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC106" s="7">
         <f t="shared" si="19"/>
@@ -27319,7 +27744,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO106" s="7"/>
+      <c r="AO106" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP106" s="7"/>
       <c r="AQ106" s="7"/>
       <c r="AR106" s="7"/>
@@ -27339,6 +27767,7 @@
       <c r="BF106" s="7"/>
       <c r="BG106" s="7"/>
       <c r="BH106" s="7"/>
+      <c r="BI106" s="7"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="7"/>
@@ -27437,11 +27866,11 @@
       </c>
       <c r="AC107" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD107" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE107" s="7">
         <f t="shared" si="21"/>
@@ -27483,7 +27912,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO107" s="7"/>
+      <c r="AO107" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP107" s="7"/>
       <c r="AQ107" s="7"/>
       <c r="AR107" s="7"/>
@@ -27503,6 +27935,7 @@
       <c r="BF107" s="7"/>
       <c r="BG107" s="7"/>
       <c r="BH107" s="7"/>
+      <c r="BI107" s="7"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="7"/>
@@ -27575,11 +28008,11 @@
       </c>
       <c r="V108" s="7">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W108" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X108" s="7">
         <f t="shared" si="14"/>
@@ -27603,11 +28036,11 @@
       </c>
       <c r="AC108" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD108" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE108" s="7">
         <f t="shared" si="21"/>
@@ -27649,7 +28082,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO108" s="7"/>
+      <c r="AO108" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP108" s="7"/>
       <c r="AQ108" s="7"/>
       <c r="AR108" s="7"/>
@@ -27669,6 +28105,7 @@
       <c r="BF108" s="7"/>
       <c r="BG108" s="7"/>
       <c r="BH108" s="7"/>
+      <c r="BI108" s="7"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="7"/>
@@ -27767,11 +28204,11 @@
       </c>
       <c r="AC109" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD109" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE109" s="7">
         <f t="shared" si="21"/>
@@ -27813,7 +28250,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO109" s="7"/>
+      <c r="AO109" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP109" s="7"/>
       <c r="AQ109" s="7"/>
       <c r="AR109" s="7"/>
@@ -27833,6 +28273,7 @@
       <c r="BF109" s="7"/>
       <c r="BG109" s="7"/>
       <c r="BH109" s="7"/>
+      <c r="BI109" s="7"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="7"/>
@@ -27909,11 +28350,11 @@
       </c>
       <c r="W110" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X110" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y110" s="7">
         <f t="shared" si="15"/>
@@ -27925,11 +28366,11 @@
       </c>
       <c r="AA110" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB110" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC110" s="7">
         <f t="shared" si="19"/>
@@ -27979,7 +28420,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO110" s="7"/>
+      <c r="AO110" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP110" s="7"/>
       <c r="AQ110" s="7"/>
       <c r="AR110" s="7"/>
@@ -27999,6 +28443,7 @@
       <c r="BF110" s="7"/>
       <c r="BG110" s="7"/>
       <c r="BH110" s="7"/>
+      <c r="BI110" s="7"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="7"/>
@@ -28075,11 +28520,11 @@
       </c>
       <c r="W111" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X111" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y111" s="7">
         <f t="shared" si="15"/>
@@ -28091,11 +28536,11 @@
       </c>
       <c r="AA111" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB111" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC111" s="7">
         <f t="shared" si="19"/>
@@ -28107,11 +28552,11 @@
       </c>
       <c r="AE111" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF111" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG111" s="7">
         <f t="shared" si="23"/>
@@ -28145,7 +28590,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO111" s="7"/>
+      <c r="AO111" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP111" s="7"/>
       <c r="AQ111" s="7"/>
       <c r="AR111" s="7"/>
@@ -28165,6 +28613,7 @@
       <c r="BF111" s="7"/>
       <c r="BG111" s="7"/>
       <c r="BH111" s="7"/>
+      <c r="BI111" s="7"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="7"/>
@@ -28255,11 +28704,11 @@
       </c>
       <c r="AA112" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB112" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC112" s="7">
         <f t="shared" si="19"/>
@@ -28271,11 +28720,11 @@
       </c>
       <c r="AE112" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF112" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG112" s="7">
         <f t="shared" si="23"/>
@@ -28287,11 +28736,11 @@
       </c>
       <c r="AI112" s="7">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ112" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK112" s="7">
         <f t="shared" si="27"/>
@@ -28309,7 +28758,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO112" s="7"/>
+      <c r="AO112" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP112" s="7"/>
       <c r="AQ112" s="7"/>
       <c r="AR112" s="7"/>
@@ -28329,6 +28781,7 @@
       <c r="BF112" s="7"/>
       <c r="BG112" s="7"/>
       <c r="BH112" s="7"/>
+      <c r="BI112" s="7"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="7"/>
@@ -28429,11 +28882,11 @@
       </c>
       <c r="AC113" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD113" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE113" s="7">
         <f t="shared" si="21"/>
@@ -28475,7 +28928,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO113" s="7"/>
+      <c r="AO113" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP113" s="7"/>
       <c r="AQ113" s="7"/>
       <c r="AR113" s="7"/>
@@ -28495,6 +28951,7 @@
       <c r="BF113" s="7"/>
       <c r="BG113" s="7"/>
       <c r="BH113" s="7"/>
+      <c r="BI113" s="7"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="7"/>
@@ -28587,11 +29044,11 @@
       </c>
       <c r="AA114" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB114" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC114" s="7">
         <f t="shared" si="19"/>
@@ -28619,11 +29076,11 @@
       </c>
       <c r="AI114" s="7">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ114" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK114" s="7">
         <f t="shared" si="27"/>
@@ -28641,7 +29098,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO114" s="7"/>
+      <c r="AO114" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP114" s="7"/>
       <c r="AQ114" s="7"/>
       <c r="AR114" s="7"/>
@@ -28661,6 +29121,7 @@
       <c r="BF114" s="7"/>
       <c r="BG114" s="7"/>
       <c r="BH114" s="7"/>
+      <c r="BI114" s="7"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="7"/>
@@ -28759,11 +29220,11 @@
       </c>
       <c r="AD115" s="7">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE115" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF115" s="7">
         <f t="shared" si="22"/>
@@ -28801,7 +29262,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO115" s="7"/>
+      <c r="AO115" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP115" s="7"/>
       <c r="AQ115" s="7"/>
       <c r="AR115" s="7"/>
@@ -28821,6 +29285,7 @@
       <c r="BF115" s="7"/>
       <c r="BG115" s="7"/>
       <c r="BH115" s="7"/>
+      <c r="BI115" s="7"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="7"/>
@@ -28836,8 +29301,8 @@
       <c r="E116" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F116" s="8" t="s">
-        <v>26</v>
+      <c r="F116" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>67</v>
@@ -28849,7 +29314,7 @@
       <c r="J116" s="7"/>
       <c r="K116" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" s="7">
         <f t="shared" si="2"/>
@@ -28885,7 +29350,7 @@
       </c>
       <c r="T116" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U116" s="7">
         <f t="shared" si="11"/>
@@ -28937,11 +29402,11 @@
       </c>
       <c r="AG116" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH116" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI116" s="7">
         <f t="shared" si="25"/>
@@ -28967,7 +29432,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO116" s="7"/>
+      <c r="AO116" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP116" s="7"/>
       <c r="AQ116" s="7"/>
       <c r="AR116" s="7"/>
@@ -28987,6 +29455,7 @@
       <c r="BF116" s="7"/>
       <c r="BG116" s="7"/>
       <c r="BH116" s="7"/>
+      <c r="BI116" s="7"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="7"/>
@@ -29093,19 +29562,19 @@
       </c>
       <c r="AE117" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF117" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG117" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH117" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI117" s="7">
         <f t="shared" si="25"/>
@@ -29131,7 +29600,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO117" s="7"/>
+      <c r="AO117" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP117" s="7"/>
       <c r="AQ117" s="7"/>
       <c r="AR117" s="7"/>
@@ -29151,6 +29623,7 @@
       <c r="BF117" s="7"/>
       <c r="BG117" s="7"/>
       <c r="BH117" s="7"/>
+      <c r="BI117" s="7"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="7"/>
@@ -29211,11 +29684,11 @@
       </c>
       <c r="S118" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T118" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U118" s="7">
         <f t="shared" si="11"/>
@@ -29227,11 +29700,11 @@
       </c>
       <c r="W118" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X118" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y118" s="7">
         <f t="shared" si="15"/>
@@ -29297,7 +29770,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO118" s="7"/>
+      <c r="AO118" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP118" s="7"/>
       <c r="AQ118" s="7"/>
       <c r="AR118" s="7"/>
@@ -29317,6 +29793,7 @@
       <c r="BF118" s="7"/>
       <c r="BG118" s="7"/>
       <c r="BH118" s="7"/>
+      <c r="BI118" s="7"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="7"/>
@@ -29455,7 +29932,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO119" s="7"/>
+      <c r="AO119" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP119" s="7"/>
       <c r="AQ119" s="7"/>
       <c r="AR119" s="7"/>
@@ -29475,6 +29955,7 @@
       <c r="BF119" s="7"/>
       <c r="BG119" s="7"/>
       <c r="BH119" s="7"/>
+      <c r="BI119" s="7"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="7"/>
@@ -29559,11 +30040,11 @@
       </c>
       <c r="Y120" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z120" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA120" s="7">
         <f t="shared" si="17"/>
@@ -29587,11 +30068,11 @@
       </c>
       <c r="AF120" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG120" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH120" s="7">
         <f t="shared" si="24"/>
@@ -29621,7 +30102,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO120" s="7"/>
+      <c r="AO120" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP120" s="7"/>
       <c r="AQ120" s="7"/>
       <c r="AR120" s="7"/>
@@ -29641,6 +30125,7 @@
       <c r="BF120" s="7"/>
       <c r="BG120" s="7"/>
       <c r="BH120" s="7"/>
+      <c r="BI120" s="7"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="7"/>
@@ -29723,11 +30208,11 @@
       </c>
       <c r="Y121" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z121" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA121" s="7">
         <f t="shared" si="17"/>
@@ -29751,11 +30236,11 @@
       </c>
       <c r="AF121" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG121" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH121" s="7">
         <f t="shared" si="24"/>
@@ -29785,7 +30270,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO121" s="7"/>
+      <c r="AO121" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP121" s="7"/>
       <c r="AQ121" s="7"/>
       <c r="AR121" s="7"/>
@@ -29805,6 +30293,7 @@
       <c r="BF121" s="7"/>
       <c r="BG121" s="7"/>
       <c r="BH121" s="7"/>
+      <c r="BI121" s="7"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="7"/>
@@ -29879,11 +30368,11 @@
       </c>
       <c r="W122" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X122" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y122" s="7">
         <f t="shared" si="15"/>
@@ -29911,11 +30400,11 @@
       </c>
       <c r="AE122" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF122" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG122" s="7">
         <f t="shared" si="23"/>
@@ -29949,7 +30438,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO122" s="7"/>
+      <c r="AO122" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP122" s="7"/>
       <c r="AQ122" s="7"/>
       <c r="AR122" s="7"/>
@@ -29969,6 +30461,7 @@
       <c r="BF122" s="7"/>
       <c r="BG122" s="7"/>
       <c r="BH122" s="7"/>
+      <c r="BI122" s="7"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="7"/>
@@ -30043,19 +30536,19 @@
       </c>
       <c r="W123" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X123" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y123" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z123" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA123" s="7">
         <f t="shared" si="17"/>
@@ -30075,11 +30568,11 @@
       </c>
       <c r="AE123" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF123" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG123" s="7">
         <f t="shared" si="23"/>
@@ -30113,7 +30606,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO123" s="7"/>
+      <c r="AO123" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP123" s="7"/>
       <c r="AQ123" s="7"/>
       <c r="AR123" s="7"/>
@@ -30133,6 +30629,7 @@
       <c r="BF123" s="7"/>
       <c r="BG123" s="7"/>
       <c r="BH123" s="7"/>
+      <c r="BI123" s="7"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="7"/>
@@ -30271,7 +30768,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO124" s="7"/>
+      <c r="AO124" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP124" s="7"/>
       <c r="AQ124" s="7"/>
       <c r="AR124" s="7"/>
@@ -30291,6 +30791,7 @@
       <c r="BF124" s="7"/>
       <c r="BG124" s="7"/>
       <c r="BH124" s="7"/>
+      <c r="BI124" s="7"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="7"/>
@@ -30351,11 +30852,11 @@
       </c>
       <c r="S125" s="7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T125" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U125" s="7">
         <f t="shared" si="11"/>
@@ -30367,11 +30868,11 @@
       </c>
       <c r="W125" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X125" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y125" s="7">
         <f t="shared" si="15"/>
@@ -30437,7 +30938,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO125" s="7"/>
+      <c r="AO125" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP125" s="7"/>
       <c r="AQ125" s="7"/>
       <c r="AR125" s="7"/>
@@ -30457,6 +30961,7 @@
       <c r="BF125" s="7"/>
       <c r="BG125" s="7"/>
       <c r="BH125" s="7"/>
+      <c r="BI125" s="7"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="7"/>
@@ -30533,19 +31038,19 @@
       </c>
       <c r="W126" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X126" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y126" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z126" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA126" s="7">
         <f t="shared" si="17"/>
@@ -30603,7 +31108,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO126" s="7"/>
+      <c r="AO126" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP126" s="7"/>
       <c r="AQ126" s="7"/>
       <c r="AR126" s="7"/>
@@ -30623,6 +31131,7 @@
       <c r="BF126" s="7"/>
       <c r="BG126" s="7"/>
       <c r="BH126" s="7"/>
+      <c r="BI126" s="7"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="7"/>
@@ -30697,11 +31206,11 @@
       </c>
       <c r="W127" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X127" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y127" s="7">
         <f t="shared" si="15"/>
@@ -30713,11 +31222,11 @@
       </c>
       <c r="AA127" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB127" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC127" s="7">
         <f t="shared" si="19"/>
@@ -30767,7 +31276,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO127" s="7"/>
+      <c r="AO127" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP127" s="7"/>
       <c r="AQ127" s="7"/>
       <c r="AR127" s="7"/>
@@ -30787,6 +31299,7 @@
       <c r="BF127" s="7"/>
       <c r="BG127" s="7"/>
       <c r="BH127" s="7"/>
+      <c r="BI127" s="7"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="7"/>
@@ -30869,7 +31382,7 @@
       </c>
       <c r="Y128" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z128" s="7">
         <f t="shared" si="16"/>
@@ -30877,7 +31390,7 @@
       </c>
       <c r="AA128" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB128" s="7">
         <f t="shared" si="18"/>
@@ -30931,7 +31444,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO128" s="7"/>
+      <c r="AO128" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP128" s="7"/>
       <c r="AQ128" s="7"/>
       <c r="AR128" s="7"/>
@@ -30951,6 +31467,7 @@
       <c r="BF128" s="7"/>
       <c r="BG128" s="7"/>
       <c r="BH128" s="7"/>
+      <c r="BI128" s="7"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="7"/>
@@ -31035,19 +31552,19 @@
       </c>
       <c r="Y129" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z129" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA129" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB129" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC129" s="7">
         <f t="shared" si="19"/>
@@ -31083,11 +31600,11 @@
       </c>
       <c r="AK129" s="7">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL129" s="7">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM129" s="7">
         <f t="shared" si="29"/>
@@ -31097,7 +31614,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO129" s="7"/>
+      <c r="AO129" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP129" s="7"/>
       <c r="AQ129" s="7"/>
       <c r="AR129" s="7"/>
@@ -31117,6 +31637,7 @@
       <c r="BF129" s="7"/>
       <c r="BG129" s="7"/>
       <c r="BH129" s="7"/>
+      <c r="BI129" s="7"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="7"/>
@@ -31205,11 +31726,11 @@
       </c>
       <c r="Z130" s="7">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA130" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB130" s="7">
         <f t="shared" si="18"/>
@@ -31233,11 +31754,11 @@
       </c>
       <c r="AG130" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH130" s="7">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI130" s="7">
         <f t="shared" si="25"/>
@@ -31249,11 +31770,11 @@
       </c>
       <c r="AK130" s="7">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL130" s="7">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM130" s="7">
         <f t="shared" si="29"/>
@@ -31263,7 +31784,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO130" s="7"/>
+      <c r="AO130" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP130" s="7"/>
       <c r="AQ130" s="7"/>
       <c r="AR130" s="7"/>
@@ -31283,6 +31807,7 @@
       <c r="BF130" s="7"/>
       <c r="BG130" s="7"/>
       <c r="BH130" s="7"/>
+      <c r="BI130" s="7"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="7"/>
@@ -31421,7 +31946,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO131" s="7"/>
+      <c r="AO131" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP131" s="7"/>
       <c r="AQ131" s="7"/>
       <c r="AR131" s="7"/>
@@ -31441,6 +31969,7 @@
       <c r="BF131" s="7"/>
       <c r="BG131" s="7"/>
       <c r="BH131" s="7"/>
+      <c r="BI131" s="7"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="7"/>
@@ -31539,11 +32068,11 @@
       </c>
       <c r="AC132" s="7">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD132" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE132" s="7">
         <f t="shared" si="21"/>
@@ -31571,11 +32100,11 @@
       </c>
       <c r="AK132" s="7">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL132" s="7">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM132" s="7">
         <f t="shared" si="29"/>
@@ -31585,7 +32114,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO132" s="7"/>
+      <c r="AO132" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP132" s="7"/>
       <c r="AQ132" s="7"/>
       <c r="AR132" s="7"/>
@@ -31605,6 +32137,7 @@
       <c r="BF132" s="7"/>
       <c r="BG132" s="7"/>
       <c r="BH132" s="7"/>
+      <c r="BI132" s="7"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="7"/>
@@ -31675,11 +32208,11 @@
       </c>
       <c r="U133" s="7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V133" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W133" s="7">
         <f t="shared" si="13"/>
@@ -31715,11 +32248,11 @@
       </c>
       <c r="AE133" s="7">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF133" s="7">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG133" s="7">
         <f t="shared" si="23"/>
@@ -31753,7 +32286,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO133" s="7"/>
+      <c r="AO133" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP133" s="7"/>
       <c r="AQ133" s="7"/>
       <c r="AR133" s="7"/>
@@ -31773,6 +32309,7 @@
       <c r="BF133" s="7"/>
       <c r="BG133" s="7"/>
       <c r="BH133" s="7"/>
+      <c r="BI133" s="7"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="7"/>
@@ -31919,7 +32456,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO134" s="7"/>
+      <c r="AO134" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP134" s="7"/>
       <c r="AQ134" s="7"/>
       <c r="AR134" s="7"/>
@@ -31939,6 +32479,7 @@
       <c r="BF134" s="7"/>
       <c r="BG134" s="7"/>
       <c r="BH134" s="7"/>
+      <c r="BI134" s="7"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="7"/>
@@ -32049,11 +32590,11 @@
       </c>
       <c r="AF135" s="7">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG135" s="7">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH135" s="7">
         <f t="shared" si="24"/>
@@ -32083,7 +32624,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO135" s="7"/>
+      <c r="AO135" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP135" s="7"/>
       <c r="AQ135" s="7"/>
       <c r="AR135" s="7"/>
@@ -32103,6 +32647,7 @@
       <c r="BF135" s="7"/>
       <c r="BG135" s="7"/>
       <c r="BH135" s="7"/>
+      <c r="BI135" s="7"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="7"/>
@@ -32199,7 +32744,7 @@
       </c>
       <c r="AB136" s="7">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC136" s="7">
         <f t="shared" si="19"/>
@@ -32207,7 +32752,7 @@
       </c>
       <c r="AD136" s="7">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE136" s="7">
         <f t="shared" si="21"/>
@@ -32249,7 +32794,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO136" s="7"/>
+      <c r="AO136" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP136" s="7"/>
       <c r="AQ136" s="7"/>
       <c r="AR136" s="7"/>
@@ -32269,6 +32817,7 @@
       <c r="BF136" s="7"/>
       <c r="BG136" s="7"/>
       <c r="BH136" s="7"/>
+      <c r="BI136" s="7"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="7"/>
@@ -32345,27 +32894,27 @@
       </c>
       <c r="W137" s="7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X137" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y137" s="7">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z137" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA137" s="7">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB137" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC137" s="7">
         <f t="shared" si="19"/>
@@ -32415,7 +32964,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO137" s="7"/>
+      <c r="AO137" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="AP137" s="7"/>
       <c r="AQ137" s="7"/>
       <c r="AR137" s="7"/>
@@ -32435,6 +32987,7 @@
       <c r="BF137" s="7"/>
       <c r="BG137" s="7"/>
       <c r="BH137" s="7"/>
+      <c r="BI137" s="7"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="7"/>
@@ -32472,11 +33025,11 @@
       <c r="AG138" s="7"/>
       <c r="AH138" s="7"/>
       <c r="AI138" s="7"/>
-      <c r="AJ138" s="7">
-        <f>SUM(AJ2:AJ137)</f>
+      <c r="AJ138" s="7"/>
+      <c r="AK138" s="7">
+        <f>SUM(AK2:AK137)</f>
         <v>4</v>
       </c>
-      <c r="AK138" s="7"/>
       <c r="AL138" s="7"/>
       <c r="AM138" s="7"/>
       <c r="AN138" s="7"/>
@@ -32500,6 +33053,7 @@
       <c r="BF138" s="7"/>
       <c r="BG138" s="7"/>
       <c r="BH138" s="7"/>
+      <c r="BI138" s="7"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="7"/>
@@ -32562,6 +33116,7 @@
       <c r="BF139" s="7"/>
       <c r="BG139" s="7"/>
       <c r="BH139" s="7"/>
+      <c r="BI139" s="7"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="7"/>
@@ -32624,6 +33179,7 @@
       <c r="BF140" s="7"/>
       <c r="BG140" s="7"/>
       <c r="BH140" s="7"/>
+      <c r="BI140" s="7"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="7"/>
@@ -32686,6 +33242,7 @@
       <c r="BF141" s="7"/>
       <c r="BG141" s="7"/>
       <c r="BH141" s="7"/>
+      <c r="BI141" s="7"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="7"/>
@@ -32748,6 +33305,7 @@
       <c r="BF142" s="7"/>
       <c r="BG142" s="7"/>
       <c r="BH142" s="7"/>
+      <c r="BI142" s="7"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="7"/>
@@ -32810,6 +33368,7 @@
       <c r="BF143" s="7"/>
       <c r="BG143" s="7"/>
       <c r="BH143" s="7"/>
+      <c r="BI143" s="7"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="7"/>
@@ -32872,6 +33431,7 @@
       <c r="BF144" s="7"/>
       <c r="BG144" s="7"/>
       <c r="BH144" s="7"/>
+      <c r="BI144" s="7"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="7"/>
@@ -32934,6 +33494,7 @@
       <c r="BF145" s="7"/>
       <c r="BG145" s="7"/>
       <c r="BH145" s="7"/>
+      <c r="BI145" s="7"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="7"/>
@@ -32996,6 +33557,7 @@
       <c r="BF146" s="7"/>
       <c r="BG146" s="7"/>
       <c r="BH146" s="7"/>
+      <c r="BI146" s="7"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="7"/>
@@ -33058,6 +33620,7 @@
       <c r="BF147" s="7"/>
       <c r="BG147" s="7"/>
       <c r="BH147" s="7"/>
+      <c r="BI147" s="7"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="7"/>
@@ -33120,6 +33683,7 @@
       <c r="BF148" s="7"/>
       <c r="BG148" s="7"/>
       <c r="BH148" s="7"/>
+      <c r="BI148" s="7"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="7"/>
@@ -33182,6 +33746,7 @@
       <c r="BF149" s="7"/>
       <c r="BG149" s="7"/>
       <c r="BH149" s="7"/>
+      <c r="BI149" s="7"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="7"/>
@@ -33244,6 +33809,7 @@
       <c r="BF150" s="7"/>
       <c r="BG150" s="7"/>
       <c r="BH150" s="7"/>
+      <c r="BI150" s="7"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="7"/>
@@ -33306,6 +33872,7 @@
       <c r="BF151" s="7"/>
       <c r="BG151" s="7"/>
       <c r="BH151" s="7"/>
+      <c r="BI151" s="7"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="7"/>
@@ -33368,6 +33935,7 @@
       <c r="BF152" s="7"/>
       <c r="BG152" s="7"/>
       <c r="BH152" s="7"/>
+      <c r="BI152" s="7"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="7"/>
@@ -33430,6 +33998,7 @@
       <c r="BF153" s="7"/>
       <c r="BG153" s="7"/>
       <c r="BH153" s="7"/>
+      <c r="BI153" s="7"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="7"/>
@@ -33492,6 +34061,7 @@
       <c r="BF154" s="7"/>
       <c r="BG154" s="7"/>
       <c r="BH154" s="7"/>
+      <c r="BI154" s="7"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="7"/>
@@ -33554,6 +34124,7 @@
       <c r="BF155" s="7"/>
       <c r="BG155" s="7"/>
       <c r="BH155" s="7"/>
+      <c r="BI155" s="7"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="7"/>
@@ -33616,6 +34187,7 @@
       <c r="BF156" s="7"/>
       <c r="BG156" s="7"/>
       <c r="BH156" s="7"/>
+      <c r="BI156" s="7"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="7"/>
@@ -33678,6 +34250,7 @@
       <c r="BF157" s="7"/>
       <c r="BG157" s="7"/>
       <c r="BH157" s="7"/>
+      <c r="BI157" s="7"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="7"/>
@@ -33740,6 +34313,7 @@
       <c r="BF158" s="7"/>
       <c r="BG158" s="7"/>
       <c r="BH158" s="7"/>
+      <c r="BI158" s="7"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="7"/>
@@ -33802,6 +34376,7 @@
       <c r="BF159" s="7"/>
       <c r="BG159" s="7"/>
       <c r="BH159" s="7"/>
+      <c r="BI159" s="7"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="7"/>
@@ -33864,6 +34439,7 @@
       <c r="BF160" s="7"/>
       <c r="BG160" s="7"/>
       <c r="BH160" s="7"/>
+      <c r="BI160" s="7"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="7"/>
@@ -33926,6 +34502,7 @@
       <c r="BF161" s="7"/>
       <c r="BG161" s="7"/>
       <c r="BH161" s="7"/>
+      <c r="BI161" s="7"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="7"/>
@@ -33988,6 +34565,7 @@
       <c r="BF162" s="7"/>
       <c r="BG162" s="7"/>
       <c r="BH162" s="7"/>
+      <c r="BI162" s="7"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="7"/>
@@ -34050,6 +34628,7 @@
       <c r="BF163" s="7"/>
       <c r="BG163" s="7"/>
       <c r="BH163" s="7"/>
+      <c r="BI163" s="7"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="7"/>
@@ -34112,6 +34691,7 @@
       <c r="BF164" s="7"/>
       <c r="BG164" s="7"/>
       <c r="BH164" s="7"/>
+      <c r="BI164" s="7"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="7"/>
@@ -34174,6 +34754,7 @@
       <c r="BF165" s="7"/>
       <c r="BG165" s="7"/>
       <c r="BH165" s="7"/>
+      <c r="BI165" s="7"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="7"/>
@@ -34236,6 +34817,7 @@
       <c r="BF166" s="7"/>
       <c r="BG166" s="7"/>
       <c r="BH166" s="7"/>
+      <c r="BI166" s="7"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="7"/>
@@ -34298,6 +34880,7 @@
       <c r="BF167" s="7"/>
       <c r="BG167" s="7"/>
       <c r="BH167" s="7"/>
+      <c r="BI167" s="7"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="7"/>
@@ -34360,6 +34943,7 @@
       <c r="BF168" s="7"/>
       <c r="BG168" s="7"/>
       <c r="BH168" s="7"/>
+      <c r="BI168" s="7"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="7"/>
@@ -34422,6 +35006,7 @@
       <c r="BF169" s="7"/>
       <c r="BG169" s="7"/>
       <c r="BH169" s="7"/>
+      <c r="BI169" s="7"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="7"/>
@@ -34484,6 +35069,7 @@
       <c r="BF170" s="7"/>
       <c r="BG170" s="7"/>
       <c r="BH170" s="7"/>
+      <c r="BI170" s="7"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="7"/>
@@ -34546,6 +35132,7 @@
       <c r="BF171" s="7"/>
       <c r="BG171" s="7"/>
       <c r="BH171" s="7"/>
+      <c r="BI171" s="7"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="7"/>
@@ -34608,6 +35195,7 @@
       <c r="BF172" s="7"/>
       <c r="BG172" s="7"/>
       <c r="BH172" s="7"/>
+      <c r="BI172" s="7"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="7"/>
@@ -34670,6 +35258,7 @@
       <c r="BF173" s="7"/>
       <c r="BG173" s="7"/>
       <c r="BH173" s="7"/>
+      <c r="BI173" s="7"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="7"/>
@@ -34732,6 +35321,7 @@
       <c r="BF174" s="7"/>
       <c r="BG174" s="7"/>
       <c r="BH174" s="7"/>
+      <c r="BI174" s="7"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="7"/>
@@ -34794,6 +35384,7 @@
       <c r="BF175" s="7"/>
       <c r="BG175" s="7"/>
       <c r="BH175" s="7"/>
+      <c r="BI175" s="7"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="7"/>
@@ -34856,6 +35447,7 @@
       <c r="BF176" s="7"/>
       <c r="BG176" s="7"/>
       <c r="BH176" s="7"/>
+      <c r="BI176" s="7"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="7"/>
@@ -34918,6 +35510,7 @@
       <c r="BF177" s="7"/>
       <c r="BG177" s="7"/>
       <c r="BH177" s="7"/>
+      <c r="BI177" s="7"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="7"/>
@@ -34980,6 +35573,7 @@
       <c r="BF178" s="7"/>
       <c r="BG178" s="7"/>
       <c r="BH178" s="7"/>
+      <c r="BI178" s="7"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="7"/>
@@ -35042,6 +35636,7 @@
       <c r="BF179" s="7"/>
       <c r="BG179" s="7"/>
       <c r="BH179" s="7"/>
+      <c r="BI179" s="7"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="7"/>
@@ -35104,6 +35699,7 @@
       <c r="BF180" s="7"/>
       <c r="BG180" s="7"/>
       <c r="BH180" s="7"/>
+      <c r="BI180" s="7"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="7"/>
@@ -35166,6 +35762,7 @@
       <c r="BF181" s="7"/>
       <c r="BG181" s="7"/>
       <c r="BH181" s="7"/>
+      <c r="BI181" s="7"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="7"/>
@@ -35228,6 +35825,7 @@
       <c r="BF182" s="7"/>
       <c r="BG182" s="7"/>
       <c r="BH182" s="7"/>
+      <c r="BI182" s="7"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="7"/>
@@ -35290,6 +35888,7 @@
       <c r="BF183" s="7"/>
       <c r="BG183" s="7"/>
       <c r="BH183" s="7"/>
+      <c r="BI183" s="7"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="7"/>
@@ -35352,6 +35951,7 @@
       <c r="BF184" s="7"/>
       <c r="BG184" s="7"/>
       <c r="BH184" s="7"/>
+      <c r="BI184" s="7"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="7"/>
@@ -35414,6 +36014,7 @@
       <c r="BF185" s="7"/>
       <c r="BG185" s="7"/>
       <c r="BH185" s="7"/>
+      <c r="BI185" s="7"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="7"/>
@@ -35476,6 +36077,7 @@
       <c r="BF186" s="7"/>
       <c r="BG186" s="7"/>
       <c r="BH186" s="7"/>
+      <c r="BI186" s="7"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="7"/>
@@ -35538,6 +36140,7 @@
       <c r="BF187" s="7"/>
       <c r="BG187" s="7"/>
       <c r="BH187" s="7"/>
+      <c r="BI187" s="7"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="7"/>
@@ -35600,6 +36203,7 @@
       <c r="BF188" s="7"/>
       <c r="BG188" s="7"/>
       <c r="BH188" s="7"/>
+      <c r="BI188" s="7"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="7"/>
@@ -35662,6 +36266,7 @@
       <c r="BF189" s="7"/>
       <c r="BG189" s="7"/>
       <c r="BH189" s="7"/>
+      <c r="BI189" s="7"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="7"/>
@@ -35724,6 +36329,7 @@
       <c r="BF190" s="7"/>
       <c r="BG190" s="7"/>
       <c r="BH190" s="7"/>
+      <c r="BI190" s="7"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="7"/>
@@ -35786,6 +36392,7 @@
       <c r="BF191" s="7"/>
       <c r="BG191" s="7"/>
       <c r="BH191" s="7"/>
+      <c r="BI191" s="7"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="7"/>
@@ -35848,6 +36455,7 @@
       <c r="BF192" s="7"/>
       <c r="BG192" s="7"/>
       <c r="BH192" s="7"/>
+      <c r="BI192" s="7"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="7"/>
@@ -35910,6 +36518,7 @@
       <c r="BF193" s="7"/>
       <c r="BG193" s="7"/>
       <c r="BH193" s="7"/>
+      <c r="BI193" s="7"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="7"/>
@@ -35972,6 +36581,7 @@
       <c r="BF194" s="7"/>
       <c r="BG194" s="7"/>
       <c r="BH194" s="7"/>
+      <c r="BI194" s="7"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="7"/>
@@ -36034,6 +36644,7 @@
       <c r="BF195" s="7"/>
       <c r="BG195" s="7"/>
       <c r="BH195" s="7"/>
+      <c r="BI195" s="7"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="7"/>
@@ -36096,6 +36707,7 @@
       <c r="BF196" s="7"/>
       <c r="BG196" s="7"/>
       <c r="BH196" s="7"/>
+      <c r="BI196" s="7"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="7"/>
@@ -36158,6 +36770,7 @@
       <c r="BF197" s="7"/>
       <c r="BG197" s="7"/>
       <c r="BH197" s="7"/>
+      <c r="BI197" s="7"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="7"/>
@@ -36220,6 +36833,7 @@
       <c r="BF198" s="7"/>
       <c r="BG198" s="7"/>
       <c r="BH198" s="7"/>
+      <c r="BI198" s="7"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="7"/>
@@ -36282,6 +36896,7 @@
       <c r="BF199" s="7"/>
       <c r="BG199" s="7"/>
       <c r="BH199" s="7"/>
+      <c r="BI199" s="7"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="7"/>
@@ -36344,6 +36959,7 @@
       <c r="BF200" s="7"/>
       <c r="BG200" s="7"/>
       <c r="BH200" s="7"/>
+      <c r="BI200" s="7"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="7"/>
@@ -36406,6 +37022,7 @@
       <c r="BF201" s="7"/>
       <c r="BG201" s="7"/>
       <c r="BH201" s="7"/>
+      <c r="BI201" s="7"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="7"/>
@@ -36468,6 +37085,7 @@
       <c r="BF202" s="7"/>
       <c r="BG202" s="7"/>
       <c r="BH202" s="7"/>
+      <c r="BI202" s="7"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="7"/>
@@ -36530,6 +37148,7 @@
       <c r="BF203" s="7"/>
       <c r="BG203" s="7"/>
       <c r="BH203" s="7"/>
+      <c r="BI203" s="7"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="7"/>
@@ -36592,6 +37211,7 @@
       <c r="BF204" s="7"/>
       <c r="BG204" s="7"/>
       <c r="BH204" s="7"/>
+      <c r="BI204" s="7"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="7"/>
@@ -36654,6 +37274,7 @@
       <c r="BF205" s="7"/>
       <c r="BG205" s="7"/>
       <c r="BH205" s="7"/>
+      <c r="BI205" s="7"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="7"/>
@@ -36716,6 +37337,7 @@
       <c r="BF206" s="7"/>
       <c r="BG206" s="7"/>
       <c r="BH206" s="7"/>
+      <c r="BI206" s="7"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="7"/>
@@ -36778,6 +37400,7 @@
       <c r="BF207" s="7"/>
       <c r="BG207" s="7"/>
       <c r="BH207" s="7"/>
+      <c r="BI207" s="7"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="7"/>
@@ -36840,6 +37463,7 @@
       <c r="BF208" s="7"/>
       <c r="BG208" s="7"/>
       <c r="BH208" s="7"/>
+      <c r="BI208" s="7"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="7"/>
@@ -36902,6 +37526,7 @@
       <c r="BF209" s="7"/>
       <c r="BG209" s="7"/>
       <c r="BH209" s="7"/>
+      <c r="BI209" s="7"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="7"/>
@@ -36964,6 +37589,7 @@
       <c r="BF210" s="7"/>
       <c r="BG210" s="7"/>
       <c r="BH210" s="7"/>
+      <c r="BI210" s="7"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="7"/>
@@ -37026,6 +37652,7 @@
       <c r="BF211" s="7"/>
       <c r="BG211" s="7"/>
       <c r="BH211" s="7"/>
+      <c r="BI211" s="7"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="7"/>
@@ -37088,6 +37715,7 @@
       <c r="BF212" s="7"/>
       <c r="BG212" s="7"/>
       <c r="BH212" s="7"/>
+      <c r="BI212" s="7"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="7"/>
@@ -37150,6 +37778,7 @@
       <c r="BF213" s="7"/>
       <c r="BG213" s="7"/>
       <c r="BH213" s="7"/>
+      <c r="BI213" s="7"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="7"/>
@@ -37212,6 +37841,7 @@
       <c r="BF214" s="7"/>
       <c r="BG214" s="7"/>
       <c r="BH214" s="7"/>
+      <c r="BI214" s="7"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="7"/>
@@ -37274,6 +37904,7 @@
       <c r="BF215" s="7"/>
       <c r="BG215" s="7"/>
       <c r="BH215" s="7"/>
+      <c r="BI215" s="7"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="7"/>
@@ -37336,6 +37967,7 @@
       <c r="BF216" s="7"/>
       <c r="BG216" s="7"/>
       <c r="BH216" s="7"/>
+      <c r="BI216" s="7"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="7"/>
@@ -37398,6 +38030,7 @@
       <c r="BF217" s="7"/>
       <c r="BG217" s="7"/>
       <c r="BH217" s="7"/>
+      <c r="BI217" s="7"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="7"/>
@@ -37460,6 +38093,7 @@
       <c r="BF218" s="7"/>
       <c r="BG218" s="7"/>
       <c r="BH218" s="7"/>
+      <c r="BI218" s="7"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="7"/>
@@ -37522,6 +38156,7 @@
       <c r="BF219" s="7"/>
       <c r="BG219" s="7"/>
       <c r="BH219" s="7"/>
+      <c r="BI219" s="7"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="7"/>
@@ -37584,6 +38219,7 @@
       <c r="BF220" s="7"/>
       <c r="BG220" s="7"/>
       <c r="BH220" s="7"/>
+      <c r="BI220" s="7"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="7"/>
@@ -37646,6 +38282,7 @@
       <c r="BF221" s="7"/>
       <c r="BG221" s="7"/>
       <c r="BH221" s="7"/>
+      <c r="BI221" s="7"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="7"/>
@@ -37708,6 +38345,7 @@
       <c r="BF222" s="7"/>
       <c r="BG222" s="7"/>
       <c r="BH222" s="7"/>
+      <c r="BI222" s="7"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="7"/>
@@ -37770,6 +38408,7 @@
       <c r="BF223" s="7"/>
       <c r="BG223" s="7"/>
       <c r="BH223" s="7"/>
+      <c r="BI223" s="7"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="7"/>
@@ -37832,6 +38471,7 @@
       <c r="BF224" s="7"/>
       <c r="BG224" s="7"/>
       <c r="BH224" s="7"/>
+      <c r="BI224" s="7"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="7"/>
@@ -37894,6 +38534,7 @@
       <c r="BF225" s="7"/>
       <c r="BG225" s="7"/>
       <c r="BH225" s="7"/>
+      <c r="BI225" s="7"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="7"/>
@@ -37956,6 +38597,7 @@
       <c r="BF226" s="7"/>
       <c r="BG226" s="7"/>
       <c r="BH226" s="7"/>
+      <c r="BI226" s="7"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="7"/>
@@ -38018,6 +38660,7 @@
       <c r="BF227" s="7"/>
       <c r="BG227" s="7"/>
       <c r="BH227" s="7"/>
+      <c r="BI227" s="7"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="7"/>
@@ -38080,6 +38723,7 @@
       <c r="BF228" s="7"/>
       <c r="BG228" s="7"/>
       <c r="BH228" s="7"/>
+      <c r="BI228" s="7"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="7"/>
@@ -38142,6 +38786,7 @@
       <c r="BF229" s="7"/>
       <c r="BG229" s="7"/>
       <c r="BH229" s="7"/>
+      <c r="BI229" s="7"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="7"/>
@@ -38204,6 +38849,7 @@
       <c r="BF230" s="7"/>
       <c r="BG230" s="7"/>
       <c r="BH230" s="7"/>
+      <c r="BI230" s="7"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="7"/>
@@ -38266,6 +38912,7 @@
       <c r="BF231" s="7"/>
       <c r="BG231" s="7"/>
       <c r="BH231" s="7"/>
+      <c r="BI231" s="7"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="7"/>
@@ -38328,6 +38975,7 @@
       <c r="BF232" s="7"/>
       <c r="BG232" s="7"/>
       <c r="BH232" s="7"/>
+      <c r="BI232" s="7"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="7"/>
@@ -38390,6 +39038,7 @@
       <c r="BF233" s="7"/>
       <c r="BG233" s="7"/>
       <c r="BH233" s="7"/>
+      <c r="BI233" s="7"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="7"/>
@@ -38452,6 +39101,7 @@
       <c r="BF234" s="7"/>
       <c r="BG234" s="7"/>
       <c r="BH234" s="7"/>
+      <c r="BI234" s="7"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="7"/>
@@ -38514,6 +39164,7 @@
       <c r="BF235" s="7"/>
       <c r="BG235" s="7"/>
       <c r="BH235" s="7"/>
+      <c r="BI235" s="7"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="7"/>
@@ -38576,6 +39227,7 @@
       <c r="BF236" s="7"/>
       <c r="BG236" s="7"/>
       <c r="BH236" s="7"/>
+      <c r="BI236" s="7"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="7"/>
@@ -38638,6 +39290,7 @@
       <c r="BF237" s="7"/>
       <c r="BG237" s="7"/>
       <c r="BH237" s="7"/>
+      <c r="BI237" s="7"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="7"/>
@@ -38700,6 +39353,7 @@
       <c r="BF238" s="7"/>
       <c r="BG238" s="7"/>
       <c r="BH238" s="7"/>
+      <c r="BI238" s="7"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="7"/>
@@ -38762,6 +39416,7 @@
       <c r="BF239" s="7"/>
       <c r="BG239" s="7"/>
       <c r="BH239" s="7"/>
+      <c r="BI239" s="7"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="7"/>
@@ -38824,6 +39479,7 @@
       <c r="BF240" s="7"/>
       <c r="BG240" s="7"/>
       <c r="BH240" s="7"/>
+      <c r="BI240" s="7"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="7"/>
@@ -38886,6 +39542,7 @@
       <c r="BF241" s="7"/>
       <c r="BG241" s="7"/>
       <c r="BH241" s="7"/>
+      <c r="BI241" s="7"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="7"/>
@@ -38948,6 +39605,7 @@
       <c r="BF242" s="7"/>
       <c r="BG242" s="7"/>
       <c r="BH242" s="7"/>
+      <c r="BI242" s="7"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="7"/>
@@ -39010,6 +39668,7 @@
       <c r="BF243" s="7"/>
       <c r="BG243" s="7"/>
       <c r="BH243" s="7"/>
+      <c r="BI243" s="7"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="7"/>
@@ -39072,6 +39731,7 @@
       <c r="BF244" s="7"/>
       <c r="BG244" s="7"/>
       <c r="BH244" s="7"/>
+      <c r="BI244" s="7"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="7"/>
@@ -39134,6 +39794,7 @@
       <c r="BF245" s="7"/>
       <c r="BG245" s="7"/>
       <c r="BH245" s="7"/>
+      <c r="BI245" s="7"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="7"/>
@@ -39196,6 +39857,7 @@
       <c r="BF246" s="7"/>
       <c r="BG246" s="7"/>
       <c r="BH246" s="7"/>
+      <c r="BI246" s="7"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="7"/>
@@ -39258,6 +39920,7 @@
       <c r="BF247" s="7"/>
       <c r="BG247" s="7"/>
       <c r="BH247" s="7"/>
+      <c r="BI247" s="7"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="7"/>
@@ -39320,6 +39983,7 @@
       <c r="BF248" s="7"/>
       <c r="BG248" s="7"/>
       <c r="BH248" s="7"/>
+      <c r="BI248" s="7"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="7"/>
@@ -39382,6 +40046,7 @@
       <c r="BF249" s="7"/>
       <c r="BG249" s="7"/>
       <c r="BH249" s="7"/>
+      <c r="BI249" s="7"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="7"/>
@@ -39444,6 +40109,7 @@
       <c r="BF250" s="7"/>
       <c r="BG250" s="7"/>
       <c r="BH250" s="7"/>
+      <c r="BI250" s="7"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="7"/>
@@ -39506,6 +40172,7 @@
       <c r="BF251" s="7"/>
       <c r="BG251" s="7"/>
       <c r="BH251" s="7"/>
+      <c r="BI251" s="7"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="7"/>
@@ -39568,6 +40235,7 @@
       <c r="BF252" s="7"/>
       <c r="BG252" s="7"/>
       <c r="BH252" s="7"/>
+      <c r="BI252" s="7"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="7"/>
@@ -39630,6 +40298,7 @@
       <c r="BF253" s="7"/>
       <c r="BG253" s="7"/>
       <c r="BH253" s="7"/>
+      <c r="BI253" s="7"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="7"/>
@@ -39692,6 +40361,7 @@
       <c r="BF254" s="7"/>
       <c r="BG254" s="7"/>
       <c r="BH254" s="7"/>
+      <c r="BI254" s="7"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="7"/>
@@ -39754,6 +40424,7 @@
       <c r="BF255" s="7"/>
       <c r="BG255" s="7"/>
       <c r="BH255" s="7"/>
+      <c r="BI255" s="7"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="7"/>
@@ -39816,6 +40487,7 @@
       <c r="BF256" s="7"/>
       <c r="BG256" s="7"/>
       <c r="BH256" s="7"/>
+      <c r="BI256" s="7"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="7"/>
@@ -39878,6 +40550,7 @@
       <c r="BF257" s="7"/>
       <c r="BG257" s="7"/>
       <c r="BH257" s="7"/>
+      <c r="BI257" s="7"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="7"/>
@@ -39940,6 +40613,7 @@
       <c r="BF258" s="7"/>
       <c r="BG258" s="7"/>
       <c r="BH258" s="7"/>
+      <c r="BI258" s="7"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="7"/>
@@ -40002,6 +40676,7 @@
       <c r="BF259" s="7"/>
       <c r="BG259" s="7"/>
       <c r="BH259" s="7"/>
+      <c r="BI259" s="7"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="7"/>
@@ -40064,6 +40739,7 @@
       <c r="BF260" s="7"/>
       <c r="BG260" s="7"/>
       <c r="BH260" s="7"/>
+      <c r="BI260" s="7"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="7"/>
@@ -40126,6 +40802,7 @@
       <c r="BF261" s="7"/>
       <c r="BG261" s="7"/>
       <c r="BH261" s="7"/>
+      <c r="BI261" s="7"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="7"/>
@@ -40188,6 +40865,7 @@
       <c r="BF262" s="7"/>
       <c r="BG262" s="7"/>
       <c r="BH262" s="7"/>
+      <c r="BI262" s="7"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="7"/>
@@ -40250,6 +40928,7 @@
       <c r="BF263" s="7"/>
       <c r="BG263" s="7"/>
       <c r="BH263" s="7"/>
+      <c r="BI263" s="7"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="7"/>
@@ -40312,6 +40991,7 @@
       <c r="BF264" s="7"/>
       <c r="BG264" s="7"/>
       <c r="BH264" s="7"/>
+      <c r="BI264" s="7"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="7"/>
@@ -40374,6 +41054,7 @@
       <c r="BF265" s="7"/>
       <c r="BG265" s="7"/>
       <c r="BH265" s="7"/>
+      <c r="BI265" s="7"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="7"/>
@@ -40436,6 +41117,7 @@
       <c r="BF266" s="7"/>
       <c r="BG266" s="7"/>
       <c r="BH266" s="7"/>
+      <c r="BI266" s="7"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="7"/>
@@ -40498,6 +41180,7 @@
       <c r="BF267" s="7"/>
       <c r="BG267" s="7"/>
       <c r="BH267" s="7"/>
+      <c r="BI267" s="7"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="7"/>
@@ -40560,6 +41243,7 @@
       <c r="BF268" s="7"/>
       <c r="BG268" s="7"/>
       <c r="BH268" s="7"/>
+      <c r="BI268" s="7"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="7"/>
@@ -40622,6 +41306,7 @@
       <c r="BF269" s="7"/>
       <c r="BG269" s="7"/>
       <c r="BH269" s="7"/>
+      <c r="BI269" s="7"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="7"/>
@@ -40684,6 +41369,7 @@
       <c r="BF270" s="7"/>
       <c r="BG270" s="7"/>
       <c r="BH270" s="7"/>
+      <c r="BI270" s="7"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="7"/>
@@ -40746,6 +41432,7 @@
       <c r="BF271" s="7"/>
       <c r="BG271" s="7"/>
       <c r="BH271" s="7"/>
+      <c r="BI271" s="7"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="7"/>
@@ -40808,6 +41495,7 @@
       <c r="BF272" s="7"/>
       <c r="BG272" s="7"/>
       <c r="BH272" s="7"/>
+      <c r="BI272" s="7"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="7"/>
@@ -40870,6 +41558,7 @@
       <c r="BF273" s="7"/>
       <c r="BG273" s="7"/>
       <c r="BH273" s="7"/>
+      <c r="BI273" s="7"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="7"/>
@@ -40932,6 +41621,7 @@
       <c r="BF274" s="7"/>
       <c r="BG274" s="7"/>
       <c r="BH274" s="7"/>
+      <c r="BI274" s="7"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="7"/>
@@ -40994,6 +41684,7 @@
       <c r="BF275" s="7"/>
       <c r="BG275" s="7"/>
       <c r="BH275" s="7"/>
+      <c r="BI275" s="7"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="7"/>
@@ -41056,6 +41747,7 @@
       <c r="BF276" s="7"/>
       <c r="BG276" s="7"/>
       <c r="BH276" s="7"/>
+      <c r="BI276" s="7"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="7"/>
@@ -41118,6 +41810,7 @@
       <c r="BF277" s="7"/>
       <c r="BG277" s="7"/>
       <c r="BH277" s="7"/>
+      <c r="BI277" s="7"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="7"/>
@@ -41180,6 +41873,7 @@
       <c r="BF278" s="7"/>
       <c r="BG278" s="7"/>
       <c r="BH278" s="7"/>
+      <c r="BI278" s="7"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="7"/>
@@ -41242,6 +41936,7 @@
       <c r="BF279" s="7"/>
       <c r="BG279" s="7"/>
       <c r="BH279" s="7"/>
+      <c r="BI279" s="7"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="7"/>
@@ -41304,6 +41999,7 @@
       <c r="BF280" s="7"/>
       <c r="BG280" s="7"/>
       <c r="BH280" s="7"/>
+      <c r="BI280" s="7"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="7"/>
@@ -41366,6 +42062,7 @@
       <c r="BF281" s="7"/>
       <c r="BG281" s="7"/>
       <c r="BH281" s="7"/>
+      <c r="BI281" s="7"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="7"/>
@@ -41428,6 +42125,7 @@
       <c r="BF282" s="7"/>
       <c r="BG282" s="7"/>
       <c r="BH282" s="7"/>
+      <c r="BI282" s="7"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="7"/>
@@ -41490,6 +42188,7 @@
       <c r="BF283" s="7"/>
       <c r="BG283" s="7"/>
       <c r="BH283" s="7"/>
+      <c r="BI283" s="7"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="7"/>
@@ -41552,6 +42251,7 @@
       <c r="BF284" s="7"/>
       <c r="BG284" s="7"/>
       <c r="BH284" s="7"/>
+      <c r="BI284" s="7"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="7"/>
@@ -41614,6 +42314,7 @@
       <c r="BF285" s="7"/>
       <c r="BG285" s="7"/>
       <c r="BH285" s="7"/>
+      <c r="BI285" s="7"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="7"/>
@@ -41676,6 +42377,7 @@
       <c r="BF286" s="7"/>
       <c r="BG286" s="7"/>
       <c r="BH286" s="7"/>
+      <c r="BI286" s="7"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="7"/>
@@ -41738,6 +42440,7 @@
       <c r="BF287" s="7"/>
       <c r="BG287" s="7"/>
       <c r="BH287" s="7"/>
+      <c r="BI287" s="7"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="7"/>
@@ -41800,6 +42503,7 @@
       <c r="BF288" s="7"/>
       <c r="BG288" s="7"/>
       <c r="BH288" s="7"/>
+      <c r="BI288" s="7"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="7"/>
@@ -41862,6 +42566,7 @@
       <c r="BF289" s="7"/>
       <c r="BG289" s="7"/>
       <c r="BH289" s="7"/>
+      <c r="BI289" s="7"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="7"/>
@@ -41924,6 +42629,7 @@
       <c r="BF290" s="7"/>
       <c r="BG290" s="7"/>
       <c r="BH290" s="7"/>
+      <c r="BI290" s="7"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="7"/>
@@ -41986,6 +42692,7 @@
       <c r="BF291" s="7"/>
       <c r="BG291" s="7"/>
       <c r="BH291" s="7"/>
+      <c r="BI291" s="7"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="7"/>
@@ -42048,6 +42755,7 @@
       <c r="BF292" s="7"/>
       <c r="BG292" s="7"/>
       <c r="BH292" s="7"/>
+      <c r="BI292" s="7"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="7"/>
@@ -42110,6 +42818,7 @@
       <c r="BF293" s="7"/>
       <c r="BG293" s="7"/>
       <c r="BH293" s="7"/>
+      <c r="BI293" s="7"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="7"/>
@@ -42172,6 +42881,7 @@
       <c r="BF294" s="7"/>
       <c r="BG294" s="7"/>
       <c r="BH294" s="7"/>
+      <c r="BI294" s="7"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="7"/>
@@ -42234,6 +42944,7 @@
       <c r="BF295" s="7"/>
       <c r="BG295" s="7"/>
       <c r="BH295" s="7"/>
+      <c r="BI295" s="7"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="7"/>
@@ -42296,6 +43007,7 @@
       <c r="BF296" s="7"/>
       <c r="BG296" s="7"/>
       <c r="BH296" s="7"/>
+      <c r="BI296" s="7"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="7"/>
@@ -42358,6 +43070,7 @@
       <c r="BF297" s="7"/>
       <c r="BG297" s="7"/>
       <c r="BH297" s="7"/>
+      <c r="BI297" s="7"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="7"/>
@@ -42420,6 +43133,7 @@
       <c r="BF298" s="7"/>
       <c r="BG298" s="7"/>
       <c r="BH298" s="7"/>
+      <c r="BI298" s="7"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="7"/>
@@ -42482,6 +43196,7 @@
       <c r="BF299" s="7"/>
       <c r="BG299" s="7"/>
       <c r="BH299" s="7"/>
+      <c r="BI299" s="7"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="7"/>
@@ -42544,6 +43259,7 @@
       <c r="BF300" s="7"/>
       <c r="BG300" s="7"/>
       <c r="BH300" s="7"/>
+      <c r="BI300" s="7"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="7"/>
@@ -42606,6 +43322,7 @@
       <c r="BF301" s="7"/>
       <c r="BG301" s="7"/>
       <c r="BH301" s="7"/>
+      <c r="BI301" s="7"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="7"/>
@@ -42668,6 +43385,7 @@
       <c r="BF302" s="7"/>
       <c r="BG302" s="7"/>
       <c r="BH302" s="7"/>
+      <c r="BI302" s="7"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="7"/>
@@ -42730,6 +43448,7 @@
       <c r="BF303" s="7"/>
       <c r="BG303" s="7"/>
       <c r="BH303" s="7"/>
+      <c r="BI303" s="7"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="7"/>
@@ -42792,6 +43511,7 @@
       <c r="BF304" s="7"/>
       <c r="BG304" s="7"/>
       <c r="BH304" s="7"/>
+      <c r="BI304" s="7"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="7"/>
@@ -42854,6 +43574,7 @@
       <c r="BF305" s="7"/>
       <c r="BG305" s="7"/>
       <c r="BH305" s="7"/>
+      <c r="BI305" s="7"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="7"/>
@@ -42916,6 +43637,7 @@
       <c r="BF306" s="7"/>
       <c r="BG306" s="7"/>
       <c r="BH306" s="7"/>
+      <c r="BI306" s="7"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="7"/>
@@ -42978,6 +43700,7 @@
       <c r="BF307" s="7"/>
       <c r="BG307" s="7"/>
       <c r="BH307" s="7"/>
+      <c r="BI307" s="7"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="7"/>
@@ -43040,6 +43763,7 @@
       <c r="BF308" s="7"/>
       <c r="BG308" s="7"/>
       <c r="BH308" s="7"/>
+      <c r="BI308" s="7"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="7"/>
@@ -43102,6 +43826,7 @@
       <c r="BF309" s="7"/>
       <c r="BG309" s="7"/>
       <c r="BH309" s="7"/>
+      <c r="BI309" s="7"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="7"/>
@@ -43164,6 +43889,7 @@
       <c r="BF310" s="7"/>
       <c r="BG310" s="7"/>
       <c r="BH310" s="7"/>
+      <c r="BI310" s="7"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="7"/>
@@ -43226,6 +43952,7 @@
       <c r="BF311" s="7"/>
       <c r="BG311" s="7"/>
       <c r="BH311" s="7"/>
+      <c r="BI311" s="7"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="7"/>
@@ -43288,6 +44015,7 @@
       <c r="BF312" s="7"/>
       <c r="BG312" s="7"/>
       <c r="BH312" s="7"/>
+      <c r="BI312" s="7"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="7"/>
@@ -43350,6 +44078,7 @@
       <c r="BF313" s="7"/>
       <c r="BG313" s="7"/>
       <c r="BH313" s="7"/>
+      <c r="BI313" s="7"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="7"/>
@@ -43412,6 +44141,7 @@
       <c r="BF314" s="7"/>
       <c r="BG314" s="7"/>
       <c r="BH314" s="7"/>
+      <c r="BI314" s="7"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="7"/>
@@ -43474,6 +44204,7 @@
       <c r="BF315" s="7"/>
       <c r="BG315" s="7"/>
       <c r="BH315" s="7"/>
+      <c r="BI315" s="7"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="7"/>
@@ -43536,6 +44267,7 @@
       <c r="BF316" s="7"/>
       <c r="BG316" s="7"/>
       <c r="BH316" s="7"/>
+      <c r="BI316" s="7"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="7"/>
@@ -43598,6 +44330,7 @@
       <c r="BF317" s="7"/>
       <c r="BG317" s="7"/>
       <c r="BH317" s="7"/>
+      <c r="BI317" s="7"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="7"/>
@@ -43660,6 +44393,7 @@
       <c r="BF318" s="7"/>
       <c r="BG318" s="7"/>
       <c r="BH318" s="7"/>
+      <c r="BI318" s="7"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="7"/>
@@ -43722,6 +44456,7 @@
       <c r="BF319" s="7"/>
       <c r="BG319" s="7"/>
       <c r="BH319" s="7"/>
+      <c r="BI319" s="7"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="7"/>
@@ -43784,6 +44519,7 @@
       <c r="BF320" s="7"/>
       <c r="BG320" s="7"/>
       <c r="BH320" s="7"/>
+      <c r="BI320" s="7"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="7"/>
@@ -43846,6 +44582,7 @@
       <c r="BF321" s="7"/>
       <c r="BG321" s="7"/>
       <c r="BH321" s="7"/>
+      <c r="BI321" s="7"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="7"/>
@@ -43908,6 +44645,7 @@
       <c r="BF322" s="7"/>
       <c r="BG322" s="7"/>
       <c r="BH322" s="7"/>
+      <c r="BI322" s="7"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="7"/>
@@ -43970,6 +44708,7 @@
       <c r="BF323" s="7"/>
       <c r="BG323" s="7"/>
       <c r="BH323" s="7"/>
+      <c r="BI323" s="7"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="7"/>
@@ -44032,6 +44771,7 @@
       <c r="BF324" s="7"/>
       <c r="BG324" s="7"/>
       <c r="BH324" s="7"/>
+      <c r="BI324" s="7"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="7"/>
@@ -44094,6 +44834,7 @@
       <c r="BF325" s="7"/>
       <c r="BG325" s="7"/>
       <c r="BH325" s="7"/>
+      <c r="BI325" s="7"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="7"/>
@@ -44156,6 +44897,7 @@
       <c r="BF326" s="7"/>
       <c r="BG326" s="7"/>
       <c r="BH326" s="7"/>
+      <c r="BI326" s="7"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="7"/>
@@ -44218,6 +44960,7 @@
       <c r="BF327" s="7"/>
       <c r="BG327" s="7"/>
       <c r="BH327" s="7"/>
+      <c r="BI327" s="7"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="7"/>
@@ -44280,6 +45023,7 @@
       <c r="BF328" s="7"/>
       <c r="BG328" s="7"/>
       <c r="BH328" s="7"/>
+      <c r="BI328" s="7"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="7"/>
@@ -44342,6 +45086,7 @@
       <c r="BF329" s="7"/>
       <c r="BG329" s="7"/>
       <c r="BH329" s="7"/>
+      <c r="BI329" s="7"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="7"/>
@@ -44404,6 +45149,7 @@
       <c r="BF330" s="7"/>
       <c r="BG330" s="7"/>
       <c r="BH330" s="7"/>
+      <c r="BI330" s="7"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="7"/>
@@ -44466,6 +45212,7 @@
       <c r="BF331" s="7"/>
       <c r="BG331" s="7"/>
       <c r="BH331" s="7"/>
+      <c r="BI331" s="7"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="7"/>
@@ -44528,6 +45275,7 @@
       <c r="BF332" s="7"/>
       <c r="BG332" s="7"/>
       <c r="BH332" s="7"/>
+      <c r="BI332" s="7"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="7"/>
@@ -44590,6 +45338,7 @@
       <c r="BF333" s="7"/>
       <c r="BG333" s="7"/>
       <c r="BH333" s="7"/>
+      <c r="BI333" s="7"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="7"/>
@@ -44652,6 +45401,7 @@
       <c r="BF334" s="7"/>
       <c r="BG334" s="7"/>
       <c r="BH334" s="7"/>
+      <c r="BI334" s="7"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="7"/>
@@ -44714,6 +45464,7 @@
       <c r="BF335" s="7"/>
       <c r="BG335" s="7"/>
       <c r="BH335" s="7"/>
+      <c r="BI335" s="7"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="7"/>
@@ -44776,6 +45527,7 @@
       <c r="BF336" s="7"/>
       <c r="BG336" s="7"/>
       <c r="BH336" s="7"/>
+      <c r="BI336" s="7"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="7"/>
@@ -44838,6 +45590,7 @@
       <c r="BF337" s="7"/>
       <c r="BG337" s="7"/>
       <c r="BH337" s="7"/>
+      <c r="BI337" s="7"/>
     </row>
     <row r="338" ht="15.75" customHeight="1"/>
     <row r="339" ht="15.75" customHeight="1"/>
@@ -45525,114 +46278,114 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AH1" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AI1" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>549</v>
       </c>
       <c r="B2" s="4">
